--- a/Occupancy/data.xlsx
+++ b/Occupancy/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexisalvarez\OneDrive - Grupo Vidanta\UPDATE\Work\01. 26Dic18 - Metas PowerBI\Enero2019\_Forecast\GoalsForecastsAndProbabilites\Occupancy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_3FDD45B87456EB82FB1C87D9C2696BEBB03BC8BB" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{90E76784-FB7B-4F20-A1E2-51C74FD454D1}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="11_3FDD45B87456EB82FB1C87C9E2EF77CBB03BC8BB" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{330371A9-B302-4E53-B773-3E8E24942620}"/>
   <bookViews>
     <workbookView xWindow="1300" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="25">
   <si>
     <t>Año</t>
   </si>
@@ -94,6 +94,18 @@
   <si>
     <t>20/03/2019</t>
   </si>
+  <si>
+    <t>Suma</t>
+  </si>
+  <si>
+    <t>Promedio</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Recuento</t>
+  </si>
 </sst>
 </file>
 
@@ -151,11 +163,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,17 +507,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G326"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I277" sqref="I277:J300"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="9" max="9" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -530,7 +545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -549,11 +564,11 @@
       <c r="F2">
         <v>0.8075834748160724</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -572,11 +587,11 @@
       <c r="F3">
         <v>0.82544664413326896</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2019</v>
       </c>
@@ -595,11 +610,11 @@
       <c r="F4">
         <v>0.88068202468289691</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2019</v>
       </c>
@@ -618,11 +633,11 @@
       <c r="F5">
         <v>0.62697033102634259</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -641,11 +656,11 @@
       <c r="F6">
         <v>0.43961932057133069</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -664,11 +679,11 @@
       <c r="F7">
         <v>0.43484629003701908</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -687,11 +702,11 @@
       <c r="F8">
         <v>0.32021827282025722</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2019</v>
       </c>
@@ -710,11 +725,11 @@
       <c r="F9">
         <v>0.13194498528060311</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2019</v>
       </c>
@@ -733,11 +748,11 @@
       <c r="F10">
         <v>7.8276731584312462E-2</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -756,11 +771,11 @@
       <c r="F11">
         <v>0.1345150387065622</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2019</v>
       </c>
@@ -779,11 +794,11 @@
       <c r="F12">
         <v>0.2212350447985407</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2019</v>
       </c>
@@ -802,11 +817,11 @@
       <c r="F13">
         <v>0.18955571823907211</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -825,11 +840,11 @@
       <c r="F14">
         <v>0.1864353099380591</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2020</v>
       </c>
@@ -848,11 +863,11 @@
       <c r="F15">
         <v>0.17811929380553571</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2020</v>
       </c>
@@ -871,11 +886,11 @@
       <c r="F16">
         <v>3.6972425143948953E-2</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2020</v>
       </c>
@@ -894,11 +909,11 @@
       <c r="F17">
         <v>1.2269971564998121E-2</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2020</v>
       </c>
@@ -917,11 +932,11 @@
       <c r="F18">
         <v>1.2637394017746349E-2</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2020</v>
       </c>
@@ -940,11 +955,11 @@
       <c r="F19">
         <v>8.2783411127206399E-3</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2020</v>
       </c>
@@ -963,11 +978,11 @@
       <c r="F20">
         <v>8.57203678032014E-3</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2020</v>
       </c>
@@ -986,11 +1001,11 @@
       <c r="F21">
         <v>6.6717548532473532E-3</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2020</v>
       </c>
@@ -1009,11 +1024,11 @@
       <c r="F22">
         <v>5.8962390686195607E-3</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2020</v>
       </c>
@@ -1032,11 +1047,11 @@
       <c r="F23">
         <v>1.7076577208039331E-2</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2020</v>
       </c>
@@ -1055,11 +1070,11 @@
       <c r="F24">
         <v>6.8351306400557966E-3</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2020</v>
       </c>
@@ -1078,11 +1093,11 @@
       <c r="F25">
         <v>6.8638598568038917E-3</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2021</v>
       </c>
@@ -1101,11 +1116,11 @@
       <c r="F26" t="s">
         <v>7</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2019</v>
       </c>
@@ -1124,11 +1139,11 @@
       <c r="F27">
         <v>0.8075834748160724</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2019</v>
       </c>
@@ -1147,11 +1162,11 @@
       <c r="F28">
         <v>0.82544664413326896</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2019</v>
       </c>
@@ -1170,11 +1185,11 @@
       <c r="F29">
         <v>0.86981511191414462</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2019</v>
       </c>
@@ -1193,11 +1208,11 @@
       <c r="F30">
         <v>0.6346048607757927</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2019</v>
       </c>
@@ -1216,11 +1231,11 @@
       <c r="F31">
         <v>0.44603666609554371</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2019</v>
       </c>
@@ -1239,11 +1254,11 @@
       <c r="F32">
         <v>0.44062449702237239</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2019</v>
       </c>
@@ -1262,11 +1277,11 @@
       <c r="F33">
         <v>0.32767402376910021</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2019</v>
       </c>
@@ -1285,11 +1300,11 @@
       <c r="F34">
         <v>0.13612975914186179</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2019</v>
       </c>
@@ -1308,11 +1323,11 @@
       <c r="F35">
         <v>8.0154514727184933E-2</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2019</v>
       </c>
@@ -1331,11 +1346,11 @@
       <c r="F36">
         <v>0.13807676931304291</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2019</v>
       </c>
@@ -1354,11 +1369,11 @@
       <c r="F37">
         <v>0.22979237083534521</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2019</v>
       </c>
@@ -1377,11 +1392,11 @@
       <c r="F38">
         <v>0.19095756556232249</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2020</v>
       </c>
@@ -1400,11 +1415,11 @@
       <c r="F39">
         <v>0.1920686593666765</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2020</v>
       </c>
@@ -1423,11 +1438,11 @@
       <c r="F40">
         <v>0.1855786254627394</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>2020</v>
       </c>
@@ -1446,11 +1461,11 @@
       <c r="F41">
         <v>7.8690363078456727E-2</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2020</v>
       </c>
@@ -1469,11 +1484,11 @@
       <c r="F42">
         <v>1.341810182949729E-2</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2020</v>
       </c>
@@ -1492,11 +1507,11 @@
       <c r="F43">
         <v>1.277757875007139E-2</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2020</v>
       </c>
@@ -1515,11 +1530,11 @@
       <c r="F44">
         <v>8.2783411127206399E-3</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2020</v>
       </c>
@@ -1538,11 +1553,11 @@
       <c r="F45">
         <v>8.717413539768331E-3</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>2020</v>
       </c>
@@ -1561,11 +1576,11 @@
       <c r="F46">
         <v>6.7444432329714487E-3</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>2020</v>
       </c>
@@ -1584,11 +1599,11 @@
       <c r="F47">
         <v>5.9713503943344603E-3</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>2020</v>
       </c>
@@ -1607,11 +1622,11 @@
       <c r="F48">
         <v>1.7076577208039331E-2</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>2020</v>
       </c>
@@ -1630,11 +1645,11 @@
       <c r="F49">
         <v>6.8351306400557966E-3</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>2020</v>
       </c>
@@ -1653,11 +1668,11 @@
       <c r="F50">
         <v>6.8638598568038917E-3</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>2021</v>
       </c>
@@ -1676,11 +1691,11 @@
       <c r="F51" t="s">
         <v>7</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>2019</v>
       </c>
@@ -1699,11 +1714,11 @@
       <c r="F52">
         <v>0.8075834748160724</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>2019</v>
       </c>
@@ -1722,11 +1737,11 @@
       <c r="F53">
         <v>0.82545239244901247</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>2019</v>
       </c>
@@ -1745,11 +1760,11 @@
       <c r="F54">
         <v>0.87216190817380834</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>2019</v>
       </c>
@@ -1768,11 +1783,11 @@
       <c r="F55">
         <v>0.64102151402972263</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>2019</v>
       </c>
@@ -1791,11 +1806,11 @@
       <c r="F56">
         <v>0.45091197956418122</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>2019</v>
       </c>
@@ -1814,11 +1829,11 @@
       <c r="F57">
         <v>0.44809270883631103</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>2019</v>
       </c>
@@ -1837,11 +1852,11 @@
       <c r="F58">
         <v>0.33236761628842748</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>2019</v>
       </c>
@@ -1860,11 +1875,11 @@
       <c r="F59">
         <v>0.1376665991703141</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>2019</v>
       </c>
@@ -1883,11 +1898,11 @@
       <c r="F60">
         <v>8.0986104404742743E-2</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>2019</v>
       </c>
@@ -1906,11 +1921,11 @@
       <c r="F61">
         <v>0.13973821799245081</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>2019</v>
       </c>
@@ -1929,11 +1944,11 @@
       <c r="F62">
         <v>0.23330114276516981</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>2019</v>
       </c>
@@ -1952,11 +1967,11 @@
       <c r="F63">
         <v>0.192639782350223</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>2020</v>
       </c>
@@ -1975,11 +1990,11 @@
       <c r="F64">
         <v>0.1941402781888133</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>2020</v>
       </c>
@@ -1998,11 +2013,11 @@
       <c r="F65">
         <v>0.18853127757704921</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>2020</v>
       </c>
@@ -2021,11 +2036,11 @@
       <c r="F66">
         <v>8.0564684869913764E-2</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>2020</v>
       </c>
@@ -2044,11 +2059,11 @@
       <c r="F67">
         <v>1.34717527764365E-2</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>2020</v>
       </c>
@@ -2067,11 +2082,11 @@
       <c r="F68">
         <v>1.408077755798196E-2</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>2020</v>
       </c>
@@ -2090,11 +2105,11 @@
       <c r="F69">
         <v>8.4178335747625947E-3</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>2020</v>
       </c>
@@ -2113,11 +2128,11 @@
       <c r="F70">
         <v>8.7901019194924282E-3</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>2020</v>
       </c>
@@ -2136,11 +2151,11 @@
       <c r="F71">
         <v>6.7444432329714487E-3</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>2020</v>
       </c>
@@ -2159,11 +2174,11 @@
       <c r="F72">
         <v>5.9713503943344603E-3</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>2020</v>
       </c>
@@ -2182,11 +2197,11 @@
       <c r="F73">
         <v>1.7221953967487529E-2</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>2020</v>
       </c>
@@ -2205,11 +2220,11 @@
       <c r="F74">
         <v>6.8351306400557966E-3</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>2020</v>
       </c>
@@ -2228,11 +2243,11 @@
       <c r="F75">
         <v>6.9002040466659394E-3</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>2021</v>
       </c>
@@ -2251,11 +2266,11 @@
       <c r="F76" t="s">
         <v>7</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>2019</v>
       </c>
@@ -2274,11 +2289,11 @@
       <c r="F77">
         <v>0.8075834748160724</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>2019</v>
       </c>
@@ -2297,11 +2312,11 @@
       <c r="F78">
         <v>0.82545239244901247</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>2019</v>
       </c>
@@ -2320,11 +2335,11 @@
       <c r="F79">
         <v>0.87343395481898001</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>2019</v>
       </c>
@@ -2343,11 +2358,11 @@
       <c r="F80">
         <v>0.64748645313589781</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>2019</v>
       </c>
@@ -2366,11 +2381,11 @@
       <c r="F81">
         <v>0.45417257259751931</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>2019</v>
       </c>
@@ -2389,11 +2404,11 @@
       <c r="F82">
         <v>0.45293738934492189</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G82" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>2019</v>
       </c>
@@ -2412,11 +2427,11 @@
       <c r="F83">
         <v>0.33613183595271101</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G83" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>2019</v>
       </c>
@@ -2435,11 +2450,11 @@
       <c r="F84">
         <v>0.1396239933957415</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>2019</v>
       </c>
@@ -2458,11 +2473,11 @@
       <c r="F85">
         <v>8.1865979934545849E-2</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G85" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>2019</v>
       </c>
@@ -2481,11 +2496,11 @@
       <c r="F86">
         <v>0.14133217031925771</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>2019</v>
       </c>
@@ -2504,11 +2519,11 @@
       <c r="F87">
         <v>0.23649337410805299</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G87" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>2019</v>
       </c>
@@ -2527,11 +2542,11 @@
       <c r="F88">
         <v>0.19419219846004479</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>2020</v>
       </c>
@@ -2550,11 +2565,11 @@
       <c r="F89">
         <v>0.19528252415590619</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G89" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>2020</v>
       </c>
@@ -2573,11 +2588,11 @@
       <c r="F90">
         <v>0.19205558978115961</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G90" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>2020</v>
       </c>
@@ -2596,11 +2611,11 @@
       <c r="F91">
         <v>8.3316459245183092E-2</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G91" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>2020</v>
       </c>
@@ -2619,11 +2634,11 @@
       <c r="F92">
         <v>1.364880090133591E-2</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>2020</v>
       </c>
@@ -2642,11 +2657,11 @@
       <c r="F93">
         <v>1.4158657964829209E-2</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G93" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>2020</v>
       </c>
@@ -2665,11 +2680,11 @@
       <c r="F94">
         <v>8.4553892376200441E-3</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>2020</v>
       </c>
@@ -2688,11 +2703,11 @@
       <c r="F95">
         <v>8.7901019194924282E-3</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>2020</v>
       </c>
@@ -2711,11 +2726,11 @@
       <c r="F96">
         <v>6.7444432329714487E-3</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G96" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>2020</v>
       </c>
@@ -2734,11 +2749,11 @@
       <c r="F97">
         <v>5.9713503943344603E-3</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G97" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>2020</v>
       </c>
@@ -2757,11 +2772,11 @@
       <c r="F98">
         <v>1.729464234721162E-2</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G98" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>2020</v>
       </c>
@@ -2780,11 +2795,11 @@
       <c r="F99">
         <v>6.8351306400557966E-3</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G99" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>2020</v>
       </c>
@@ -2803,11 +2818,11 @@
       <c r="F100">
         <v>6.9002040466659394E-3</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G100" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>2021</v>
       </c>
@@ -2826,11 +2841,11 @@
       <c r="F101" t="s">
         <v>7</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G101" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>2019</v>
       </c>
@@ -2849,11 +2864,11 @@
       <c r="F102">
         <v>0.8075834748160724</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G102" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>2019</v>
       </c>
@@ -2872,11 +2887,11 @@
       <c r="F103">
         <v>0.82545239244901247</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G103" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>2019</v>
       </c>
@@ -2895,11 +2910,11 @@
       <c r="F104">
         <v>0.87489810646770816</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G104" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>2019</v>
       </c>
@@ -2918,11 +2933,11 @@
       <c r="F105">
         <v>0.65509952250657222</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G105" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>2019</v>
       </c>
@@ -2941,11 +2956,11 @@
       <c r="F106">
         <v>0.45811851321111302</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G106" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>2019</v>
       </c>
@@ -2964,11 +2979,11 @@
       <c r="F107">
         <v>0.45909651805354362</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G107" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>2019</v>
       </c>
@@ -2987,11 +3002,11 @@
       <c r="F108">
         <v>0.34189498605940721</v>
       </c>
-      <c r="G108" t="s">
+      <c r="G108" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>2019</v>
       </c>
@@ -3010,11 +3025,11 @@
       <c r="F109">
         <v>0.14222000695731629</v>
       </c>
-      <c r="G109" t="s">
+      <c r="G109" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>2019</v>
       </c>
@@ -3033,11 +3048,11 @@
       <c r="F110">
         <v>8.2885347926390907E-2</v>
       </c>
-      <c r="G110" t="s">
+      <c r="G110" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>2019</v>
       </c>
@@ -3056,11 +3071,11 @@
       <c r="F111">
         <v>0.1443902742947929</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G111" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>2019</v>
       </c>
@@ -3079,11 +3094,11 @@
       <c r="F112">
         <v>0.2396534148827727</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G112" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>2019</v>
       </c>
@@ -3102,11 +3117,11 @@
       <c r="F113">
         <v>0.1963313136347824</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G113" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>2020</v>
       </c>
@@ -3125,11 +3140,11 @@
       <c r="F114">
         <v>0.19750990379173741</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G114" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>2020</v>
       </c>
@@ -3148,11 +3163,11 @@
       <c r="F115">
         <v>0.19486948944648869</v>
       </c>
-      <c r="G115" t="s">
+      <c r="G115" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>2020</v>
       </c>
@@ -3171,11 +3186,11 @@
       <c r="F116">
         <v>8.5798248210048653E-2</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G116" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>2020</v>
       </c>
@@ -3194,11 +3209,11 @@
       <c r="F117">
         <v>1.389023016256237E-2</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G117" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>2020</v>
       </c>
@@ -3217,11 +3232,11 @@
       <c r="F118">
         <v>1.4309226751400551E-2</v>
       </c>
-      <c r="G118" t="s">
+      <c r="G118" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>2020</v>
       </c>
@@ -3240,11 +3255,11 @@
       <c r="F119">
         <v>8.5305005633349428E-3</v>
       </c>
-      <c r="G119" t="s">
+      <c r="G119" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>2020</v>
       </c>
@@ -3263,11 +3278,11 @@
       <c r="F120">
         <v>8.8991344890785706E-3</v>
       </c>
-      <c r="G120" t="s">
+      <c r="G120" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>2020</v>
       </c>
@@ -3286,11 +3301,11 @@
       <c r="F121">
         <v>6.7444432329714487E-3</v>
       </c>
-      <c r="G121" t="s">
+      <c r="G121" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>2020</v>
       </c>
@@ -3309,11 +3324,11 @@
       <c r="F122">
         <v>6.046461720049359E-3</v>
       </c>
-      <c r="G122" t="s">
+      <c r="G122" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>2020</v>
       </c>
@@ -3332,11 +3347,11 @@
       <c r="F123">
         <v>1.7440019106659811E-2</v>
       </c>
-      <c r="G123" t="s">
+      <c r="G123" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>2020</v>
       </c>
@@ -3355,11 +3370,11 @@
       <c r="F124">
         <v>6.9102419657706962E-3</v>
       </c>
-      <c r="G124" t="s">
+      <c r="G124" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>2020</v>
       </c>
@@ -3378,11 +3393,11 @@
       <c r="F125">
         <v>6.9002040466659394E-3</v>
       </c>
-      <c r="G125" t="s">
+      <c r="G125" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>2021</v>
       </c>
@@ -3401,11 +3416,11 @@
       <c r="F126" t="s">
         <v>7</v>
       </c>
-      <c r="G126" t="s">
+      <c r="G126" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>2019</v>
       </c>
@@ -3424,11 +3439,11 @@
       <c r="F127">
         <v>0.8075834748160724</v>
       </c>
-      <c r="G127" t="s">
+      <c r="G127" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>2019</v>
       </c>
@@ -3447,11 +3462,11 @@
       <c r="F128">
         <v>0.82545239244901247</v>
       </c>
-      <c r="G128" t="s">
+      <c r="G128" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>2019</v>
       </c>
@@ -3470,11 +3485,11 @@
       <c r="F129">
         <v>0.87397911766691072</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G129" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>2019</v>
       </c>
@@ -3493,11 +3508,11 @@
       <c r="F130">
         <v>0.65996029829926495</v>
       </c>
-      <c r="G130" t="s">
+      <c r="G130" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>2019</v>
       </c>
@@ -3516,11 +3531,11 @@
       <c r="F131">
         <v>0.46344553303946462</v>
       </c>
-      <c r="G131" t="s">
+      <c r="G131" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>2019</v>
       </c>
@@ -3539,11 +3554,11 @@
       <c r="F132">
         <v>0.46343151456623211</v>
       </c>
-      <c r="G132" t="s">
+      <c r="G132" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>2019</v>
       </c>
@@ -3562,11 +3577,11 @@
       <c r="F133">
         <v>0.34673914736530581</v>
       </c>
-      <c r="G133" t="s">
+      <c r="G133" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>2019</v>
       </c>
@@ -3585,11 +3600,11 @@
       <c r="F134">
         <v>0.14457718727122629</v>
       </c>
-      <c r="G134" t="s">
+      <c r="G134" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>2019</v>
       </c>
@@ -3608,11 +3623,11 @@
       <c r="F135">
         <v>8.4006652717420457E-2</v>
       </c>
-      <c r="G135" t="s">
+      <c r="G135" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>2019</v>
       </c>
@@ -3631,11 +3646,11 @@
       <c r="F136">
         <v>0.1462438279777574</v>
       </c>
-      <c r="G136" t="s">
+      <c r="G136" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>2019</v>
       </c>
@@ -3654,11 +3669,11 @@
       <c r="F137">
         <v>0.2426739631954504</v>
       </c>
-      <c r="G137" t="s">
+      <c r="G137" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>2019</v>
       </c>
@@ -3677,11 +3692,11 @@
       <c r="F138">
         <v>0.1977591210936486</v>
       </c>
-      <c r="G138" t="s">
+      <c r="G138" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>2020</v>
       </c>
@@ -3700,11 +3715,11 @@
       <c r="F139">
         <v>0.19885463881663321</v>
       </c>
-      <c r="G139" t="s">
+      <c r="G139" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>2020</v>
       </c>
@@ -3723,11 +3738,11 @@
       <c r="F140">
         <v>0.19736703352814181</v>
       </c>
-      <c r="G140" t="s">
+      <c r="G140" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>2020</v>
       </c>
@@ -3746,11 +3761,11 @@
       <c r="F141">
         <v>8.7537577296303792E-2</v>
       </c>
-      <c r="G141" t="s">
+      <c r="G141" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>2020</v>
       </c>
@@ -3769,11 +3784,11 @@
       <c r="F142">
         <v>1.389023016256237E-2</v>
       </c>
-      <c r="G142" t="s">
+      <c r="G142" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>2020</v>
       </c>
@@ -3792,11 +3807,11 @@
       <c r="F143">
         <v>1.438710715824779E-2</v>
       </c>
-      <c r="G143" t="s">
+      <c r="G143" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>2020</v>
       </c>
@@ -3815,11 +3830,11 @@
       <c r="F144">
         <v>8.5680562261923922E-3</v>
       </c>
-      <c r="G144" t="s">
+      <c r="G144" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>2020</v>
       </c>
@@ -3838,11 +3853,11 @@
       <c r="F145">
         <v>8.8991344890785706E-3</v>
       </c>
-      <c r="G145" t="s">
+      <c r="G145" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>2020</v>
       </c>
@@ -3861,11 +3876,11 @@
       <c r="F146">
         <v>6.7444432329714487E-3</v>
       </c>
-      <c r="G146" t="s">
+      <c r="G146" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>2020</v>
       </c>
@@ -3884,11 +3899,11 @@
       <c r="F147">
         <v>6.046461720049359E-3</v>
       </c>
-      <c r="G147" t="s">
+      <c r="G147" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>2020</v>
       </c>
@@ -3907,11 +3922,11 @@
       <c r="F148">
         <v>1.7440019106659811E-2</v>
       </c>
-      <c r="G148" t="s">
+      <c r="G148" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>2020</v>
       </c>
@@ -3930,11 +3945,11 @@
       <c r="F149">
         <v>6.9102419657706962E-3</v>
       </c>
-      <c r="G149" t="s">
+      <c r="G149" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>2020</v>
       </c>
@@ -3953,11 +3968,11 @@
       <c r="F150">
         <v>6.9002040466659394E-3</v>
       </c>
-      <c r="G150" t="s">
+      <c r="G150" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>2021</v>
       </c>
@@ -3976,11 +3991,11 @@
       <c r="F151" t="s">
         <v>7</v>
       </c>
-      <c r="G151" t="s">
+      <c r="G151" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>2019</v>
       </c>
@@ -3999,11 +4014,11 @@
       <c r="F152">
         <v>0.8075834748160724</v>
       </c>
-      <c r="G152" t="s">
+      <c r="G152" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>2019</v>
       </c>
@@ -4022,11 +4037,11 @@
       <c r="F153">
         <v>0.82545239244901247</v>
       </c>
-      <c r="G153" t="s">
+      <c r="G153" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>2019</v>
       </c>
@@ -4045,11 +4060,11 @@
       <c r="F154">
         <v>0.86167920541216902</v>
       </c>
-      <c r="G154" t="s">
+      <c r="G154" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>2019</v>
       </c>
@@ -4068,11 +4083,11 @@
       <c r="F155">
         <v>0.66996619990342832</v>
       </c>
-      <c r="G155" t="s">
+      <c r="G155" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>2019</v>
       </c>
@@ -4091,11 +4106,11 @@
       <c r="F156">
         <v>0.47359075403809908</v>
       </c>
-      <c r="G156" t="s">
+      <c r="G156" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>2019</v>
       </c>
@@ -4114,11 +4129,11 @@
       <c r="F157">
         <v>0.46920972155158541</v>
       </c>
-      <c r="G157" t="s">
+      <c r="G157" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>2019</v>
       </c>
@@ -4137,11 +4152,11 @@
       <c r="F158">
         <v>0.35258536990597239</v>
       </c>
-      <c r="G158" t="s">
+      <c r="G158" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>2019</v>
       </c>
@@ -4160,11 +4175,11 @@
       <c r="F159">
         <v>0.14791046868428839</v>
       </c>
-      <c r="G159" t="s">
+      <c r="G159" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>2019</v>
       </c>
@@ -4183,11 +4198,11 @@
       <c r="F160">
         <v>8.5900531144374695E-2</v>
       </c>
-      <c r="G160" t="s">
+      <c r="G160" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>2019</v>
       </c>
@@ -4206,11 +4221,11 @@
       <c r="F161">
         <v>0.1499509353436862</v>
       </c>
-      <c r="G161" t="s">
+      <c r="G161" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>2019</v>
       </c>
@@ -4229,11 +4244,11 @@
       <c r="F162">
         <v>0.2493266806159129</v>
       </c>
-      <c r="G162" t="s">
+      <c r="G162" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>2019</v>
       </c>
@@ -4252,11 +4267,11 @@
       <c r="F163">
         <v>0.2001526455974206</v>
       </c>
-      <c r="G163" t="s">
+      <c r="G163" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>2020</v>
       </c>
@@ -4275,11 +4290,11 @@
       <c r="F164">
         <v>0.20199581522613869</v>
       </c>
-      <c r="G164" t="s">
+      <c r="G164" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>2020</v>
       </c>
@@ -4298,11 +4313,11 @@
       <c r="F165">
         <v>0.20138530445062361</v>
       </c>
-      <c r="G165" t="s">
+      <c r="G165" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>2020</v>
       </c>
@@ -4321,11 +4336,11 @@
       <c r="F166">
         <v>9.265172401260624E-2</v>
       </c>
-      <c r="G166" t="s">
+      <c r="G166" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>2020</v>
       </c>
@@ -4344,11 +4359,11 @@
       <c r="F167">
         <v>1.3959976393583351E-2</v>
       </c>
-      <c r="G167" t="s">
+      <c r="G167" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>2020</v>
       </c>
@@ -4367,11 +4382,11 @@
       <c r="F168">
         <v>1.4563636080434881E-2</v>
       </c>
-      <c r="G168" t="s">
+      <c r="G168" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>2020</v>
       </c>
@@ -4390,11 +4405,11 @@
       <c r="F169">
         <v>8.6109769837437629E-3</v>
       </c>
-      <c r="G169" t="s">
+      <c r="G169" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>2020</v>
       </c>
@@ -4413,11 +4428,11 @@
       <c r="F170">
         <v>9.0808554383888102E-3</v>
       </c>
-      <c r="G170" t="s">
+      <c r="G170" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>2020</v>
       </c>
@@ -4436,11 +4451,11 @@
       <c r="F171">
         <v>6.7444432329714487E-3</v>
       </c>
-      <c r="G171" t="s">
+      <c r="G171" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>2020</v>
       </c>
@@ -4459,11 +4474,11 @@
       <c r="F172">
         <v>6.0840173829068084E-3</v>
       </c>
-      <c r="G172" t="s">
+      <c r="G172" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>2020</v>
       </c>
@@ -4482,11 +4497,11 @@
       <c r="F173">
         <v>1.7476363296521861E-2</v>
       </c>
-      <c r="G173" t="s">
+      <c r="G173" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>2020</v>
       </c>
@@ -4505,11 +4520,11 @@
       <c r="F174">
         <v>6.9102419657706962E-3</v>
       </c>
-      <c r="G174" t="s">
+      <c r="G174" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>2020</v>
       </c>
@@ -4528,11 +4543,11 @@
       <c r="F175">
         <v>6.9002040466659394E-3</v>
       </c>
-      <c r="G175" t="s">
+      <c r="G175" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>2021</v>
       </c>
@@ -4551,11 +4566,11 @@
       <c r="F176" t="s">
         <v>7</v>
       </c>
-      <c r="G176" t="s">
+      <c r="G176" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>2019</v>
       </c>
@@ -4574,11 +4589,11 @@
       <c r="F177">
         <v>0.8075834748160724</v>
       </c>
-      <c r="G177" t="s">
+      <c r="G177" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>2019</v>
       </c>
@@ -4597,11 +4612,11 @@
       <c r="F178">
         <v>0.82545239244901247</v>
       </c>
-      <c r="G178" t="s">
+      <c r="G178" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>2019</v>
       </c>
@@ -4620,11 +4635,11 @@
       <c r="F179">
         <v>0.86108731432012997</v>
       </c>
-      <c r="G179" t="s">
+      <c r="G179" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>2019</v>
       </c>
@@ -4643,11 +4658,11 @@
       <c r="F180">
         <v>0.67766511078920544</v>
       </c>
-      <c r="G180" t="s">
+      <c r="G180" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>2019</v>
       </c>
@@ -4666,11 +4681,11 @@
       <c r="F181">
         <v>0.48015866834888338</v>
       </c>
-      <c r="G181" t="s">
+      <c r="G181" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>2019</v>
       </c>
@@ -4689,11 +4704,11 @@
       <c r="F182">
         <v>0.47528837383979827</v>
       </c>
-      <c r="G182" t="s">
+      <c r="G182" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>2019</v>
       </c>
@@ -4712,11 +4727,11 @@
       <c r="F183">
         <v>0.35794354189706279</v>
       </c>
-      <c r="G183" t="s">
+      <c r="G183" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>2019</v>
       </c>
@@ -4735,11 +4750,11 @@
       <c r="F184">
         <v>0.15006515994039549</v>
       </c>
-      <c r="G184" t="s">
+      <c r="G184" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>2019</v>
       </c>
@@ -4758,11 +4773,11 @@
       <c r="F185">
         <v>8.7440313321530128E-2</v>
       </c>
-      <c r="G185" t="s">
+      <c r="G185" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>2019</v>
       </c>
@@ -4781,11 +4796,11 @@
       <c r="F186">
         <v>0.1527702060715565</v>
       </c>
-      <c r="G186" t="s">
+      <c r="G186" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>2019</v>
       </c>
@@ -4804,11 +4819,11 @@
       <c r="F187">
         <v>0.25284081764043143</v>
       </c>
-      <c r="G187" t="s">
+      <c r="G187" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>2019</v>
       </c>
@@ -4827,11 +4842,11 @@
       <c r="F188">
         <v>0.2024527136129759</v>
       </c>
-      <c r="G188" t="s">
+      <c r="G188" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>2020</v>
       </c>
@@ -4850,11 +4865,11 @@
       <c r="F189">
         <v>0.20448798824525061</v>
       </c>
-      <c r="G189" t="s">
+      <c r="G189" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>2020</v>
       </c>
@@ -4873,11 +4888,11 @@
       <c r="F190">
         <v>0.20473201352003861</v>
       </c>
-      <c r="G190" t="s">
+      <c r="G190" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>2020</v>
       </c>
@@ -4896,11 +4911,11 @@
       <c r="F191">
         <v>9.5699443933895109E-2</v>
       </c>
-      <c r="G191" t="s">
+      <c r="G191" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>2020</v>
       </c>
@@ -4919,11 +4934,11 @@
       <c r="F192">
         <v>1.3981436772359031E-2</v>
       </c>
-      <c r="G192" t="s">
+      <c r="G192" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>2020</v>
       </c>
@@ -4942,11 +4957,11 @@
       <c r="F193">
         <v>1.4854389599331269E-2</v>
       </c>
-      <c r="G193" t="s">
+      <c r="G193" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>2020</v>
       </c>
@@ -4965,11 +4980,11 @@
       <c r="F194">
         <v>8.6538977412951336E-3</v>
       </c>
-      <c r="G194" t="s">
+      <c r="G194" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>2020</v>
       </c>
@@ -4988,11 +5003,11 @@
       <c r="F195">
         <v>9.1120076011277085E-3</v>
       </c>
-      <c r="G195" t="s">
+      <c r="G195" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>2020</v>
       </c>
@@ -5011,11 +5026,11 @@
       <c r="F196">
         <v>6.7444432329714487E-3</v>
       </c>
-      <c r="G196" t="s">
+      <c r="G196" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>2020</v>
       </c>
@@ -5034,11 +5049,11 @@
       <c r="F197">
         <v>6.0840173829068084E-3</v>
       </c>
-      <c r="G197" t="s">
+      <c r="G197" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>2020</v>
       </c>
@@ -5057,11 +5072,11 @@
       <c r="F198">
         <v>1.7549051676245962E-2</v>
       </c>
-      <c r="G198" t="s">
+      <c r="G198" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>2020</v>
       </c>
@@ -5080,11 +5095,11 @@
       <c r="F199">
         <v>6.9102419657706962E-3</v>
       </c>
-      <c r="G199" t="s">
+      <c r="G199" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>2020</v>
       </c>
@@ -5103,11 +5118,11 @@
       <c r="F200">
         <v>6.9002040466659394E-3</v>
       </c>
-      <c r="G200" t="s">
+      <c r="G200" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>2021</v>
       </c>
@@ -5126,11 +5141,11 @@
       <c r="F201" t="s">
         <v>7</v>
       </c>
-      <c r="G201" t="s">
+      <c r="G201" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>2019</v>
       </c>
@@ -5149,11 +5164,11 @@
       <c r="F202">
         <v>0.8075834748160724</v>
       </c>
-      <c r="G202" t="s">
+      <c r="G202" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>2019</v>
       </c>
@@ -5172,11 +5187,11 @@
       <c r="F203">
         <v>0.82545239244901247</v>
       </c>
-      <c r="G203" t="s">
+      <c r="G203" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>2019</v>
       </c>
@@ -5195,11 +5210,11 @@
       <c r="F204">
         <v>0.86160132500532183</v>
       </c>
-      <c r="G204" t="s">
+      <c r="G204" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>2019</v>
       </c>
@@ -5218,11 +5233,11 @@
       <c r="F205">
         <v>0.68354525457374327</v>
       </c>
-      <c r="G205" t="s">
+      <c r="G205" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>2019</v>
       </c>
@@ -5241,11 +5256,11 @@
       <c r="F206">
         <v>0.48585432210297869</v>
       </c>
-      <c r="G206" t="s">
+      <c r="G206" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>2019</v>
       </c>
@@ -5264,11 +5279,11 @@
       <c r="F207">
         <v>0.48102902516229412</v>
       </c>
-      <c r="G207" t="s">
+      <c r="G207" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>2019</v>
       </c>
@@ -5287,11 +5302,11 @@
       <c r="F208">
         <v>0.3635145870002025</v>
       </c>
-      <c r="G208" t="s">
+      <c r="G208" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>2019</v>
       </c>
@@ -5310,11 +5325,11 @@
       <c r="F209">
         <v>0.15205889835568501</v>
       </c>
-      <c r="G209" t="s">
+      <c r="G209" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>2019</v>
       </c>
@@ -5333,11 +5348,11 @@
       <c r="F210">
         <v>8.9065937013788288E-2</v>
       </c>
-      <c r="G210" t="s">
+      <c r="G210" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>2019</v>
       </c>
@@ -5356,11 +5371,11 @@
       <c r="F211">
         <v>0.1549975857073877</v>
       </c>
-      <c r="G211" t="s">
+      <c r="G211" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>2019</v>
       </c>
@@ -5379,11 +5394,11 @@
       <c r="F212">
         <v>0.25696657546005691</v>
       </c>
-      <c r="G212" t="s">
+      <c r="G212" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>2019</v>
       </c>
@@ -5402,11 +5417,11 @@
       <c r="F213">
         <v>0.2044776041910043</v>
       </c>
-      <c r="G213" t="s">
+      <c r="G213" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>2020</v>
       </c>
@@ -5425,11 +5440,11 @@
       <c r="F214">
         <v>0.20618058908739739</v>
       </c>
-      <c r="G214" t="s">
+      <c r="G214" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>2020</v>
       </c>
@@ -5448,11 +5463,11 @@
       <c r="F215">
         <v>0.20689100162617871</v>
       </c>
-      <c r="G215" t="s">
+      <c r="G215" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>2020</v>
       </c>
@@ -5471,11 +5486,11 @@
       <c r="F216">
         <v>9.7469925182889161E-2</v>
       </c>
-      <c r="G216" t="s">
+      <c r="G216" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>2020</v>
       </c>
@@ -5494,11 +5509,11 @@
       <c r="F217">
         <v>1.421213584419765E-2</v>
       </c>
-      <c r="G217" t="s">
+      <c r="G217" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>2020</v>
       </c>
@@ -5517,11 +5532,11 @@
       <c r="F218">
         <v>1.492707797905536E-2</v>
       </c>
-      <c r="G218" t="s">
+      <c r="G218" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>2020</v>
       </c>
@@ -5540,11 +5555,11 @@
       <c r="F219">
         <v>8.6538977412951336E-3</v>
       </c>
-      <c r="G219" t="s">
+      <c r="G219" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>2020</v>
       </c>
@@ -5563,11 +5578,11 @@
       <c r="F220">
         <v>9.1483517909897553E-3</v>
       </c>
-      <c r="G220" t="s">
+      <c r="G220" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>2020</v>
       </c>
@@ -5586,11 +5601,11 @@
       <c r="F221">
         <v>6.7444432329714487E-3</v>
       </c>
-      <c r="G221" t="s">
+      <c r="G221" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>2020</v>
       </c>
@@ -5609,11 +5624,11 @@
       <c r="F222">
         <v>6.0840173829068084E-3</v>
       </c>
-      <c r="G222" t="s">
+      <c r="G222" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>2020</v>
       </c>
@@ -5632,11 +5647,11 @@
       <c r="F223">
         <v>1.7621740055970048E-2</v>
       </c>
-      <c r="G223" t="s">
+      <c r="G223" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>2020</v>
       </c>
@@ -5655,11 +5670,11 @@
       <c r="F224">
         <v>6.9102419657706962E-3</v>
       </c>
-      <c r="G224" t="s">
+      <c r="G224" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>2020</v>
       </c>
@@ -5678,11 +5693,11 @@
       <c r="F225">
         <v>6.9728924263900358E-3</v>
       </c>
-      <c r="G225" t="s">
+      <c r="G225" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>2021</v>
       </c>
@@ -5701,11 +5716,11 @@
       <c r="F226" t="s">
         <v>7</v>
       </c>
-      <c r="G226" t="s">
+      <c r="G226" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>2019</v>
       </c>
@@ -5724,11 +5739,11 @@
       <c r="F227">
         <v>0.8075834748160724</v>
       </c>
-      <c r="G227" t="s">
+      <c r="G227" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>2019</v>
       </c>
@@ -5747,11 +5762,11 @@
       <c r="F228">
         <v>0.82545239244901247</v>
       </c>
-      <c r="G228" t="s">
+      <c r="G228" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>2019</v>
       </c>
@@ -5770,11 +5785,11 @@
       <c r="F229">
         <v>0.86101981796752902</v>
       </c>
-      <c r="G229" t="s">
+      <c r="G229" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>2019</v>
       </c>
@@ -5793,11 +5808,11 @@
       <c r="F230">
         <v>0.68720424915499756</v>
       </c>
-      <c r="G230" t="s">
+      <c r="G230" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>2019</v>
       </c>
@@ -5816,11 +5831,11 @@
       <c r="F231">
         <v>0.4958333982336724</v>
       </c>
-      <c r="G231" t="s">
+      <c r="G231" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>2019</v>
       </c>
@@ -5839,11 +5854,11 @@
       <c r="F232">
         <v>0.48539084714845221</v>
       </c>
-      <c r="G232" t="s">
+      <c r="G232" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>2019</v>
       </c>
@@ -5862,11 +5877,11 @@
       <c r="F233">
         <v>0.36857162141815031</v>
       </c>
-      <c r="G233" t="s">
+      <c r="G233" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>2019</v>
       </c>
@@ -5885,11 +5900,11 @@
       <c r="F234">
         <v>0.1543589663712403</v>
       </c>
-      <c r="G234" t="s">
+      <c r="G234" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>2019</v>
       </c>
@@ -5908,11 +5923,11 @@
       <c r="F235">
         <v>9.0632544664413325E-2</v>
       </c>
-      <c r="G235" t="s">
+      <c r="G235" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>2019</v>
       </c>
@@ -5931,11 +5946,11 @@
       <c r="F236">
         <v>0.1571418929092486</v>
       </c>
-      <c r="G236" t="s">
+      <c r="G236" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>2019</v>
       </c>
@@ -5954,11 +5969,11 @@
       <c r="F237">
         <v>0.2616288427490745</v>
       </c>
-      <c r="G237" t="s">
+      <c r="G237" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>2019</v>
       </c>
@@ -5977,11 +5992,11 @@
       <c r="F238">
         <v>0.20522525609673789</v>
       </c>
-      <c r="G238" t="s">
+      <c r="G238" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>2020</v>
       </c>
@@ -6000,11 +6015,11 @@
       <c r="F239">
         <v>0.20747340384106169</v>
       </c>
-      <c r="G239" t="s">
+      <c r="G239" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>2020</v>
       </c>
@@ -6023,11 +6038,11 @@
       <c r="F240">
         <v>0.21075941990376129</v>
       </c>
-      <c r="G240" t="s">
+      <c r="G240" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>2020</v>
       </c>
@@ -6046,11 +6061,11 @@
       <c r="F241">
         <v>9.9479239679548082E-2</v>
       </c>
-      <c r="G241" t="s">
+      <c r="G241" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>2020</v>
       </c>
@@ -6069,11 +6084,11 @@
       <c r="F242">
         <v>1.4668168893180971E-2</v>
       </c>
-      <c r="G242" t="s">
+      <c r="G242" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>2020</v>
       </c>
@@ -6092,11 +6107,11 @@
       <c r="F243">
         <v>1.4942654060424811E-2</v>
       </c>
-      <c r="G243" t="s">
+      <c r="G243" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>2020</v>
       </c>
@@ -6115,11 +6130,11 @@
       <c r="F244">
         <v>8.739739256397875E-3</v>
       </c>
-      <c r="G244" t="s">
+      <c r="G244" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>2020</v>
       </c>
@@ -6138,11 +6153,11 @@
       <c r="F245">
         <v>9.1483517909897553E-3</v>
       </c>
-      <c r="G245" t="s">
+      <c r="G245" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>2020</v>
       </c>
@@ -6161,11 +6176,11 @@
       <c r="F246">
         <v>6.7444432329714487E-3</v>
       </c>
-      <c r="G246" t="s">
+      <c r="G246" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>2020</v>
       </c>
@@ -6184,11 +6199,11 @@
       <c r="F247">
         <v>6.1591287086217071E-3</v>
       </c>
-      <c r="G247" t="s">
+      <c r="G247" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>2020</v>
       </c>
@@ -6207,11 +6222,11 @@
       <c r="F248">
         <v>1.7621740055970048E-2</v>
       </c>
-      <c r="G248" t="s">
+      <c r="G248" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>2020</v>
       </c>
@@ -6230,11 +6245,11 @@
       <c r="F249">
         <v>6.9102419657706962E-3</v>
       </c>
-      <c r="G249" t="s">
+      <c r="G249" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>2020</v>
       </c>
@@ -6253,11 +6268,11 @@
       <c r="F250">
         <v>6.9728924263900358E-3</v>
       </c>
-      <c r="G250" t="s">
+      <c r="G250" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>2021</v>
       </c>
@@ -6276,11 +6291,11 @@
       <c r="F251" t="s">
         <v>7</v>
       </c>
-      <c r="G251" t="s">
+      <c r="G251" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>2019</v>
       </c>
@@ -6299,11 +6314,11 @@
       <c r="F252">
         <v>0.8075834748160724</v>
       </c>
-      <c r="G252" t="s">
+      <c r="G252" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>2019</v>
       </c>
@@ -6322,11 +6337,11 @@
       <c r="F253">
         <v>0.82545239244901247</v>
       </c>
-      <c r="G253" t="s">
+      <c r="G253" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>2019</v>
       </c>
@@ -6345,11 +6360,11 @@
       <c r="F254">
         <v>0.85937913739661376</v>
       </c>
-      <c r="G254" t="s">
+      <c r="G254" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>2019</v>
       </c>
@@ -6368,11 +6383,11 @@
       <c r="F255">
         <v>0.69257470894361284</v>
       </c>
-      <c r="G255" t="s">
+      <c r="G255" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>2019</v>
       </c>
@@ -6391,11 +6406,11 @@
       <c r="F256">
         <v>0.49923417599933539</v>
       </c>
-      <c r="G256" t="s">
+      <c r="G256" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>2019</v>
       </c>
@@ -6414,11 +6429,11 @@
       <c r="F257">
         <v>0.49183432587585169</v>
       </c>
-      <c r="G257" t="s">
+      <c r="G257" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>2019</v>
       </c>
@@ -6437,11 +6452,11 @@
       <c r="F258">
         <v>0.37371692029719161</v>
       </c>
-      <c r="G258" t="s">
+      <c r="G258" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>2019</v>
       </c>
@@ -6460,11 +6475,11 @@
       <c r="F259">
         <v>0.15688229155309111</v>
       </c>
-      <c r="G259" t="s">
+      <c r="G259" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>2019</v>
       </c>
@@ -6483,11 +6498,11 @@
       <c r="F260">
         <v>9.2472772144428353E-2</v>
       </c>
-      <c r="G260" t="s">
+      <c r="G260" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>2019</v>
       </c>
@@ -6506,11 +6521,11 @@
       <c r="F261">
         <v>0.1591615914601538</v>
       </c>
-      <c r="G261" t="s">
+      <c r="G261" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>2019</v>
       </c>
@@ -6529,11 +6544,11 @@
       <c r="F262">
         <v>0.26540586941359517</v>
       </c>
-      <c r="G262" t="s">
+      <c r="G262" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>2019</v>
       </c>
@@ -6552,11 +6567,11 @@
       <c r="F263">
         <v>0.2070061213999782</v>
       </c>
-      <c r="G263" t="s">
+      <c r="G263" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>2020</v>
       </c>
@@ -6575,11 +6590,11 @@
       <c r="F264">
         <v>0.20895832359828251</v>
       </c>
-      <c r="G264" t="s">
+      <c r="G264" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>2020</v>
       </c>
@@ -6598,11 +6613,11 @@
       <c r="F265">
         <v>0.2128240563445945</v>
       </c>
-      <c r="G265" t="s">
+      <c r="G265" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>2020</v>
       </c>
@@ -6621,11 +6636,11 @@
       <c r="F266">
         <v>0.10100050362663091</v>
       </c>
-      <c r="G266" t="s">
+      <c r="G266" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>2020</v>
       </c>
@@ -6644,11 +6659,11 @@
       <c r="F267">
         <v>1.4829121733998611E-2</v>
       </c>
-      <c r="G267" t="s">
+      <c r="G267" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>2020</v>
       </c>
@@ -6667,11 +6682,11 @@
       <c r="F268">
         <v>1.5036110548641511E-2</v>
       </c>
-      <c r="G268" t="s">
+      <c r="G268" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>2020</v>
       </c>
@@ -6690,11 +6705,11 @@
       <c r="F269">
         <v>8.739739256397875E-3</v>
       </c>
-      <c r="G269" t="s">
+      <c r="G269" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>2020</v>
       </c>
@@ -6713,11 +6728,11 @@
       <c r="F270">
         <v>9.184695980851804E-3</v>
       </c>
-      <c r="G270" t="s">
+      <c r="G270" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>2020</v>
       </c>
@@ -6736,11 +6751,11 @@
       <c r="F271">
         <v>6.8898199924196414E-3</v>
       </c>
-      <c r="G271" t="s">
+      <c r="G271" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>2020</v>
       </c>
@@ -6759,11 +6774,11 @@
       <c r="F272">
         <v>6.1591287086217071E-3</v>
       </c>
-      <c r="G272" t="s">
+      <c r="G272" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>2020</v>
       </c>
@@ -6782,11 +6797,11 @@
       <c r="F273">
         <v>1.7621740055970048E-2</v>
       </c>
-      <c r="G273" t="s">
+      <c r="G273" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>2020</v>
       </c>
@@ -6805,11 +6820,11 @@
       <c r="F274">
         <v>6.9102419657706962E-3</v>
       </c>
-      <c r="G274" t="s">
+      <c r="G274" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>2020</v>
       </c>
@@ -6828,11 +6843,11 @@
       <c r="F275">
         <v>6.9728924263900358E-3</v>
       </c>
-      <c r="G275" t="s">
+      <c r="G275" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>2021</v>
       </c>
@@ -6851,7 +6866,7 @@
       <c r="F276" t="s">
         <v>7</v>
       </c>
-      <c r="G276" t="s">
+      <c r="G276" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6874,7 +6889,7 @@
       <c r="F277">
         <v>0.8075834748160724</v>
       </c>
-      <c r="G277" t="s">
+      <c r="G277" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6897,7 +6912,7 @@
       <c r="F278">
         <v>0.82545239244901247</v>
       </c>
-      <c r="G278" t="s">
+      <c r="G278" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6920,7 +6935,7 @@
       <c r="F279">
         <v>0.84734921055227597</v>
       </c>
-      <c r="G279" t="s">
+      <c r="G279" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6943,7 +6958,7 @@
       <c r="F280">
         <v>0.70484468050861093</v>
       </c>
-      <c r="G280" t="s">
+      <c r="G280" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6966,7 +6981,7 @@
       <c r="F281">
         <v>0.50239092849021039</v>
       </c>
-      <c r="G281" t="s">
+      <c r="G281" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6989,7 +7004,7 @@
       <c r="F282">
         <v>0.49967809431836469</v>
       </c>
-      <c r="G282" t="s">
+      <c r="G282" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7012,7 +7027,7 @@
       <c r="F283">
         <v>0.38273027938297949</v>
       </c>
-      <c r="G283" t="s">
+      <c r="G283" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7035,7 +7050,7 @@
       <c r="F284">
         <v>0.16201201435076301</v>
       </c>
-      <c r="G284" t="s">
+      <c r="G284" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7058,7 +7073,7 @@
       <c r="F285">
         <v>9.4994366650571385E-2</v>
       </c>
-      <c r="G285" t="s">
+      <c r="G285" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7081,7 +7096,7 @@
       <c r="F286">
         <v>0.16367346303017091</v>
       </c>
-      <c r="G286" t="s">
+      <c r="G286" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7104,7 +7119,7 @@
       <c r="F287">
         <v>0.27247169912548957</v>
       </c>
-      <c r="G287" t="s">
+      <c r="G287" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7127,7 +7142,7 @@
       <c r="F288">
         <v>0.20996038483305041</v>
       </c>
-      <c r="G288" t="s">
+      <c r="G288" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7150,7 +7165,7 @@
       <c r="F289">
         <v>0.21318463367652629</v>
       </c>
-      <c r="G289" t="s">
+      <c r="G289" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7173,7 +7188,7 @@
       <c r="F290">
         <v>0.21668692452421781</v>
       </c>
-      <c r="G290" t="s">
+      <c r="G290" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7196,7 +7211,7 @@
       <c r="F291">
         <v>0.1056577519560962</v>
       </c>
-      <c r="G291" t="s">
+      <c r="G291" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7219,7 +7234,7 @@
       <c r="F292">
         <v>1.489350287032566E-2</v>
       </c>
-      <c r="G292" t="s">
+      <c r="G292" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7242,7 +7257,7 @@
       <c r="F293">
         <v>1.5036110548641511E-2</v>
       </c>
-      <c r="G293" t="s">
+      <c r="G293" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7265,7 +7280,7 @@
       <c r="F294">
         <v>8.7772949192553244E-3</v>
       </c>
-      <c r="G294" t="s">
+      <c r="G294" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7288,7 +7303,7 @@
       <c r="F295">
         <v>9.5481378794722831E-3</v>
       </c>
-      <c r="G295" t="s">
+      <c r="G295" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7311,7 +7326,7 @@
       <c r="F296">
         <v>6.8898199924196414E-3</v>
       </c>
-      <c r="G296" t="s">
+      <c r="G296" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7334,7 +7349,7 @@
       <c r="F297">
         <v>6.1591287086217071E-3</v>
       </c>
-      <c r="G297" t="s">
+      <c r="G297" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7357,7 +7372,7 @@
       <c r="F298">
         <v>1.7621740055970048E-2</v>
       </c>
-      <c r="G298" t="s">
+      <c r="G298" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7380,7 +7395,7 @@
       <c r="F299">
         <v>6.9102419657706962E-3</v>
       </c>
-      <c r="G299" t="s">
+      <c r="G299" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7403,7 +7418,7 @@
       <c r="F300">
         <v>6.9728924263900358E-3</v>
       </c>
-      <c r="G300" t="s">
+      <c r="G300" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7426,11 +7441,11 @@
       <c r="F301" t="s">
         <v>7</v>
       </c>
-      <c r="G301" t="s">
+      <c r="G301" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>2019</v>
       </c>
@@ -7449,11 +7464,11 @@
       <c r="F302">
         <v>0.8075834748160724</v>
       </c>
-      <c r="G302" t="s">
+      <c r="G302" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>2019</v>
       </c>
@@ -7472,11 +7487,11 @@
       <c r="F303">
         <v>0.82545239244901247</v>
       </c>
-      <c r="G303" t="s">
+      <c r="G303" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>2019</v>
       </c>
@@ -7495,11 +7510,11 @@
       <c r="F304">
         <v>0.84801898205116222</v>
       </c>
-      <c r="G304" t="s">
+      <c r="G304" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>2019</v>
       </c>
@@ -7518,11 +7533,11 @@
       <c r="F305">
         <v>0.71540318686624815</v>
       </c>
-      <c r="G305" t="s">
+      <c r="G305" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>2019</v>
       </c>
@@ -7541,11 +7556,11 @@
       <c r="F306">
         <v>0.51092662108066855</v>
       </c>
-      <c r="G306" t="s">
+      <c r="G306" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>2019</v>
       </c>
@@ -7564,11 +7579,11 @@
       <c r="F307">
         <v>0.5075916089918987</v>
       </c>
-      <c r="G307" t="s">
+      <c r="G307" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>2019</v>
       </c>
@@ -7587,11 +7602,11 @@
       <c r="F308">
         <v>0.38999392532826588</v>
       </c>
-      <c r="G308" t="s">
+      <c r="G308" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>2019</v>
       </c>
@@ -7610,11 +7625,11 @@
       <c r="F309">
         <v>0.1654543283334112</v>
       </c>
-      <c r="G309" t="s">
+      <c r="G309" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="310" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>2019</v>
       </c>
@@ -7633,11 +7648,11 @@
       <c r="F310">
         <v>9.7081388486506784E-2</v>
       </c>
-      <c r="G310" t="s">
+      <c r="G310" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>2019</v>
       </c>
@@ -7656,11 +7671,11 @@
       <c r="F311">
         <v>0.16650830983941059</v>
       </c>
-      <c r="G311" t="s">
+      <c r="G311" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="312" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>2019</v>
       </c>
@@ -7679,11 +7694,11 @@
       <c r="F312">
         <v>0.27740758624389722</v>
       </c>
-      <c r="G312" t="s">
+      <c r="G312" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>2019</v>
       </c>
@@ -7702,11 +7717,11 @@
       <c r="F313">
         <v>0.21294060840173831</v>
       </c>
-      <c r="G313" t="s">
+      <c r="G313" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>2020</v>
       </c>
@@ -7725,11 +7740,11 @@
       <c r="F314">
         <v>0.21621677751644569</v>
       </c>
-      <c r="G314" t="s">
+      <c r="G314" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>2020</v>
       </c>
@@ -7748,11 +7763,11 @@
       <c r="F315">
         <v>0.2202611876099613</v>
       </c>
-      <c r="G315" t="s">
+      <c r="G315" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>2020</v>
       </c>
@@ -7771,11 +7786,11 @@
       <c r="F316">
         <v>0.1084147183584887</v>
       </c>
-      <c r="G316" t="s">
+      <c r="G316" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>2020</v>
       </c>
@@ -7794,11 +7809,11 @@
       <c r="F317">
         <v>1.519394817318526E-2</v>
       </c>
-      <c r="G317" t="s">
+      <c r="G317" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="318" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>2020</v>
       </c>
@@ -7817,11 +7832,11 @@
       <c r="F318">
         <v>1.525417568781379E-2</v>
       </c>
-      <c r="G318" t="s">
+      <c r="G318" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="319" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>2020</v>
       </c>
@@ -7840,11 +7855,11 @@
       <c r="F319">
         <v>8.9275175706851218E-3</v>
       </c>
-      <c r="G319" t="s">
+      <c r="G319" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>2020</v>
       </c>
@@ -7863,11 +7878,11 @@
       <c r="F320">
         <v>9.6831305846741735E-3</v>
       </c>
-      <c r="G320" t="s">
+      <c r="G320" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="321" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>2020</v>
       </c>
@@ -7886,11 +7901,11 @@
       <c r="F321">
         <v>6.9728924263900358E-3</v>
       </c>
-      <c r="G321" t="s">
+      <c r="G321" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="322" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>2020</v>
       </c>
@@ -7909,11 +7924,11 @@
       <c r="F322">
         <v>6.1966843714791574E-3</v>
       </c>
-      <c r="G322" t="s">
+      <c r="G322" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="323" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>2020</v>
       </c>
@@ -7932,11 +7947,11 @@
       <c r="F323">
         <v>1.775154073404879E-2</v>
       </c>
-      <c r="G323" t="s">
+      <c r="G323" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="324" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>2020</v>
       </c>
@@ -7955,11 +7970,11 @@
       <c r="F324">
         <v>6.9638929127099104E-3</v>
       </c>
-      <c r="G324" t="s">
+      <c r="G324" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="325" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>2020</v>
       </c>
@@ -7978,11 +7993,11 @@
       <c r="F325">
         <v>7.0455808061141312E-3</v>
       </c>
-      <c r="G325" t="s">
+      <c r="G325" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="326" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>2021</v>
       </c>
@@ -8001,18 +8016,11 @@
       <c r="F326" t="s">
         <v>7</v>
       </c>
-      <c r="G326" t="s">
+      <c r="G326" s="2" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G326" xr:uid="{652938F4-7CC8-4910-85E1-85E65D4282D3}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="19/03/2019"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Occupancy/data.xlsx
+++ b/Occupancy/data.xlsx
@@ -1,36 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexisalvarez\OneDrive - Grupo Vidanta\UPDATE\Work\01. 26Dic18 - Metas PowerBI\Enero2019\_Forecast\GoalsForecastsAndProbabilites\Occupancy\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="11_3FDD45B87456EB82FB1C87C9E2EF77CBB03BC8BB" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{330371A9-B302-4E53-B773-3E8E24942620}"/>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$326</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="23">
   <si>
     <t>Año</t>
   </si>
@@ -95,23 +79,17 @@
     <t>20/03/2019</t>
   </si>
   <si>
-    <t>Suma</t>
+    <t>21/03/2019</t>
   </si>
   <si>
-    <t>Promedio</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Recuento</t>
+    <t>22/03/2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,31 +141,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -229,7 +198,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -261,27 +230,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -313,24 +264,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -506,23 +439,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G326"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G376"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,7 +469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -564,11 +488,11 @@
       <c r="F2">
         <v>0.8075834748160724</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -585,13 +509,13 @@
         <v>173964</v>
       </c>
       <c r="F3">
-        <v>0.82544664413326896</v>
-      </c>
-      <c r="G3" s="2" t="s">
+        <v>0.825446644133269</v>
+      </c>
+      <c r="G3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>2019</v>
       </c>
@@ -608,13 +532,13 @@
         <v>192603</v>
       </c>
       <c r="F4">
-        <v>0.88068202468289691</v>
-      </c>
-      <c r="G4" s="2" t="s">
+        <v>0.8806820246828969</v>
+      </c>
+      <c r="G4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>2019</v>
       </c>
@@ -631,13 +555,13 @@
         <v>186390</v>
       </c>
       <c r="F5">
-        <v>0.62697033102634259</v>
-      </c>
-      <c r="G5" s="2" t="s">
+        <v>0.6269703310263426</v>
+      </c>
+      <c r="G5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -654,13 +578,13 @@
         <v>192603</v>
       </c>
       <c r="F6">
-        <v>0.43961932057133069</v>
-      </c>
-      <c r="G6" s="2" t="s">
+        <v>0.4396193205713307</v>
+      </c>
+      <c r="G6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -677,13 +601,13 @@
         <v>186390</v>
       </c>
       <c r="F7">
-        <v>0.43484629003701908</v>
-      </c>
-      <c r="G7" s="2" t="s">
+        <v>0.4348462900370191</v>
+      </c>
+      <c r="G7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -700,13 +624,13 @@
         <v>192603</v>
       </c>
       <c r="F8">
-        <v>0.32021827282025722</v>
-      </c>
-      <c r="G8" s="2" t="s">
+        <v>0.3202182728202572</v>
+      </c>
+      <c r="G8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>2019</v>
       </c>
@@ -723,13 +647,13 @@
         <v>192603</v>
       </c>
       <c r="F9">
-        <v>0.13194498528060311</v>
-      </c>
-      <c r="G9" s="2" t="s">
+        <v>0.1319449852806031</v>
+      </c>
+      <c r="G9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>2019</v>
       </c>
@@ -746,13 +670,13 @@
         <v>186390</v>
       </c>
       <c r="F10">
-        <v>7.8276731584312462E-2</v>
-      </c>
-      <c r="G10" s="2" t="s">
+        <v>0.07827673158431246</v>
+      </c>
+      <c r="G10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -771,11 +695,11 @@
       <c r="F11">
         <v>0.1345150387065622</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>2019</v>
       </c>
@@ -794,11 +718,11 @@
       <c r="F12">
         <v>0.2212350447985407</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>2019</v>
       </c>
@@ -815,13 +739,13 @@
         <v>192603</v>
       </c>
       <c r="F13">
-        <v>0.18955571823907211</v>
-      </c>
-      <c r="G13" s="2" t="s">
+        <v>0.1895557182390721</v>
+      </c>
+      <c r="G13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -840,11 +764,11 @@
       <c r="F14">
         <v>0.1864353099380591</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>2020</v>
       </c>
@@ -861,13 +785,13 @@
         <v>180177</v>
       </c>
       <c r="F15">
-        <v>0.17811929380553571</v>
-      </c>
-      <c r="G15" s="2" t="s">
+        <v>0.1781192938055357</v>
+      </c>
+      <c r="G15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>2020</v>
       </c>
@@ -884,13 +808,13 @@
         <v>192603</v>
       </c>
       <c r="F16">
-        <v>3.6972425143948953E-2</v>
-      </c>
-      <c r="G16" s="2" t="s">
+        <v>0.03697242514394895</v>
+      </c>
+      <c r="G16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>2020</v>
       </c>
@@ -907,13 +831,13 @@
         <v>186390</v>
       </c>
       <c r="F17">
-        <v>1.2269971564998121E-2</v>
-      </c>
-      <c r="G17" s="2" t="s">
+        <v>0.01226997156499812</v>
+      </c>
+      <c r="G17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>2020</v>
       </c>
@@ -930,13 +854,13 @@
         <v>192603</v>
       </c>
       <c r="F18">
-        <v>1.2637394017746349E-2</v>
-      </c>
-      <c r="G18" s="2" t="s">
+        <v>0.01263739401774635</v>
+      </c>
+      <c r="G18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>2020</v>
       </c>
@@ -953,13 +877,13 @@
         <v>186390</v>
       </c>
       <c r="F19">
-        <v>8.2783411127206399E-3</v>
-      </c>
-      <c r="G19" s="2" t="s">
+        <v>0.00827834111272064</v>
+      </c>
+      <c r="G19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>2020</v>
       </c>
@@ -976,13 +900,13 @@
         <v>192603</v>
       </c>
       <c r="F20">
-        <v>8.57203678032014E-3</v>
-      </c>
-      <c r="G20" s="2" t="s">
+        <v>0.00857203678032014</v>
+      </c>
+      <c r="G20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>2020</v>
       </c>
@@ -999,13 +923,13 @@
         <v>192603</v>
       </c>
       <c r="F21">
-        <v>6.6717548532473532E-3</v>
-      </c>
-      <c r="G21" s="2" t="s">
+        <v>0.006671754853247353</v>
+      </c>
+      <c r="G21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>2020</v>
       </c>
@@ -1022,13 +946,13 @@
         <v>186390</v>
       </c>
       <c r="F22">
-        <v>5.8962390686195607E-3</v>
-      </c>
-      <c r="G22" s="2" t="s">
+        <v>0.005896239068619561</v>
+      </c>
+      <c r="G22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>2020</v>
       </c>
@@ -1045,13 +969,13 @@
         <v>192603</v>
       </c>
       <c r="F23">
-        <v>1.7076577208039331E-2</v>
-      </c>
-      <c r="G23" s="2" t="s">
+        <v>0.01707657720803933</v>
+      </c>
+      <c r="G23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>2020</v>
       </c>
@@ -1068,13 +992,13 @@
         <v>186390</v>
       </c>
       <c r="F24">
-        <v>6.8351306400557966E-3</v>
-      </c>
-      <c r="G24" s="2" t="s">
+        <v>0.006835130640055797</v>
+      </c>
+      <c r="G24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>2020</v>
       </c>
@@ -1091,13 +1015,13 @@
         <v>192603</v>
       </c>
       <c r="F25">
-        <v>6.8638598568038917E-3</v>
-      </c>
-      <c r="G25" s="2" t="s">
+        <v>0.006863859856803892</v>
+      </c>
+      <c r="G25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>2021</v>
       </c>
@@ -1116,11 +1040,11 @@
       <c r="F26" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>2019</v>
       </c>
@@ -1139,11 +1063,11 @@
       <c r="F27">
         <v>0.8075834748160724</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>2019</v>
       </c>
@@ -1160,13 +1084,13 @@
         <v>173964</v>
       </c>
       <c r="F28">
-        <v>0.82544664413326896</v>
-      </c>
-      <c r="G28" s="2" t="s">
+        <v>0.825446644133269</v>
+      </c>
+      <c r="G28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>2019</v>
       </c>
@@ -1183,13 +1107,13 @@
         <v>192603</v>
       </c>
       <c r="F29">
-        <v>0.86981511191414462</v>
-      </c>
-      <c r="G29" s="2" t="s">
+        <v>0.8698151119141446</v>
+      </c>
+      <c r="G29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>2019</v>
       </c>
@@ -1208,11 +1132,11 @@
       <c r="F30">
         <v>0.6346048607757927</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>2019</v>
       </c>
@@ -1229,13 +1153,13 @@
         <v>192603</v>
       </c>
       <c r="F31">
-        <v>0.44603666609554371</v>
-      </c>
-      <c r="G31" s="2" t="s">
+        <v>0.4460366660955437</v>
+      </c>
+      <c r="G31" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>2019</v>
       </c>
@@ -1252,13 +1176,13 @@
         <v>186390</v>
       </c>
       <c r="F32">
-        <v>0.44062449702237239</v>
-      </c>
-      <c r="G32" s="2" t="s">
+        <v>0.4406244970223724</v>
+      </c>
+      <c r="G32" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>2019</v>
       </c>
@@ -1275,13 +1199,13 @@
         <v>192603</v>
       </c>
       <c r="F33">
-        <v>0.32767402376910021</v>
-      </c>
-      <c r="G33" s="2" t="s">
+        <v>0.3276740237691002</v>
+      </c>
+      <c r="G33" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>2019</v>
       </c>
@@ -1298,13 +1222,13 @@
         <v>192603</v>
       </c>
       <c r="F34">
-        <v>0.13612975914186179</v>
-      </c>
-      <c r="G34" s="2" t="s">
+        <v>0.1361297591418618</v>
+      </c>
+      <c r="G34" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>2019</v>
       </c>
@@ -1321,13 +1245,13 @@
         <v>186390</v>
       </c>
       <c r="F35">
-        <v>8.0154514727184933E-2</v>
-      </c>
-      <c r="G35" s="2" t="s">
+        <v>0.08015451472718493</v>
+      </c>
+      <c r="G35" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>2019</v>
       </c>
@@ -1344,13 +1268,13 @@
         <v>192603</v>
       </c>
       <c r="F36">
-        <v>0.13807676931304291</v>
-      </c>
-      <c r="G36" s="2" t="s">
+        <v>0.1380767693130429</v>
+      </c>
+      <c r="G36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>2019</v>
       </c>
@@ -1367,13 +1291,13 @@
         <v>186390</v>
       </c>
       <c r="F37">
-        <v>0.22979237083534521</v>
-      </c>
-      <c r="G37" s="2" t="s">
+        <v>0.2297923708353452</v>
+      </c>
+      <c r="G37" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>2019</v>
       </c>
@@ -1390,13 +1314,13 @@
         <v>192603</v>
       </c>
       <c r="F38">
-        <v>0.19095756556232249</v>
-      </c>
-      <c r="G38" s="2" t="s">
+        <v>0.1909575655623225</v>
+      </c>
+      <c r="G38" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>2020</v>
       </c>
@@ -1415,11 +1339,11 @@
       <c r="F39">
         <v>0.1920686593666765</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>2020</v>
       </c>
@@ -1438,11 +1362,11 @@
       <c r="F40">
         <v>0.1855786254627394</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>2020</v>
       </c>
@@ -1459,13 +1383,13 @@
         <v>192603</v>
       </c>
       <c r="F41">
-        <v>7.8690363078456727E-2</v>
-      </c>
-      <c r="G41" s="2" t="s">
+        <v>0.07869036307845673</v>
+      </c>
+      <c r="G41" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>2020</v>
       </c>
@@ -1482,13 +1406,13 @@
         <v>186390</v>
       </c>
       <c r="F42">
-        <v>1.341810182949729E-2</v>
-      </c>
-      <c r="G42" s="2" t="s">
+        <v>0.01341810182949729</v>
+      </c>
+      <c r="G42" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>2020</v>
       </c>
@@ -1505,13 +1429,13 @@
         <v>192603</v>
       </c>
       <c r="F43">
-        <v>1.277757875007139E-2</v>
-      </c>
-      <c r="G43" s="2" t="s">
+        <v>0.01277757875007139</v>
+      </c>
+      <c r="G43" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>2020</v>
       </c>
@@ -1528,13 +1452,13 @@
         <v>186390</v>
       </c>
       <c r="F44">
-        <v>8.2783411127206399E-3</v>
-      </c>
-      <c r="G44" s="2" t="s">
+        <v>0.00827834111272064</v>
+      </c>
+      <c r="G44" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>2020</v>
       </c>
@@ -1551,13 +1475,13 @@
         <v>192603</v>
       </c>
       <c r="F45">
-        <v>8.717413539768331E-3</v>
-      </c>
-      <c r="G45" s="2" t="s">
+        <v>0.008717413539768331</v>
+      </c>
+      <c r="G45" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>2020</v>
       </c>
@@ -1574,13 +1498,13 @@
         <v>192603</v>
       </c>
       <c r="F46">
-        <v>6.7444432329714487E-3</v>
-      </c>
-      <c r="G46" s="2" t="s">
+        <v>0.006744443232971449</v>
+      </c>
+      <c r="G46" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>2020</v>
       </c>
@@ -1597,13 +1521,13 @@
         <v>186390</v>
       </c>
       <c r="F47">
-        <v>5.9713503943344603E-3</v>
-      </c>
-      <c r="G47" s="2" t="s">
+        <v>0.00597135039433446</v>
+      </c>
+      <c r="G47" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>2020</v>
       </c>
@@ -1620,13 +1544,13 @@
         <v>192603</v>
       </c>
       <c r="F48">
-        <v>1.7076577208039331E-2</v>
-      </c>
-      <c r="G48" s="2" t="s">
+        <v>0.01707657720803933</v>
+      </c>
+      <c r="G48" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>2020</v>
       </c>
@@ -1643,13 +1567,13 @@
         <v>186390</v>
       </c>
       <c r="F49">
-        <v>6.8351306400557966E-3</v>
-      </c>
-      <c r="G49" s="2" t="s">
+        <v>0.006835130640055797</v>
+      </c>
+      <c r="G49" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>2020</v>
       </c>
@@ -1666,13 +1590,13 @@
         <v>192603</v>
       </c>
       <c r="F50">
-        <v>6.8638598568038917E-3</v>
-      </c>
-      <c r="G50" s="2" t="s">
+        <v>0.006863859856803892</v>
+      </c>
+      <c r="G50" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>2021</v>
       </c>
@@ -1691,11 +1615,11 @@
       <c r="F51" t="s">
         <v>7</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="G51" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>2019</v>
       </c>
@@ -1714,11 +1638,11 @@
       <c r="F52">
         <v>0.8075834748160724</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="G52" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>2019</v>
       </c>
@@ -1735,13 +1659,13 @@
         <v>173964</v>
       </c>
       <c r="F53">
-        <v>0.82545239244901247</v>
-      </c>
-      <c r="G53" s="2" t="s">
+        <v>0.8254523924490125</v>
+      </c>
+      <c r="G53" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>2019</v>
       </c>
@@ -1758,13 +1682,13 @@
         <v>192603</v>
       </c>
       <c r="F54">
-        <v>0.87216190817380834</v>
-      </c>
-      <c r="G54" s="2" t="s">
+        <v>0.8721619081738083</v>
+      </c>
+      <c r="G54" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>2019</v>
       </c>
@@ -1781,13 +1705,13 @@
         <v>186390</v>
       </c>
       <c r="F55">
-        <v>0.64102151402972263</v>
-      </c>
-      <c r="G55" s="2" t="s">
+        <v>0.6410215140297226</v>
+      </c>
+      <c r="G55" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>2019</v>
       </c>
@@ -1804,13 +1728,13 @@
         <v>192603</v>
       </c>
       <c r="F56">
-        <v>0.45091197956418122</v>
-      </c>
-      <c r="G56" s="2" t="s">
+        <v>0.4509119795641812</v>
+      </c>
+      <c r="G56" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>2019</v>
       </c>
@@ -1827,13 +1751,13 @@
         <v>186390</v>
       </c>
       <c r="F57">
-        <v>0.44809270883631103</v>
-      </c>
-      <c r="G57" s="2" t="s">
+        <v>0.448092708836311</v>
+      </c>
+      <c r="G57" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>2019</v>
       </c>
@@ -1850,13 +1774,13 @@
         <v>192603</v>
       </c>
       <c r="F58">
-        <v>0.33236761628842748</v>
-      </c>
-      <c r="G58" s="2" t="s">
+        <v>0.3323676162884275</v>
+      </c>
+      <c r="G58" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>2019</v>
       </c>
@@ -1875,11 +1799,11 @@
       <c r="F59">
         <v>0.1376665991703141</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="G59" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>2019</v>
       </c>
@@ -1896,13 +1820,13 @@
         <v>186390</v>
       </c>
       <c r="F60">
-        <v>8.0986104404742743E-2</v>
-      </c>
-      <c r="G60" s="2" t="s">
+        <v>0.08098610440474274</v>
+      </c>
+      <c r="G60" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>2019</v>
       </c>
@@ -1919,13 +1843,13 @@
         <v>192603</v>
       </c>
       <c r="F61">
-        <v>0.13973821799245081</v>
-      </c>
-      <c r="G61" s="2" t="s">
+        <v>0.1397382179924508</v>
+      </c>
+      <c r="G61" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>2019</v>
       </c>
@@ -1942,13 +1866,13 @@
         <v>186390</v>
       </c>
       <c r="F62">
-        <v>0.23330114276516981</v>
-      </c>
-      <c r="G62" s="2" t="s">
+        <v>0.2333011427651698</v>
+      </c>
+      <c r="G62" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>2019</v>
       </c>
@@ -1967,11 +1891,11 @@
       <c r="F63">
         <v>0.192639782350223</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="G63" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>2020</v>
       </c>
@@ -1990,11 +1914,11 @@
       <c r="F64">
         <v>0.1941402781888133</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="G64" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>2020</v>
       </c>
@@ -2011,13 +1935,13 @@
         <v>180177</v>
       </c>
       <c r="F65">
-        <v>0.18853127757704921</v>
-      </c>
-      <c r="G65" s="2" t="s">
+        <v>0.1885312775770492</v>
+      </c>
+      <c r="G65" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>2020</v>
       </c>
@@ -2034,13 +1958,13 @@
         <v>192603</v>
       </c>
       <c r="F66">
-        <v>8.0564684869913764E-2</v>
-      </c>
-      <c r="G66" s="2" t="s">
+        <v>0.08056468486991376</v>
+      </c>
+      <c r="G66" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>2020</v>
       </c>
@@ -2057,13 +1981,13 @@
         <v>186390</v>
       </c>
       <c r="F67">
-        <v>1.34717527764365E-2</v>
-      </c>
-      <c r="G67" s="2" t="s">
+        <v>0.0134717527764365</v>
+      </c>
+      <c r="G67" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>2020</v>
       </c>
@@ -2080,13 +2004,13 @@
         <v>192603</v>
       </c>
       <c r="F68">
-        <v>1.408077755798196E-2</v>
-      </c>
-      <c r="G68" s="2" t="s">
+        <v>0.01408077755798196</v>
+      </c>
+      <c r="G68" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>2020</v>
       </c>
@@ -2103,13 +2027,13 @@
         <v>186390</v>
       </c>
       <c r="F69">
-        <v>8.4178335747625947E-3</v>
-      </c>
-      <c r="G69" s="2" t="s">
+        <v>0.008417833574762595</v>
+      </c>
+      <c r="G69" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>2020</v>
       </c>
@@ -2126,13 +2050,13 @@
         <v>192603</v>
       </c>
       <c r="F70">
-        <v>8.7901019194924282E-3</v>
-      </c>
-      <c r="G70" s="2" t="s">
+        <v>0.008790101919492428</v>
+      </c>
+      <c r="G70" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>2020</v>
       </c>
@@ -2149,13 +2073,13 @@
         <v>192603</v>
       </c>
       <c r="F71">
-        <v>6.7444432329714487E-3</v>
-      </c>
-      <c r="G71" s="2" t="s">
+        <v>0.006744443232971449</v>
+      </c>
+      <c r="G71" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>2020</v>
       </c>
@@ -2172,13 +2096,13 @@
         <v>186390</v>
       </c>
       <c r="F72">
-        <v>5.9713503943344603E-3</v>
-      </c>
-      <c r="G72" s="2" t="s">
+        <v>0.00597135039433446</v>
+      </c>
+      <c r="G72" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>2020</v>
       </c>
@@ -2195,13 +2119,13 @@
         <v>192603</v>
       </c>
       <c r="F73">
-        <v>1.7221953967487529E-2</v>
-      </c>
-      <c r="G73" s="2" t="s">
+        <v>0.01722195396748753</v>
+      </c>
+      <c r="G73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>2020</v>
       </c>
@@ -2218,13 +2142,13 @@
         <v>186390</v>
       </c>
       <c r="F74">
-        <v>6.8351306400557966E-3</v>
-      </c>
-      <c r="G74" s="2" t="s">
+        <v>0.006835130640055797</v>
+      </c>
+      <c r="G74" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>2020</v>
       </c>
@@ -2241,13 +2165,13 @@
         <v>192603</v>
       </c>
       <c r="F75">
-        <v>6.9002040466659394E-3</v>
-      </c>
-      <c r="G75" s="2" t="s">
+        <v>0.006900204046665939</v>
+      </c>
+      <c r="G75" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>2021</v>
       </c>
@@ -2266,11 +2190,11 @@
       <c r="F76" t="s">
         <v>7</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="G76" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7">
       <c r="A77">
         <v>2019</v>
       </c>
@@ -2289,11 +2213,11 @@
       <c r="F77">
         <v>0.8075834748160724</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="G77" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>2019</v>
       </c>
@@ -2310,13 +2234,13 @@
         <v>173964</v>
       </c>
       <c r="F78">
-        <v>0.82545239244901247</v>
-      </c>
-      <c r="G78" s="2" t="s">
+        <v>0.8254523924490125</v>
+      </c>
+      <c r="G78" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>2019</v>
       </c>
@@ -2333,13 +2257,13 @@
         <v>192603</v>
       </c>
       <c r="F79">
-        <v>0.87343395481898001</v>
-      </c>
-      <c r="G79" s="2" t="s">
+        <v>0.87343395481898</v>
+      </c>
+      <c r="G79" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7">
       <c r="A80">
         <v>2019</v>
       </c>
@@ -2356,13 +2280,13 @@
         <v>186390</v>
       </c>
       <c r="F80">
-        <v>0.64748645313589781</v>
-      </c>
-      <c r="G80" s="2" t="s">
+        <v>0.6474864531358978</v>
+      </c>
+      <c r="G80" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>2019</v>
       </c>
@@ -2379,13 +2303,13 @@
         <v>192603</v>
       </c>
       <c r="F81">
-        <v>0.45417257259751931</v>
-      </c>
-      <c r="G81" s="2" t="s">
+        <v>0.4541725725975193</v>
+      </c>
+      <c r="G81" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7">
       <c r="A82">
         <v>2019</v>
       </c>
@@ -2402,13 +2326,13 @@
         <v>186390</v>
       </c>
       <c r="F82">
-        <v>0.45293738934492189</v>
-      </c>
-      <c r="G82" s="2" t="s">
+        <v>0.4529373893449219</v>
+      </c>
+      <c r="G82" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7">
       <c r="A83">
         <v>2019</v>
       </c>
@@ -2425,13 +2349,13 @@
         <v>192603</v>
       </c>
       <c r="F83">
-        <v>0.33613183595271101</v>
-      </c>
-      <c r="G83" s="2" t="s">
+        <v>0.336131835952711</v>
+      </c>
+      <c r="G83" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7">
       <c r="A84">
         <v>2019</v>
       </c>
@@ -2450,11 +2374,11 @@
       <c r="F84">
         <v>0.1396239933957415</v>
       </c>
-      <c r="G84" s="2" t="s">
+      <c r="G84" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7">
       <c r="A85">
         <v>2019</v>
       </c>
@@ -2471,13 +2395,13 @@
         <v>186390</v>
       </c>
       <c r="F85">
-        <v>8.1865979934545849E-2</v>
-      </c>
-      <c r="G85" s="2" t="s">
+        <v>0.08186597993454585</v>
+      </c>
+      <c r="G85" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7">
       <c r="A86">
         <v>2019</v>
       </c>
@@ -2494,13 +2418,13 @@
         <v>192603</v>
       </c>
       <c r="F86">
-        <v>0.14133217031925771</v>
-      </c>
-      <c r="G86" s="2" t="s">
+        <v>0.1413321703192577</v>
+      </c>
+      <c r="G86" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7">
       <c r="A87">
         <v>2019</v>
       </c>
@@ -2517,13 +2441,13 @@
         <v>186390</v>
       </c>
       <c r="F87">
-        <v>0.23649337410805299</v>
-      </c>
-      <c r="G87" s="2" t="s">
+        <v>0.236493374108053</v>
+      </c>
+      <c r="G87" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7">
       <c r="A88">
         <v>2019</v>
       </c>
@@ -2540,13 +2464,13 @@
         <v>192603</v>
       </c>
       <c r="F88">
-        <v>0.19419219846004479</v>
-      </c>
-      <c r="G88" s="2" t="s">
+        <v>0.1941921984600448</v>
+      </c>
+      <c r="G88" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7">
       <c r="A89">
         <v>2020</v>
       </c>
@@ -2563,13 +2487,13 @@
         <v>192603</v>
       </c>
       <c r="F89">
-        <v>0.19528252415590619</v>
-      </c>
-      <c r="G89" s="2" t="s">
+        <v>0.1952825241559062</v>
+      </c>
+      <c r="G89" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7">
       <c r="A90">
         <v>2020</v>
       </c>
@@ -2586,13 +2510,13 @@
         <v>180177</v>
       </c>
       <c r="F90">
-        <v>0.19205558978115961</v>
-      </c>
-      <c r="G90" s="2" t="s">
+        <v>0.1920555897811596</v>
+      </c>
+      <c r="G90" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7">
       <c r="A91">
         <v>2020</v>
       </c>
@@ -2609,13 +2533,13 @@
         <v>192603</v>
       </c>
       <c r="F91">
-        <v>8.3316459245183092E-2</v>
-      </c>
-      <c r="G91" s="2" t="s">
+        <v>0.08331645924518309</v>
+      </c>
+      <c r="G91" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7">
       <c r="A92">
         <v>2020</v>
       </c>
@@ -2632,13 +2556,13 @@
         <v>186390</v>
       </c>
       <c r="F92">
-        <v>1.364880090133591E-2</v>
-      </c>
-      <c r="G92" s="2" t="s">
+        <v>0.01364880090133591</v>
+      </c>
+      <c r="G92" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7">
       <c r="A93">
         <v>2020</v>
       </c>
@@ -2655,13 +2579,13 @@
         <v>192603</v>
       </c>
       <c r="F93">
-        <v>1.4158657964829209E-2</v>
-      </c>
-      <c r="G93" s="2" t="s">
+        <v>0.01415865796482921</v>
+      </c>
+      <c r="G93" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7">
       <c r="A94">
         <v>2020</v>
       </c>
@@ -2678,13 +2602,13 @@
         <v>186390</v>
       </c>
       <c r="F94">
-        <v>8.4553892376200441E-3</v>
-      </c>
-      <c r="G94" s="2" t="s">
+        <v>0.008455389237620044</v>
+      </c>
+      <c r="G94" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7">
       <c r="A95">
         <v>2020</v>
       </c>
@@ -2701,13 +2625,13 @@
         <v>192603</v>
       </c>
       <c r="F95">
-        <v>8.7901019194924282E-3</v>
-      </c>
-      <c r="G95" s="2" t="s">
+        <v>0.008790101919492428</v>
+      </c>
+      <c r="G95" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7">
       <c r="A96">
         <v>2020</v>
       </c>
@@ -2724,13 +2648,13 @@
         <v>192603</v>
       </c>
       <c r="F96">
-        <v>6.7444432329714487E-3</v>
-      </c>
-      <c r="G96" s="2" t="s">
+        <v>0.006744443232971449</v>
+      </c>
+      <c r="G96" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7">
       <c r="A97">
         <v>2020</v>
       </c>
@@ -2747,13 +2671,13 @@
         <v>186390</v>
       </c>
       <c r="F97">
-        <v>5.9713503943344603E-3</v>
-      </c>
-      <c r="G97" s="2" t="s">
+        <v>0.00597135039433446</v>
+      </c>
+      <c r="G97" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7">
       <c r="A98">
         <v>2020</v>
       </c>
@@ -2770,13 +2694,13 @@
         <v>192603</v>
       </c>
       <c r="F98">
-        <v>1.729464234721162E-2</v>
-      </c>
-      <c r="G98" s="2" t="s">
+        <v>0.01729464234721162</v>
+      </c>
+      <c r="G98" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7">
       <c r="A99">
         <v>2020</v>
       </c>
@@ -2793,13 +2717,13 @@
         <v>186390</v>
       </c>
       <c r="F99">
-        <v>6.8351306400557966E-3</v>
-      </c>
-      <c r="G99" s="2" t="s">
+        <v>0.006835130640055797</v>
+      </c>
+      <c r="G99" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7">
       <c r="A100">
         <v>2020</v>
       </c>
@@ -2816,13 +2740,13 @@
         <v>192603</v>
       </c>
       <c r="F100">
-        <v>6.9002040466659394E-3</v>
-      </c>
-      <c r="G100" s="2" t="s">
+        <v>0.006900204046665939</v>
+      </c>
+      <c r="G100" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7">
       <c r="A101">
         <v>2021</v>
       </c>
@@ -2841,11 +2765,11 @@
       <c r="F101" t="s">
         <v>7</v>
       </c>
-      <c r="G101" s="2" t="s">
+      <c r="G101" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7">
       <c r="A102">
         <v>2019</v>
       </c>
@@ -2864,11 +2788,11 @@
       <c r="F102">
         <v>0.8075834748160724</v>
       </c>
-      <c r="G102" s="2" t="s">
+      <c r="G102" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7">
       <c r="A103">
         <v>2019</v>
       </c>
@@ -2885,13 +2809,13 @@
         <v>173964</v>
       </c>
       <c r="F103">
-        <v>0.82545239244901247</v>
-      </c>
-      <c r="G103" s="2" t="s">
+        <v>0.8254523924490125</v>
+      </c>
+      <c r="G103" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7">
       <c r="A104">
         <v>2019</v>
       </c>
@@ -2908,13 +2832,13 @@
         <v>192603</v>
       </c>
       <c r="F104">
-        <v>0.87489810646770816</v>
-      </c>
-      <c r="G104" s="2" t="s">
+        <v>0.8748981064677082</v>
+      </c>
+      <c r="G104" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7">
       <c r="A105">
         <v>2019</v>
       </c>
@@ -2931,13 +2855,13 @@
         <v>186390</v>
       </c>
       <c r="F105">
-        <v>0.65509952250657222</v>
-      </c>
-      <c r="G105" s="2" t="s">
+        <v>0.6550995225065722</v>
+      </c>
+      <c r="G105" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7">
       <c r="A106">
         <v>2019</v>
       </c>
@@ -2954,13 +2878,13 @@
         <v>192603</v>
       </c>
       <c r="F106">
-        <v>0.45811851321111302</v>
-      </c>
-      <c r="G106" s="2" t="s">
+        <v>0.458118513211113</v>
+      </c>
+      <c r="G106" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7">
       <c r="A107">
         <v>2019</v>
       </c>
@@ -2977,13 +2901,13 @@
         <v>186390</v>
       </c>
       <c r="F107">
-        <v>0.45909651805354362</v>
-      </c>
-      <c r="G107" s="2" t="s">
+        <v>0.4590965180535436</v>
+      </c>
+      <c r="G107" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7">
       <c r="A108">
         <v>2019</v>
       </c>
@@ -3000,13 +2924,13 @@
         <v>192603</v>
       </c>
       <c r="F108">
-        <v>0.34189498605940721</v>
-      </c>
-      <c r="G108" s="2" t="s">
+        <v>0.3418949860594072</v>
+      </c>
+      <c r="G108" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7">
       <c r="A109">
         <v>2019</v>
       </c>
@@ -3023,13 +2947,13 @@
         <v>192603</v>
       </c>
       <c r="F109">
-        <v>0.14222000695731629</v>
-      </c>
-      <c r="G109" s="2" t="s">
+        <v>0.1422200069573163</v>
+      </c>
+      <c r="G109" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7">
       <c r="A110">
         <v>2019</v>
       </c>
@@ -3046,13 +2970,13 @@
         <v>186390</v>
       </c>
       <c r="F110">
-        <v>8.2885347926390907E-2</v>
-      </c>
-      <c r="G110" s="2" t="s">
+        <v>0.08288534792639091</v>
+      </c>
+      <c r="G110" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7">
       <c r="A111">
         <v>2019</v>
       </c>
@@ -3071,11 +2995,11 @@
       <c r="F111">
         <v>0.1443902742947929</v>
       </c>
-      <c r="G111" s="2" t="s">
+      <c r="G111" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7">
       <c r="A112">
         <v>2019</v>
       </c>
@@ -3094,11 +3018,11 @@
       <c r="F112">
         <v>0.2396534148827727</v>
       </c>
-      <c r="G112" s="2" t="s">
+      <c r="G112" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7">
       <c r="A113">
         <v>2019</v>
       </c>
@@ -3117,11 +3041,11 @@
       <c r="F113">
         <v>0.1963313136347824</v>
       </c>
-      <c r="G113" s="2" t="s">
+      <c r="G113" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7">
       <c r="A114">
         <v>2020</v>
       </c>
@@ -3138,13 +3062,13 @@
         <v>192603</v>
       </c>
       <c r="F114">
-        <v>0.19750990379173741</v>
-      </c>
-      <c r="G114" s="2" t="s">
+        <v>0.1975099037917374</v>
+      </c>
+      <c r="G114" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7">
       <c r="A115">
         <v>2020</v>
       </c>
@@ -3161,13 +3085,13 @@
         <v>180177</v>
       </c>
       <c r="F115">
-        <v>0.19486948944648869</v>
-      </c>
-      <c r="G115" s="2" t="s">
+        <v>0.1948694894464887</v>
+      </c>
+      <c r="G115" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7">
       <c r="A116">
         <v>2020</v>
       </c>
@@ -3184,13 +3108,13 @@
         <v>192603</v>
       </c>
       <c r="F116">
-        <v>8.5798248210048653E-2</v>
-      </c>
-      <c r="G116" s="2" t="s">
+        <v>0.08579824821004865</v>
+      </c>
+      <c r="G116" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7">
       <c r="A117">
         <v>2020</v>
       </c>
@@ -3207,13 +3131,13 @@
         <v>186390</v>
       </c>
       <c r="F117">
-        <v>1.389023016256237E-2</v>
-      </c>
-      <c r="G117" s="2" t="s">
+        <v>0.01389023016256237</v>
+      </c>
+      <c r="G117" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7">
       <c r="A118">
         <v>2020</v>
       </c>
@@ -3230,13 +3154,13 @@
         <v>192603</v>
       </c>
       <c r="F118">
-        <v>1.4309226751400551E-2</v>
-      </c>
-      <c r="G118" s="2" t="s">
+        <v>0.01430922675140055</v>
+      </c>
+      <c r="G118" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7">
       <c r="A119">
         <v>2020</v>
       </c>
@@ -3253,13 +3177,13 @@
         <v>186390</v>
       </c>
       <c r="F119">
-        <v>8.5305005633349428E-3</v>
-      </c>
-      <c r="G119" s="2" t="s">
+        <v>0.008530500563334943</v>
+      </c>
+      <c r="G119" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7">
       <c r="A120">
         <v>2020</v>
       </c>
@@ -3276,13 +3200,13 @@
         <v>192603</v>
       </c>
       <c r="F120">
-        <v>8.8991344890785706E-3</v>
-      </c>
-      <c r="G120" s="2" t="s">
+        <v>0.008899134489078571</v>
+      </c>
+      <c r="G120" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7">
       <c r="A121">
         <v>2020</v>
       </c>
@@ -3299,13 +3223,13 @@
         <v>192603</v>
       </c>
       <c r="F121">
-        <v>6.7444432329714487E-3</v>
-      </c>
-      <c r="G121" s="2" t="s">
+        <v>0.006744443232971449</v>
+      </c>
+      <c r="G121" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7">
       <c r="A122">
         <v>2020</v>
       </c>
@@ -3322,13 +3246,13 @@
         <v>186390</v>
       </c>
       <c r="F122">
-        <v>6.046461720049359E-3</v>
-      </c>
-      <c r="G122" s="2" t="s">
+        <v>0.006046461720049359</v>
+      </c>
+      <c r="G122" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7">
       <c r="A123">
         <v>2020</v>
       </c>
@@ -3345,13 +3269,13 @@
         <v>192603</v>
       </c>
       <c r="F123">
-        <v>1.7440019106659811E-2</v>
-      </c>
-      <c r="G123" s="2" t="s">
+        <v>0.01744001910665981</v>
+      </c>
+      <c r="G123" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7">
       <c r="A124">
         <v>2020</v>
       </c>
@@ -3368,13 +3292,13 @@
         <v>186390</v>
       </c>
       <c r="F124">
-        <v>6.9102419657706962E-3</v>
-      </c>
-      <c r="G124" s="2" t="s">
+        <v>0.006910241965770696</v>
+      </c>
+      <c r="G124" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7">
       <c r="A125">
         <v>2020</v>
       </c>
@@ -3391,13 +3315,13 @@
         <v>192603</v>
       </c>
       <c r="F125">
-        <v>6.9002040466659394E-3</v>
-      </c>
-      <c r="G125" s="2" t="s">
+        <v>0.006900204046665939</v>
+      </c>
+      <c r="G125" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7">
       <c r="A126">
         <v>2021</v>
       </c>
@@ -3416,11 +3340,11 @@
       <c r="F126" t="s">
         <v>7</v>
       </c>
-      <c r="G126" s="2" t="s">
+      <c r="G126" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7">
       <c r="A127">
         <v>2019</v>
       </c>
@@ -3439,11 +3363,11 @@
       <c r="F127">
         <v>0.8075834748160724</v>
       </c>
-      <c r="G127" s="2" t="s">
+      <c r="G127" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7">
       <c r="A128">
         <v>2019</v>
       </c>
@@ -3460,13 +3384,13 @@
         <v>173964</v>
       </c>
       <c r="F128">
-        <v>0.82545239244901247</v>
-      </c>
-      <c r="G128" s="2" t="s">
+        <v>0.8254523924490125</v>
+      </c>
+      <c r="G128" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7">
       <c r="A129">
         <v>2019</v>
       </c>
@@ -3483,13 +3407,13 @@
         <v>192603</v>
       </c>
       <c r="F129">
-        <v>0.87397911766691072</v>
-      </c>
-      <c r="G129" s="2" t="s">
+        <v>0.8739791176669107</v>
+      </c>
+      <c r="G129" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7">
       <c r="A130">
         <v>2019</v>
       </c>
@@ -3506,13 +3430,13 @@
         <v>186390</v>
       </c>
       <c r="F130">
-        <v>0.65996029829926495</v>
-      </c>
-      <c r="G130" s="2" t="s">
+        <v>0.6599602982992649</v>
+      </c>
+      <c r="G130" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7">
       <c r="A131">
         <v>2019</v>
       </c>
@@ -3529,13 +3453,13 @@
         <v>192603</v>
       </c>
       <c r="F131">
-        <v>0.46344553303946462</v>
-      </c>
-      <c r="G131" s="2" t="s">
+        <v>0.4634455330394646</v>
+      </c>
+      <c r="G131" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7">
       <c r="A132">
         <v>2019</v>
       </c>
@@ -3552,13 +3476,13 @@
         <v>186390</v>
       </c>
       <c r="F132">
-        <v>0.46343151456623211</v>
-      </c>
-      <c r="G132" s="2" t="s">
+        <v>0.4634315145662321</v>
+      </c>
+      <c r="G132" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7">
       <c r="A133">
         <v>2019</v>
       </c>
@@ -3575,13 +3499,13 @@
         <v>192603</v>
       </c>
       <c r="F133">
-        <v>0.34673914736530581</v>
-      </c>
-      <c r="G133" s="2" t="s">
+        <v>0.3467391473653058</v>
+      </c>
+      <c r="G133" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7">
       <c r="A134">
         <v>2019</v>
       </c>
@@ -3598,13 +3522,13 @@
         <v>192603</v>
       </c>
       <c r="F134">
-        <v>0.14457718727122629</v>
-      </c>
-      <c r="G134" s="2" t="s">
+        <v>0.1445771872712263</v>
+      </c>
+      <c r="G134" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7">
       <c r="A135">
         <v>2019</v>
       </c>
@@ -3621,13 +3545,13 @@
         <v>186390</v>
       </c>
       <c r="F135">
-        <v>8.4006652717420457E-2</v>
-      </c>
-      <c r="G135" s="2" t="s">
+        <v>0.08400665271742046</v>
+      </c>
+      <c r="G135" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7">
       <c r="A136">
         <v>2019</v>
       </c>
@@ -3646,11 +3570,11 @@
       <c r="F136">
         <v>0.1462438279777574</v>
       </c>
-      <c r="G136" s="2" t="s">
+      <c r="G136" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7">
       <c r="A137">
         <v>2019</v>
       </c>
@@ -3669,11 +3593,11 @@
       <c r="F137">
         <v>0.2426739631954504</v>
       </c>
-      <c r="G137" s="2" t="s">
+      <c r="G137" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7">
       <c r="A138">
         <v>2019</v>
       </c>
@@ -3692,11 +3616,11 @@
       <c r="F138">
         <v>0.1977591210936486</v>
       </c>
-      <c r="G138" s="2" t="s">
+      <c r="G138" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7">
       <c r="A139">
         <v>2020</v>
       </c>
@@ -3713,13 +3637,13 @@
         <v>192603</v>
       </c>
       <c r="F139">
-        <v>0.19885463881663321</v>
-      </c>
-      <c r="G139" s="2" t="s">
+        <v>0.1988546388166332</v>
+      </c>
+      <c r="G139" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7">
       <c r="A140">
         <v>2020</v>
       </c>
@@ -3736,13 +3660,13 @@
         <v>180177</v>
       </c>
       <c r="F140">
-        <v>0.19736703352814181</v>
-      </c>
-      <c r="G140" s="2" t="s">
+        <v>0.1973670335281418</v>
+      </c>
+      <c r="G140" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7">
       <c r="A141">
         <v>2020</v>
       </c>
@@ -3759,13 +3683,13 @@
         <v>192603</v>
       </c>
       <c r="F141">
-        <v>8.7537577296303792E-2</v>
-      </c>
-      <c r="G141" s="2" t="s">
+        <v>0.08753757729630379</v>
+      </c>
+      <c r="G141" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7">
       <c r="A142">
         <v>2020</v>
       </c>
@@ -3782,13 +3706,13 @@
         <v>186390</v>
       </c>
       <c r="F142">
-        <v>1.389023016256237E-2</v>
-      </c>
-      <c r="G142" s="2" t="s">
+        <v>0.01389023016256237</v>
+      </c>
+      <c r="G142" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7">
       <c r="A143">
         <v>2020</v>
       </c>
@@ -3805,13 +3729,13 @@
         <v>192603</v>
       </c>
       <c r="F143">
-        <v>1.438710715824779E-2</v>
-      </c>
-      <c r="G143" s="2" t="s">
+        <v>0.01438710715824779</v>
+      </c>
+      <c r="G143" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7">
       <c r="A144">
         <v>2020</v>
       </c>
@@ -3828,13 +3752,13 @@
         <v>186390</v>
       </c>
       <c r="F144">
-        <v>8.5680562261923922E-3</v>
-      </c>
-      <c r="G144" s="2" t="s">
+        <v>0.008568056226192392</v>
+      </c>
+      <c r="G144" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7">
       <c r="A145">
         <v>2020</v>
       </c>
@@ -3851,13 +3775,13 @@
         <v>192603</v>
       </c>
       <c r="F145">
-        <v>8.8991344890785706E-3</v>
-      </c>
-      <c r="G145" s="2" t="s">
+        <v>0.008899134489078571</v>
+      </c>
+      <c r="G145" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7">
       <c r="A146">
         <v>2020</v>
       </c>
@@ -3874,13 +3798,13 @@
         <v>192603</v>
       </c>
       <c r="F146">
-        <v>6.7444432329714487E-3</v>
-      </c>
-      <c r="G146" s="2" t="s">
+        <v>0.006744443232971449</v>
+      </c>
+      <c r="G146" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7">
       <c r="A147">
         <v>2020</v>
       </c>
@@ -3897,13 +3821,13 @@
         <v>186390</v>
       </c>
       <c r="F147">
-        <v>6.046461720049359E-3</v>
-      </c>
-      <c r="G147" s="2" t="s">
+        <v>0.006046461720049359</v>
+      </c>
+      <c r="G147" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7">
       <c r="A148">
         <v>2020</v>
       </c>
@@ -3920,13 +3844,13 @@
         <v>192603</v>
       </c>
       <c r="F148">
-        <v>1.7440019106659811E-2</v>
-      </c>
-      <c r="G148" s="2" t="s">
+        <v>0.01744001910665981</v>
+      </c>
+      <c r="G148" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7">
       <c r="A149">
         <v>2020</v>
       </c>
@@ -3943,13 +3867,13 @@
         <v>186390</v>
       </c>
       <c r="F149">
-        <v>6.9102419657706962E-3</v>
-      </c>
-      <c r="G149" s="2" t="s">
+        <v>0.006910241965770696</v>
+      </c>
+      <c r="G149" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7">
       <c r="A150">
         <v>2020</v>
       </c>
@@ -3966,13 +3890,13 @@
         <v>192603</v>
       </c>
       <c r="F150">
-        <v>6.9002040466659394E-3</v>
-      </c>
-      <c r="G150" s="2" t="s">
+        <v>0.006900204046665939</v>
+      </c>
+      <c r="G150" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7">
       <c r="A151">
         <v>2021</v>
       </c>
@@ -3991,11 +3915,11 @@
       <c r="F151" t="s">
         <v>7</v>
       </c>
-      <c r="G151" s="2" t="s">
+      <c r="G151" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7">
       <c r="A152">
         <v>2019</v>
       </c>
@@ -4014,11 +3938,11 @@
       <c r="F152">
         <v>0.8075834748160724</v>
       </c>
-      <c r="G152" s="2" t="s">
+      <c r="G152" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:7">
       <c r="A153">
         <v>2019</v>
       </c>
@@ -4035,13 +3959,13 @@
         <v>173964</v>
       </c>
       <c r="F153">
-        <v>0.82545239244901247</v>
-      </c>
-      <c r="G153" s="2" t="s">
+        <v>0.8254523924490125</v>
+      </c>
+      <c r="G153" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:7">
       <c r="A154">
         <v>2019</v>
       </c>
@@ -4058,13 +3982,13 @@
         <v>192603</v>
       </c>
       <c r="F154">
-        <v>0.86167920541216902</v>
-      </c>
-      <c r="G154" s="2" t="s">
+        <v>0.861679205412169</v>
+      </c>
+      <c r="G154" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:7">
       <c r="A155">
         <v>2019</v>
       </c>
@@ -4081,13 +4005,13 @@
         <v>186390</v>
       </c>
       <c r="F155">
-        <v>0.66996619990342832</v>
-      </c>
-      <c r="G155" s="2" t="s">
+        <v>0.6699661999034283</v>
+      </c>
+      <c r="G155" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:7">
       <c r="A156">
         <v>2019</v>
       </c>
@@ -4104,13 +4028,13 @@
         <v>192603</v>
       </c>
       <c r="F156">
-        <v>0.47359075403809908</v>
-      </c>
-      <c r="G156" s="2" t="s">
+        <v>0.4735907540380991</v>
+      </c>
+      <c r="G156" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:7">
       <c r="A157">
         <v>2019</v>
       </c>
@@ -4127,13 +4051,13 @@
         <v>186390</v>
       </c>
       <c r="F157">
-        <v>0.46920972155158541</v>
-      </c>
-      <c r="G157" s="2" t="s">
+        <v>0.4692097215515854</v>
+      </c>
+      <c r="G157" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:7">
       <c r="A158">
         <v>2019</v>
       </c>
@@ -4150,13 +4074,13 @@
         <v>192603</v>
       </c>
       <c r="F158">
-        <v>0.35258536990597239</v>
-      </c>
-      <c r="G158" s="2" t="s">
+        <v>0.3525853699059724</v>
+      </c>
+      <c r="G158" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:7">
       <c r="A159">
         <v>2019</v>
       </c>
@@ -4173,13 +4097,13 @@
         <v>192603</v>
       </c>
       <c r="F159">
-        <v>0.14791046868428839</v>
-      </c>
-      <c r="G159" s="2" t="s">
+        <v>0.1479104686842884</v>
+      </c>
+      <c r="G159" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:7">
       <c r="A160">
         <v>2019</v>
       </c>
@@ -4196,13 +4120,13 @@
         <v>186390</v>
       </c>
       <c r="F160">
-        <v>8.5900531144374695E-2</v>
-      </c>
-      <c r="G160" s="2" t="s">
+        <v>0.08590053114437469</v>
+      </c>
+      <c r="G160" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:7">
       <c r="A161">
         <v>2019</v>
       </c>
@@ -4221,11 +4145,11 @@
       <c r="F161">
         <v>0.1499509353436862</v>
       </c>
-      <c r="G161" s="2" t="s">
+      <c r="G161" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:7">
       <c r="A162">
         <v>2019</v>
       </c>
@@ -4244,11 +4168,11 @@
       <c r="F162">
         <v>0.2493266806159129</v>
       </c>
-      <c r="G162" s="2" t="s">
+      <c r="G162" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:7">
       <c r="A163">
         <v>2019</v>
       </c>
@@ -4267,11 +4191,11 @@
       <c r="F163">
         <v>0.2001526455974206</v>
       </c>
-      <c r="G163" s="2" t="s">
+      <c r="G163" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:7">
       <c r="A164">
         <v>2020</v>
       </c>
@@ -4288,13 +4212,13 @@
         <v>192603</v>
       </c>
       <c r="F164">
-        <v>0.20199581522613869</v>
-      </c>
-      <c r="G164" s="2" t="s">
+        <v>0.2019958152261387</v>
+      </c>
+      <c r="G164" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:7">
       <c r="A165">
         <v>2020</v>
       </c>
@@ -4311,13 +4235,13 @@
         <v>180177</v>
       </c>
       <c r="F165">
-        <v>0.20138530445062361</v>
-      </c>
-      <c r="G165" s="2" t="s">
+        <v>0.2013853044506236</v>
+      </c>
+      <c r="G165" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:7">
       <c r="A166">
         <v>2020</v>
       </c>
@@ -4334,13 +4258,13 @@
         <v>192603</v>
       </c>
       <c r="F166">
-        <v>9.265172401260624E-2</v>
-      </c>
-      <c r="G166" s="2" t="s">
+        <v>0.09265172401260624</v>
+      </c>
+      <c r="G166" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:7">
       <c r="A167">
         <v>2020</v>
       </c>
@@ -4357,13 +4281,13 @@
         <v>186390</v>
       </c>
       <c r="F167">
-        <v>1.3959976393583351E-2</v>
-      </c>
-      <c r="G167" s="2" t="s">
+        <v>0.01395997639358335</v>
+      </c>
+      <c r="G167" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:7">
       <c r="A168">
         <v>2020</v>
       </c>
@@ -4380,13 +4304,13 @@
         <v>192603</v>
       </c>
       <c r="F168">
-        <v>1.4563636080434881E-2</v>
-      </c>
-      <c r="G168" s="2" t="s">
+        <v>0.01456363608043488</v>
+      </c>
+      <c r="G168" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:7">
       <c r="A169">
         <v>2020</v>
       </c>
@@ -4403,13 +4327,13 @@
         <v>186390</v>
       </c>
       <c r="F169">
-        <v>8.6109769837437629E-3</v>
-      </c>
-      <c r="G169" s="2" t="s">
+        <v>0.008610976983743763</v>
+      </c>
+      <c r="G169" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:7">
       <c r="A170">
         <v>2020</v>
       </c>
@@ -4426,13 +4350,13 @@
         <v>192603</v>
       </c>
       <c r="F170">
-        <v>9.0808554383888102E-3</v>
-      </c>
-      <c r="G170" s="2" t="s">
+        <v>0.00908085543838881</v>
+      </c>
+      <c r="G170" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:7">
       <c r="A171">
         <v>2020</v>
       </c>
@@ -4449,13 +4373,13 @@
         <v>192603</v>
       </c>
       <c r="F171">
-        <v>6.7444432329714487E-3</v>
-      </c>
-      <c r="G171" s="2" t="s">
+        <v>0.006744443232971449</v>
+      </c>
+      <c r="G171" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:7">
       <c r="A172">
         <v>2020</v>
       </c>
@@ -4472,13 +4396,13 @@
         <v>186390</v>
       </c>
       <c r="F172">
-        <v>6.0840173829068084E-3</v>
-      </c>
-      <c r="G172" s="2" t="s">
+        <v>0.006084017382906808</v>
+      </c>
+      <c r="G172" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:7">
       <c r="A173">
         <v>2020</v>
       </c>
@@ -4495,13 +4419,13 @@
         <v>192603</v>
       </c>
       <c r="F173">
-        <v>1.7476363296521861E-2</v>
-      </c>
-      <c r="G173" s="2" t="s">
+        <v>0.01747636329652186</v>
+      </c>
+      <c r="G173" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:7">
       <c r="A174">
         <v>2020</v>
       </c>
@@ -4518,13 +4442,13 @@
         <v>186390</v>
       </c>
       <c r="F174">
-        <v>6.9102419657706962E-3</v>
-      </c>
-      <c r="G174" s="2" t="s">
+        <v>0.006910241965770696</v>
+      </c>
+      <c r="G174" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:7">
       <c r="A175">
         <v>2020</v>
       </c>
@@ -4541,13 +4465,13 @@
         <v>192603</v>
       </c>
       <c r="F175">
-        <v>6.9002040466659394E-3</v>
-      </c>
-      <c r="G175" s="2" t="s">
+        <v>0.006900204046665939</v>
+      </c>
+      <c r="G175" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:7">
       <c r="A176">
         <v>2021</v>
       </c>
@@ -4566,11 +4490,11 @@
       <c r="F176" t="s">
         <v>7</v>
       </c>
-      <c r="G176" s="2" t="s">
+      <c r="G176" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:7">
       <c r="A177">
         <v>2019</v>
       </c>
@@ -4589,11 +4513,11 @@
       <c r="F177">
         <v>0.8075834748160724</v>
       </c>
-      <c r="G177" s="2" t="s">
+      <c r="G177" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:7">
       <c r="A178">
         <v>2019</v>
       </c>
@@ -4610,13 +4534,13 @@
         <v>173964</v>
       </c>
       <c r="F178">
-        <v>0.82545239244901247</v>
-      </c>
-      <c r="G178" s="2" t="s">
+        <v>0.8254523924490125</v>
+      </c>
+      <c r="G178" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:7">
       <c r="A179">
         <v>2019</v>
       </c>
@@ -4633,13 +4557,13 @@
         <v>192603</v>
       </c>
       <c r="F179">
-        <v>0.86108731432012997</v>
-      </c>
-      <c r="G179" s="2" t="s">
+        <v>0.86108731432013</v>
+      </c>
+      <c r="G179" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:7">
       <c r="A180">
         <v>2019</v>
       </c>
@@ -4656,13 +4580,13 @@
         <v>186390</v>
       </c>
       <c r="F180">
-        <v>0.67766511078920544</v>
-      </c>
-      <c r="G180" s="2" t="s">
+        <v>0.6776651107892054</v>
+      </c>
+      <c r="G180" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:7">
       <c r="A181">
         <v>2019</v>
       </c>
@@ -4679,13 +4603,13 @@
         <v>192603</v>
       </c>
       <c r="F181">
-        <v>0.48015866834888338</v>
-      </c>
-      <c r="G181" s="2" t="s">
+        <v>0.4801586683488834</v>
+      </c>
+      <c r="G181" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:7">
       <c r="A182">
         <v>2019</v>
       </c>
@@ -4702,13 +4626,13 @@
         <v>186390</v>
       </c>
       <c r="F182">
-        <v>0.47528837383979827</v>
-      </c>
-      <c r="G182" s="2" t="s">
+        <v>0.4752883738397983</v>
+      </c>
+      <c r="G182" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:7">
       <c r="A183">
         <v>2019</v>
       </c>
@@ -4725,13 +4649,13 @@
         <v>192603</v>
       </c>
       <c r="F183">
-        <v>0.35794354189706279</v>
-      </c>
-      <c r="G183" s="2" t="s">
+        <v>0.3579435418970628</v>
+      </c>
+      <c r="G183" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:7">
       <c r="A184">
         <v>2019</v>
       </c>
@@ -4748,13 +4672,13 @@
         <v>192603</v>
       </c>
       <c r="F184">
-        <v>0.15006515994039549</v>
-      </c>
-      <c r="G184" s="2" t="s">
+        <v>0.1500651599403955</v>
+      </c>
+      <c r="G184" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:7">
       <c r="A185">
         <v>2019</v>
       </c>
@@ -4771,13 +4695,13 @@
         <v>186390</v>
       </c>
       <c r="F185">
-        <v>8.7440313321530128E-2</v>
-      </c>
-      <c r="G185" s="2" t="s">
+        <v>0.08744031332153013</v>
+      </c>
+      <c r="G185" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:7">
       <c r="A186">
         <v>2019</v>
       </c>
@@ -4796,11 +4720,11 @@
       <c r="F186">
         <v>0.1527702060715565</v>
       </c>
-      <c r="G186" s="2" t="s">
+      <c r="G186" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:7">
       <c r="A187">
         <v>2019</v>
       </c>
@@ -4817,13 +4741,13 @@
         <v>186390</v>
       </c>
       <c r="F187">
-        <v>0.25284081764043143</v>
-      </c>
-      <c r="G187" s="2" t="s">
+        <v>0.2528408176404314</v>
+      </c>
+      <c r="G187" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:7">
       <c r="A188">
         <v>2019</v>
       </c>
@@ -4842,11 +4766,11 @@
       <c r="F188">
         <v>0.2024527136129759</v>
       </c>
-      <c r="G188" s="2" t="s">
+      <c r="G188" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:7">
       <c r="A189">
         <v>2020</v>
       </c>
@@ -4863,13 +4787,13 @@
         <v>192603</v>
       </c>
       <c r="F189">
-        <v>0.20448798824525061</v>
-      </c>
-      <c r="G189" s="2" t="s">
+        <v>0.2044879882452506</v>
+      </c>
+      <c r="G189" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:7">
       <c r="A190">
         <v>2020</v>
       </c>
@@ -4886,13 +4810,13 @@
         <v>180177</v>
       </c>
       <c r="F190">
-        <v>0.20473201352003861</v>
-      </c>
-      <c r="G190" s="2" t="s">
+        <v>0.2047320135200386</v>
+      </c>
+      <c r="G190" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:7">
       <c r="A191">
         <v>2020</v>
       </c>
@@ -4909,13 +4833,13 @@
         <v>192603</v>
       </c>
       <c r="F191">
-        <v>9.5699443933895109E-2</v>
-      </c>
-      <c r="G191" s="2" t="s">
+        <v>0.09569944393389511</v>
+      </c>
+      <c r="G191" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:7">
       <c r="A192">
         <v>2020</v>
       </c>
@@ -4932,13 +4856,13 @@
         <v>186390</v>
       </c>
       <c r="F192">
-        <v>1.3981436772359031E-2</v>
-      </c>
-      <c r="G192" s="2" t="s">
+        <v>0.01398143677235903</v>
+      </c>
+      <c r="G192" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:7">
       <c r="A193">
         <v>2020</v>
       </c>
@@ -4955,13 +4879,13 @@
         <v>192603</v>
       </c>
       <c r="F193">
-        <v>1.4854389599331269E-2</v>
-      </c>
-      <c r="G193" s="2" t="s">
+        <v>0.01485438959933127</v>
+      </c>
+      <c r="G193" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:7">
       <c r="A194">
         <v>2020</v>
       </c>
@@ -4978,13 +4902,13 @@
         <v>186390</v>
       </c>
       <c r="F194">
-        <v>8.6538977412951336E-3</v>
-      </c>
-      <c r="G194" s="2" t="s">
+        <v>0.008653897741295134</v>
+      </c>
+      <c r="G194" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:7">
       <c r="A195">
         <v>2020</v>
       </c>
@@ -5001,13 +4925,13 @@
         <v>192603</v>
       </c>
       <c r="F195">
-        <v>9.1120076011277085E-3</v>
-      </c>
-      <c r="G195" s="2" t="s">
+        <v>0.009112007601127708</v>
+      </c>
+      <c r="G195" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:7">
       <c r="A196">
         <v>2020</v>
       </c>
@@ -5024,13 +4948,13 @@
         <v>192603</v>
       </c>
       <c r="F196">
-        <v>6.7444432329714487E-3</v>
-      </c>
-      <c r="G196" s="2" t="s">
+        <v>0.006744443232971449</v>
+      </c>
+      <c r="G196" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:7">
       <c r="A197">
         <v>2020</v>
       </c>
@@ -5047,13 +4971,13 @@
         <v>186390</v>
       </c>
       <c r="F197">
-        <v>6.0840173829068084E-3</v>
-      </c>
-      <c r="G197" s="2" t="s">
+        <v>0.006084017382906808</v>
+      </c>
+      <c r="G197" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:7">
       <c r="A198">
         <v>2020</v>
       </c>
@@ -5070,13 +4994,13 @@
         <v>192603</v>
       </c>
       <c r="F198">
-        <v>1.7549051676245962E-2</v>
-      </c>
-      <c r="G198" s="2" t="s">
+        <v>0.01754905167624596</v>
+      </c>
+      <c r="G198" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:7">
       <c r="A199">
         <v>2020</v>
       </c>
@@ -5093,13 +5017,13 @@
         <v>186390</v>
       </c>
       <c r="F199">
-        <v>6.9102419657706962E-3</v>
-      </c>
-      <c r="G199" s="2" t="s">
+        <v>0.006910241965770696</v>
+      </c>
+      <c r="G199" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:7">
       <c r="A200">
         <v>2020</v>
       </c>
@@ -5116,13 +5040,13 @@
         <v>192603</v>
       </c>
       <c r="F200">
-        <v>6.9002040466659394E-3</v>
-      </c>
-      <c r="G200" s="2" t="s">
+        <v>0.006900204046665939</v>
+      </c>
+      <c r="G200" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:7">
       <c r="A201">
         <v>2021</v>
       </c>
@@ -5141,11 +5065,11 @@
       <c r="F201" t="s">
         <v>7</v>
       </c>
-      <c r="G201" s="2" t="s">
+      <c r="G201" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:7">
       <c r="A202">
         <v>2019</v>
       </c>
@@ -5164,11 +5088,11 @@
       <c r="F202">
         <v>0.8075834748160724</v>
       </c>
-      <c r="G202" s="2" t="s">
+      <c r="G202" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:7">
       <c r="A203">
         <v>2019</v>
       </c>
@@ -5185,13 +5109,13 @@
         <v>173964</v>
       </c>
       <c r="F203">
-        <v>0.82545239244901247</v>
-      </c>
-      <c r="G203" s="2" t="s">
+        <v>0.8254523924490125</v>
+      </c>
+      <c r="G203" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:7">
       <c r="A204">
         <v>2019</v>
       </c>
@@ -5208,13 +5132,13 @@
         <v>192603</v>
       </c>
       <c r="F204">
-        <v>0.86160132500532183</v>
-      </c>
-      <c r="G204" s="2" t="s">
+        <v>0.8616013250053218</v>
+      </c>
+      <c r="G204" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:7">
       <c r="A205">
         <v>2019</v>
       </c>
@@ -5231,13 +5155,13 @@
         <v>186390</v>
       </c>
       <c r="F205">
-        <v>0.68354525457374327</v>
-      </c>
-      <c r="G205" s="2" t="s">
+        <v>0.6835452545737433</v>
+      </c>
+      <c r="G205" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:7">
       <c r="A206">
         <v>2019</v>
       </c>
@@ -5254,13 +5178,13 @@
         <v>192603</v>
       </c>
       <c r="F206">
-        <v>0.48585432210297869</v>
-      </c>
-      <c r="G206" s="2" t="s">
+        <v>0.4858543221029787</v>
+      </c>
+      <c r="G206" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:7">
       <c r="A207">
         <v>2019</v>
       </c>
@@ -5277,13 +5201,13 @@
         <v>186390</v>
       </c>
       <c r="F207">
-        <v>0.48102902516229412</v>
-      </c>
-      <c r="G207" s="2" t="s">
+        <v>0.4810290251622941</v>
+      </c>
+      <c r="G207" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:7">
       <c r="A208">
         <v>2019</v>
       </c>
@@ -5302,11 +5226,11 @@
       <c r="F208">
         <v>0.3635145870002025</v>
       </c>
-      <c r="G208" s="2" t="s">
+      <c r="G208" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:7">
       <c r="A209">
         <v>2019</v>
       </c>
@@ -5323,13 +5247,13 @@
         <v>192603</v>
       </c>
       <c r="F209">
-        <v>0.15205889835568501</v>
-      </c>
-      <c r="G209" s="2" t="s">
+        <v>0.152058898355685</v>
+      </c>
+      <c r="G209" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:7">
       <c r="A210">
         <v>2019</v>
       </c>
@@ -5346,13 +5270,13 @@
         <v>186390</v>
       </c>
       <c r="F210">
-        <v>8.9065937013788288E-2</v>
-      </c>
-      <c r="G210" s="2" t="s">
+        <v>0.08906593701378829</v>
+      </c>
+      <c r="G210" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:7">
       <c r="A211">
         <v>2019</v>
       </c>
@@ -5371,11 +5295,11 @@
       <c r="F211">
         <v>0.1549975857073877</v>
       </c>
-      <c r="G211" s="2" t="s">
+      <c r="G211" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:7">
       <c r="A212">
         <v>2019</v>
       </c>
@@ -5392,13 +5316,13 @@
         <v>186390</v>
       </c>
       <c r="F212">
-        <v>0.25696657546005691</v>
-      </c>
-      <c r="G212" s="2" t="s">
+        <v>0.2569665754600569</v>
+      </c>
+      <c r="G212" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:7">
       <c r="A213">
         <v>2019</v>
       </c>
@@ -5417,11 +5341,11 @@
       <c r="F213">
         <v>0.2044776041910043</v>
       </c>
-      <c r="G213" s="2" t="s">
+      <c r="G213" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:7">
       <c r="A214">
         <v>2020</v>
       </c>
@@ -5438,13 +5362,13 @@
         <v>192603</v>
       </c>
       <c r="F214">
-        <v>0.20618058908739739</v>
-      </c>
-      <c r="G214" s="2" t="s">
+        <v>0.2061805890873974</v>
+      </c>
+      <c r="G214" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:7">
       <c r="A215">
         <v>2020</v>
       </c>
@@ -5461,13 +5385,13 @@
         <v>180177</v>
       </c>
       <c r="F215">
-        <v>0.20689100162617871</v>
-      </c>
-      <c r="G215" s="2" t="s">
+        <v>0.2068910016261787</v>
+      </c>
+      <c r="G215" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:7">
       <c r="A216">
         <v>2020</v>
       </c>
@@ -5484,13 +5408,13 @@
         <v>192603</v>
       </c>
       <c r="F216">
-        <v>9.7469925182889161E-2</v>
-      </c>
-      <c r="G216" s="2" t="s">
+        <v>0.09746992518288916</v>
+      </c>
+      <c r="G216" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:7">
       <c r="A217">
         <v>2020</v>
       </c>
@@ -5507,13 +5431,13 @@
         <v>186390</v>
       </c>
       <c r="F217">
-        <v>1.421213584419765E-2</v>
-      </c>
-      <c r="G217" s="2" t="s">
+        <v>0.01421213584419765</v>
+      </c>
+      <c r="G217" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:7">
       <c r="A218">
         <v>2020</v>
       </c>
@@ -5530,13 +5454,13 @@
         <v>192603</v>
       </c>
       <c r="F218">
-        <v>1.492707797905536E-2</v>
-      </c>
-      <c r="G218" s="2" t="s">
+        <v>0.01492707797905536</v>
+      </c>
+      <c r="G218" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:7">
       <c r="A219">
         <v>2020</v>
       </c>
@@ -5553,13 +5477,13 @@
         <v>186390</v>
       </c>
       <c r="F219">
-        <v>8.6538977412951336E-3</v>
-      </c>
-      <c r="G219" s="2" t="s">
+        <v>0.008653897741295134</v>
+      </c>
+      <c r="G219" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:7">
       <c r="A220">
         <v>2020</v>
       </c>
@@ -5576,13 +5500,13 @@
         <v>192603</v>
       </c>
       <c r="F220">
-        <v>9.1483517909897553E-3</v>
-      </c>
-      <c r="G220" s="2" t="s">
+        <v>0.009148351790989755</v>
+      </c>
+      <c r="G220" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:7">
       <c r="A221">
         <v>2020</v>
       </c>
@@ -5599,13 +5523,13 @@
         <v>192603</v>
       </c>
       <c r="F221">
-        <v>6.7444432329714487E-3</v>
-      </c>
-      <c r="G221" s="2" t="s">
+        <v>0.006744443232971449</v>
+      </c>
+      <c r="G221" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:7">
       <c r="A222">
         <v>2020</v>
       </c>
@@ -5622,13 +5546,13 @@
         <v>186390</v>
       </c>
       <c r="F222">
-        <v>6.0840173829068084E-3</v>
-      </c>
-      <c r="G222" s="2" t="s">
+        <v>0.006084017382906808</v>
+      </c>
+      <c r="G222" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:7">
       <c r="A223">
         <v>2020</v>
       </c>
@@ -5645,13 +5569,13 @@
         <v>192603</v>
       </c>
       <c r="F223">
-        <v>1.7621740055970048E-2</v>
-      </c>
-      <c r="G223" s="2" t="s">
+        <v>0.01762174005597005</v>
+      </c>
+      <c r="G223" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:7">
       <c r="A224">
         <v>2020</v>
       </c>
@@ -5668,13 +5592,13 @@
         <v>186390</v>
       </c>
       <c r="F224">
-        <v>6.9102419657706962E-3</v>
-      </c>
-      <c r="G224" s="2" t="s">
+        <v>0.006910241965770696</v>
+      </c>
+      <c r="G224" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:7">
       <c r="A225">
         <v>2020</v>
       </c>
@@ -5691,13 +5615,13 @@
         <v>192603</v>
       </c>
       <c r="F225">
-        <v>6.9728924263900358E-3</v>
-      </c>
-      <c r="G225" s="2" t="s">
+        <v>0.006972892426390036</v>
+      </c>
+      <c r="G225" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:7">
       <c r="A226">
         <v>2021</v>
       </c>
@@ -5716,11 +5640,11 @@
       <c r="F226" t="s">
         <v>7</v>
       </c>
-      <c r="G226" s="2" t="s">
+      <c r="G226" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:7">
       <c r="A227">
         <v>2019</v>
       </c>
@@ -5739,11 +5663,11 @@
       <c r="F227">
         <v>0.8075834748160724</v>
       </c>
-      <c r="G227" s="2" t="s">
+      <c r="G227" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:7">
       <c r="A228">
         <v>2019</v>
       </c>
@@ -5760,13 +5684,13 @@
         <v>173964</v>
       </c>
       <c r="F228">
-        <v>0.82545239244901247</v>
-      </c>
-      <c r="G228" s="2" t="s">
+        <v>0.8254523924490125</v>
+      </c>
+      <c r="G228" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:7">
       <c r="A229">
         <v>2019</v>
       </c>
@@ -5783,13 +5707,13 @@
         <v>192603</v>
       </c>
       <c r="F229">
-        <v>0.86101981796752902</v>
-      </c>
-      <c r="G229" s="2" t="s">
+        <v>0.861019817967529</v>
+      </c>
+      <c r="G229" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:7">
       <c r="A230">
         <v>2019</v>
       </c>
@@ -5806,13 +5730,13 @@
         <v>186390</v>
       </c>
       <c r="F230">
-        <v>0.68720424915499756</v>
-      </c>
-      <c r="G230" s="2" t="s">
+        <v>0.6872042491549976</v>
+      </c>
+      <c r="G230" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:7">
       <c r="A231">
         <v>2019</v>
       </c>
@@ -5831,11 +5755,11 @@
       <c r="F231">
         <v>0.4958333982336724</v>
       </c>
-      <c r="G231" s="2" t="s">
+      <c r="G231" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:7">
       <c r="A232">
         <v>2019</v>
       </c>
@@ -5852,13 +5776,13 @@
         <v>186390</v>
       </c>
       <c r="F232">
-        <v>0.48539084714845221</v>
-      </c>
-      <c r="G232" s="2" t="s">
+        <v>0.4853908471484522</v>
+      </c>
+      <c r="G232" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:7">
       <c r="A233">
         <v>2019</v>
       </c>
@@ -5875,13 +5799,13 @@
         <v>192603</v>
       </c>
       <c r="F233">
-        <v>0.36857162141815031</v>
-      </c>
-      <c r="G233" s="2" t="s">
+        <v>0.3685716214181503</v>
+      </c>
+      <c r="G233" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:7">
       <c r="A234">
         <v>2019</v>
       </c>
@@ -5900,11 +5824,11 @@
       <c r="F234">
         <v>0.1543589663712403</v>
       </c>
-      <c r="G234" s="2" t="s">
+      <c r="G234" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:7">
       <c r="A235">
         <v>2019</v>
       </c>
@@ -5921,13 +5845,13 @@
         <v>186390</v>
       </c>
       <c r="F235">
-        <v>9.0632544664413325E-2</v>
-      </c>
-      <c r="G235" s="2" t="s">
+        <v>0.09063254466441333</v>
+      </c>
+      <c r="G235" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:7">
       <c r="A236">
         <v>2019</v>
       </c>
@@ -5946,11 +5870,11 @@
       <c r="F236">
         <v>0.1571418929092486</v>
       </c>
-      <c r="G236" s="2" t="s">
+      <c r="G236" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:7">
       <c r="A237">
         <v>2019</v>
       </c>
@@ -5969,11 +5893,11 @@
       <c r="F237">
         <v>0.2616288427490745</v>
       </c>
-      <c r="G237" s="2" t="s">
+      <c r="G237" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:7">
       <c r="A238">
         <v>2019</v>
       </c>
@@ -5990,13 +5914,13 @@
         <v>192603</v>
       </c>
       <c r="F238">
-        <v>0.20522525609673789</v>
-      </c>
-      <c r="G238" s="2" t="s">
+        <v>0.2052252560967379</v>
+      </c>
+      <c r="G238" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:7">
       <c r="A239">
         <v>2020</v>
       </c>
@@ -6013,13 +5937,13 @@
         <v>192603</v>
       </c>
       <c r="F239">
-        <v>0.20747340384106169</v>
-      </c>
-      <c r="G239" s="2" t="s">
+        <v>0.2074734038410617</v>
+      </c>
+      <c r="G239" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:7">
       <c r="A240">
         <v>2020</v>
       </c>
@@ -6036,13 +5960,13 @@
         <v>180177</v>
       </c>
       <c r="F240">
-        <v>0.21075941990376129</v>
-      </c>
-      <c r="G240" s="2" t="s">
+        <v>0.2107594199037613</v>
+      </c>
+      <c r="G240" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:7">
       <c r="A241">
         <v>2020</v>
       </c>
@@ -6059,13 +5983,13 @@
         <v>192603</v>
       </c>
       <c r="F241">
-        <v>9.9479239679548082E-2</v>
-      </c>
-      <c r="G241" s="2" t="s">
+        <v>0.09947923967954808</v>
+      </c>
+      <c r="G241" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:7">
       <c r="A242">
         <v>2020</v>
       </c>
@@ -6082,13 +6006,13 @@
         <v>186390</v>
       </c>
       <c r="F242">
-        <v>1.4668168893180971E-2</v>
-      </c>
-      <c r="G242" s="2" t="s">
+        <v>0.01466816889318097</v>
+      </c>
+      <c r="G242" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:7">
       <c r="A243">
         <v>2020</v>
       </c>
@@ -6105,13 +6029,13 @@
         <v>192603</v>
       </c>
       <c r="F243">
-        <v>1.4942654060424811E-2</v>
-      </c>
-      <c r="G243" s="2" t="s">
+        <v>0.01494265406042481</v>
+      </c>
+      <c r="G243" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:7">
       <c r="A244">
         <v>2020</v>
       </c>
@@ -6128,13 +6052,13 @@
         <v>186390</v>
       </c>
       <c r="F244">
-        <v>8.739739256397875E-3</v>
-      </c>
-      <c r="G244" s="2" t="s">
+        <v>0.008739739256397875</v>
+      </c>
+      <c r="G244" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:7">
       <c r="A245">
         <v>2020</v>
       </c>
@@ -6151,13 +6075,13 @@
         <v>192603</v>
       </c>
       <c r="F245">
-        <v>9.1483517909897553E-3</v>
-      </c>
-      <c r="G245" s="2" t="s">
+        <v>0.009148351790989755</v>
+      </c>
+      <c r="G245" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:7">
       <c r="A246">
         <v>2020</v>
       </c>
@@ -6174,13 +6098,13 @@
         <v>192603</v>
       </c>
       <c r="F246">
-        <v>6.7444432329714487E-3</v>
-      </c>
-      <c r="G246" s="2" t="s">
+        <v>0.006744443232971449</v>
+      </c>
+      <c r="G246" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:7">
       <c r="A247">
         <v>2020</v>
       </c>
@@ -6197,13 +6121,13 @@
         <v>186390</v>
       </c>
       <c r="F247">
-        <v>6.1591287086217071E-3</v>
-      </c>
-      <c r="G247" s="2" t="s">
+        <v>0.006159128708621707</v>
+      </c>
+      <c r="G247" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:7">
       <c r="A248">
         <v>2020</v>
       </c>
@@ -6220,13 +6144,13 @@
         <v>192603</v>
       </c>
       <c r="F248">
-        <v>1.7621740055970048E-2</v>
-      </c>
-      <c r="G248" s="2" t="s">
+        <v>0.01762174005597005</v>
+      </c>
+      <c r="G248" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:7">
       <c r="A249">
         <v>2020</v>
       </c>
@@ -6243,13 +6167,13 @@
         <v>186390</v>
       </c>
       <c r="F249">
-        <v>6.9102419657706962E-3</v>
-      </c>
-      <c r="G249" s="2" t="s">
+        <v>0.006910241965770696</v>
+      </c>
+      <c r="G249" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:7">
       <c r="A250">
         <v>2020</v>
       </c>
@@ -6266,13 +6190,13 @@
         <v>192603</v>
       </c>
       <c r="F250">
-        <v>6.9728924263900358E-3</v>
-      </c>
-      <c r="G250" s="2" t="s">
+        <v>0.006972892426390036</v>
+      </c>
+      <c r="G250" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:7">
       <c r="A251">
         <v>2021</v>
       </c>
@@ -6291,11 +6215,11 @@
       <c r="F251" t="s">
         <v>7</v>
       </c>
-      <c r="G251" s="2" t="s">
+      <c r="G251" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:7">
       <c r="A252">
         <v>2019</v>
       </c>
@@ -6314,11 +6238,11 @@
       <c r="F252">
         <v>0.8075834748160724</v>
       </c>
-      <c r="G252" s="2" t="s">
+      <c r="G252" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:7">
       <c r="A253">
         <v>2019</v>
       </c>
@@ -6335,13 +6259,13 @@
         <v>173964</v>
       </c>
       <c r="F253">
-        <v>0.82545239244901247</v>
-      </c>
-      <c r="G253" s="2" t="s">
+        <v>0.8254523924490125</v>
+      </c>
+      <c r="G253" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:7">
       <c r="A254">
         <v>2019</v>
       </c>
@@ -6358,13 +6282,13 @@
         <v>192603</v>
       </c>
       <c r="F254">
-        <v>0.85937913739661376</v>
-      </c>
-      <c r="G254" s="2" t="s">
+        <v>0.8593791373966138</v>
+      </c>
+      <c r="G254" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:7">
       <c r="A255">
         <v>2019</v>
       </c>
@@ -6381,13 +6305,13 @@
         <v>186390</v>
       </c>
       <c r="F255">
-        <v>0.69257470894361284</v>
-      </c>
-      <c r="G255" s="2" t="s">
+        <v>0.6925747089436128</v>
+      </c>
+      <c r="G255" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:7">
       <c r="A256">
         <v>2019</v>
       </c>
@@ -6404,13 +6328,13 @@
         <v>192603</v>
       </c>
       <c r="F256">
-        <v>0.49923417599933539</v>
-      </c>
-      <c r="G256" s="2" t="s">
+        <v>0.4992341759993354</v>
+      </c>
+      <c r="G256" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:7">
       <c r="A257">
         <v>2019</v>
       </c>
@@ -6427,13 +6351,13 @@
         <v>186390</v>
       </c>
       <c r="F257">
-        <v>0.49183432587585169</v>
-      </c>
-      <c r="G257" s="2" t="s">
+        <v>0.4918343258758517</v>
+      </c>
+      <c r="G257" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:7">
       <c r="A258">
         <v>2019</v>
       </c>
@@ -6450,13 +6374,13 @@
         <v>192603</v>
       </c>
       <c r="F258">
-        <v>0.37371692029719161</v>
-      </c>
-      <c r="G258" s="2" t="s">
+        <v>0.3737169202971916</v>
+      </c>
+      <c r="G258" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:7">
       <c r="A259">
         <v>2019</v>
       </c>
@@ -6473,13 +6397,13 @@
         <v>192603</v>
       </c>
       <c r="F259">
-        <v>0.15688229155309111</v>
-      </c>
-      <c r="G259" s="2" t="s">
+        <v>0.1568822915530911</v>
+      </c>
+      <c r="G259" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:7">
       <c r="A260">
         <v>2019</v>
       </c>
@@ -6496,13 +6420,13 @@
         <v>186390</v>
       </c>
       <c r="F260">
-        <v>9.2472772144428353E-2</v>
-      </c>
-      <c r="G260" s="2" t="s">
+        <v>0.09247277214442835</v>
+      </c>
+      <c r="G260" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:7">
       <c r="A261">
         <v>2019</v>
       </c>
@@ -6521,11 +6445,11 @@
       <c r="F261">
         <v>0.1591615914601538</v>
       </c>
-      <c r="G261" s="2" t="s">
+      <c r="G261" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:7">
       <c r="A262">
         <v>2019</v>
       </c>
@@ -6542,13 +6466,13 @@
         <v>186390</v>
       </c>
       <c r="F262">
-        <v>0.26540586941359517</v>
-      </c>
-      <c r="G262" s="2" t="s">
+        <v>0.2654058694135952</v>
+      </c>
+      <c r="G262" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:7">
       <c r="A263">
         <v>2019</v>
       </c>
@@ -6567,11 +6491,11 @@
       <c r="F263">
         <v>0.2070061213999782</v>
       </c>
-      <c r="G263" s="2" t="s">
+      <c r="G263" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:7">
       <c r="A264">
         <v>2020</v>
       </c>
@@ -6588,13 +6512,13 @@
         <v>192603</v>
       </c>
       <c r="F264">
-        <v>0.20895832359828251</v>
-      </c>
-      <c r="G264" s="2" t="s">
+        <v>0.2089583235982825</v>
+      </c>
+      <c r="G264" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:7">
       <c r="A265">
         <v>2020</v>
       </c>
@@ -6613,11 +6537,11 @@
       <c r="F265">
         <v>0.2128240563445945</v>
       </c>
-      <c r="G265" s="2" t="s">
+      <c r="G265" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:7">
       <c r="A266">
         <v>2020</v>
       </c>
@@ -6634,13 +6558,13 @@
         <v>192603</v>
       </c>
       <c r="F266">
-        <v>0.10100050362663091</v>
-      </c>
-      <c r="G266" s="2" t="s">
+        <v>0.1010005036266309</v>
+      </c>
+      <c r="G266" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:7">
       <c r="A267">
         <v>2020</v>
       </c>
@@ -6657,13 +6581,13 @@
         <v>186390</v>
       </c>
       <c r="F267">
-        <v>1.4829121733998611E-2</v>
-      </c>
-      <c r="G267" s="2" t="s">
+        <v>0.01482912173399861</v>
+      </c>
+      <c r="G267" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:7">
       <c r="A268">
         <v>2020</v>
       </c>
@@ -6680,13 +6604,13 @@
         <v>192603</v>
       </c>
       <c r="F268">
-        <v>1.5036110548641511E-2</v>
-      </c>
-      <c r="G268" s="2" t="s">
+        <v>0.01503611054864151</v>
+      </c>
+      <c r="G268" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:7">
       <c r="A269">
         <v>2020</v>
       </c>
@@ -6703,13 +6627,13 @@
         <v>186390</v>
       </c>
       <c r="F269">
-        <v>8.739739256397875E-3</v>
-      </c>
-      <c r="G269" s="2" t="s">
+        <v>0.008739739256397875</v>
+      </c>
+      <c r="G269" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:7">
       <c r="A270">
         <v>2020</v>
       </c>
@@ -6726,13 +6650,13 @@
         <v>192603</v>
       </c>
       <c r="F270">
-        <v>9.184695980851804E-3</v>
-      </c>
-      <c r="G270" s="2" t="s">
+        <v>0.009184695980851804</v>
+      </c>
+      <c r="G270" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:7">
       <c r="A271">
         <v>2020</v>
       </c>
@@ -6749,13 +6673,13 @@
         <v>192603</v>
       </c>
       <c r="F271">
-        <v>6.8898199924196414E-3</v>
-      </c>
-      <c r="G271" s="2" t="s">
+        <v>0.006889819992419641</v>
+      </c>
+      <c r="G271" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:7">
       <c r="A272">
         <v>2020</v>
       </c>
@@ -6772,13 +6696,13 @@
         <v>186390</v>
       </c>
       <c r="F272">
-        <v>6.1591287086217071E-3</v>
-      </c>
-      <c r="G272" s="2" t="s">
+        <v>0.006159128708621707</v>
+      </c>
+      <c r="G272" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:7">
       <c r="A273">
         <v>2020</v>
       </c>
@@ -6795,13 +6719,13 @@
         <v>192603</v>
       </c>
       <c r="F273">
-        <v>1.7621740055970048E-2</v>
-      </c>
-      <c r="G273" s="2" t="s">
+        <v>0.01762174005597005</v>
+      </c>
+      <c r="G273" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:7">
       <c r="A274">
         <v>2020</v>
       </c>
@@ -6818,13 +6742,13 @@
         <v>186390</v>
       </c>
       <c r="F274">
-        <v>6.9102419657706962E-3</v>
-      </c>
-      <c r="G274" s="2" t="s">
+        <v>0.006910241965770696</v>
+      </c>
+      <c r="G274" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:7">
       <c r="A275">
         <v>2020</v>
       </c>
@@ -6841,13 +6765,13 @@
         <v>192603</v>
       </c>
       <c r="F275">
-        <v>6.9728924263900358E-3</v>
-      </c>
-      <c r="G275" s="2" t="s">
+        <v>0.006972892426390036</v>
+      </c>
+      <c r="G275" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:7">
       <c r="A276">
         <v>2021</v>
       </c>
@@ -6866,11 +6790,11 @@
       <c r="F276" t="s">
         <v>7</v>
       </c>
-      <c r="G276" s="2" t="s">
+      <c r="G276" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:7">
       <c r="A277">
         <v>2019</v>
       </c>
@@ -6889,11 +6813,11 @@
       <c r="F277">
         <v>0.8075834748160724</v>
       </c>
-      <c r="G277" s="2" t="s">
+      <c r="G277" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:7">
       <c r="A278">
         <v>2019</v>
       </c>
@@ -6910,13 +6834,13 @@
         <v>173964</v>
       </c>
       <c r="F278">
-        <v>0.82545239244901247</v>
-      </c>
-      <c r="G278" s="2" t="s">
+        <v>0.8254523924490125</v>
+      </c>
+      <c r="G278" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:7">
       <c r="A279">
         <v>2019</v>
       </c>
@@ -6933,13 +6857,13 @@
         <v>192603</v>
       </c>
       <c r="F279">
-        <v>0.84734921055227597</v>
-      </c>
-      <c r="G279" s="2" t="s">
+        <v>0.847349210552276</v>
+      </c>
+      <c r="G279" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:7">
       <c r="A280">
         <v>2019</v>
       </c>
@@ -6956,13 +6880,13 @@
         <v>186390</v>
       </c>
       <c r="F280">
-        <v>0.70484468050861093</v>
-      </c>
-      <c r="G280" s="2" t="s">
+        <v>0.7048446805086109</v>
+      </c>
+      <c r="G280" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:7">
       <c r="A281">
         <v>2019</v>
       </c>
@@ -6979,13 +6903,13 @@
         <v>192603</v>
       </c>
       <c r="F281">
-        <v>0.50239092849021039</v>
-      </c>
-      <c r="G281" s="2" t="s">
+        <v>0.5023909284902104</v>
+      </c>
+      <c r="G281" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:7">
       <c r="A282">
         <v>2019</v>
       </c>
@@ -7002,13 +6926,13 @@
         <v>186390</v>
       </c>
       <c r="F282">
-        <v>0.49967809431836469</v>
-      </c>
-      <c r="G282" s="2" t="s">
+        <v>0.4996780943183647</v>
+      </c>
+      <c r="G282" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:7">
       <c r="A283">
         <v>2019</v>
       </c>
@@ -7025,13 +6949,13 @@
         <v>192603</v>
       </c>
       <c r="F283">
-        <v>0.38273027938297949</v>
-      </c>
-      <c r="G283" s="2" t="s">
+        <v>0.3827302793829795</v>
+      </c>
+      <c r="G283" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:7">
       <c r="A284">
         <v>2019</v>
       </c>
@@ -7048,13 +6972,13 @@
         <v>192603</v>
       </c>
       <c r="F284">
-        <v>0.16201201435076301</v>
-      </c>
-      <c r="G284" s="2" t="s">
+        <v>0.162012014350763</v>
+      </c>
+      <c r="G284" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:7">
       <c r="A285">
         <v>2019</v>
       </c>
@@ -7071,13 +6995,13 @@
         <v>186390</v>
       </c>
       <c r="F285">
-        <v>9.4994366650571385E-2</v>
-      </c>
-      <c r="G285" s="2" t="s">
+        <v>0.09499436665057139</v>
+      </c>
+      <c r="G285" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:7">
       <c r="A286">
         <v>2019</v>
       </c>
@@ -7094,13 +7018,13 @@
         <v>192603</v>
       </c>
       <c r="F286">
-        <v>0.16367346303017091</v>
-      </c>
-      <c r="G286" s="2" t="s">
+        <v>0.1636734630301709</v>
+      </c>
+      <c r="G286" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:7">
       <c r="A287">
         <v>2019</v>
       </c>
@@ -7117,13 +7041,13 @@
         <v>186390</v>
       </c>
       <c r="F287">
-        <v>0.27247169912548957</v>
-      </c>
-      <c r="G287" s="2" t="s">
+        <v>0.2724716991254896</v>
+      </c>
+      <c r="G287" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:7">
       <c r="A288">
         <v>2019</v>
       </c>
@@ -7140,13 +7064,13 @@
         <v>192603</v>
       </c>
       <c r="F288">
-        <v>0.20996038483305041</v>
-      </c>
-      <c r="G288" s="2" t="s">
+        <v>0.2099603848330504</v>
+      </c>
+      <c r="G288" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:7">
       <c r="A289">
         <v>2020</v>
       </c>
@@ -7163,13 +7087,13 @@
         <v>192603</v>
       </c>
       <c r="F289">
-        <v>0.21318463367652629</v>
-      </c>
-      <c r="G289" s="2" t="s">
+        <v>0.2131846336765263</v>
+      </c>
+      <c r="G289" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:7">
       <c r="A290">
         <v>2020</v>
       </c>
@@ -7186,13 +7110,13 @@
         <v>180177</v>
       </c>
       <c r="F290">
-        <v>0.21668692452421781</v>
-      </c>
-      <c r="G290" s="2" t="s">
+        <v>0.2166869245242178</v>
+      </c>
+      <c r="G290" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:7">
       <c r="A291">
         <v>2020</v>
       </c>
@@ -7211,11 +7135,11 @@
       <c r="F291">
         <v>0.1056577519560962</v>
       </c>
-      <c r="G291" s="2" t="s">
+      <c r="G291" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:7">
       <c r="A292">
         <v>2020</v>
       </c>
@@ -7232,13 +7156,13 @@
         <v>186390</v>
       </c>
       <c r="F292">
-        <v>1.489350287032566E-2</v>
-      </c>
-      <c r="G292" s="2" t="s">
+        <v>0.01489350287032566</v>
+      </c>
+      <c r="G292" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:7">
       <c r="A293">
         <v>2020</v>
       </c>
@@ -7255,13 +7179,13 @@
         <v>192603</v>
       </c>
       <c r="F293">
-        <v>1.5036110548641511E-2</v>
-      </c>
-      <c r="G293" s="2" t="s">
+        <v>0.01503611054864151</v>
+      </c>
+      <c r="G293" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:7">
       <c r="A294">
         <v>2020</v>
       </c>
@@ -7278,13 +7202,13 @@
         <v>186390</v>
       </c>
       <c r="F294">
-        <v>8.7772949192553244E-3</v>
-      </c>
-      <c r="G294" s="2" t="s">
+        <v>0.008777294919255324</v>
+      </c>
+      <c r="G294" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:7">
       <c r="A295">
         <v>2020</v>
       </c>
@@ -7301,13 +7225,13 @@
         <v>192603</v>
       </c>
       <c r="F295">
-        <v>9.5481378794722831E-3</v>
-      </c>
-      <c r="G295" s="2" t="s">
+        <v>0.009548137879472283</v>
+      </c>
+      <c r="G295" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:7">
       <c r="A296">
         <v>2020</v>
       </c>
@@ -7324,13 +7248,13 @@
         <v>192603</v>
       </c>
       <c r="F296">
-        <v>6.8898199924196414E-3</v>
-      </c>
-      <c r="G296" s="2" t="s">
+        <v>0.006889819992419641</v>
+      </c>
+      <c r="G296" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:7">
       <c r="A297">
         <v>2020</v>
       </c>
@@ -7347,13 +7271,13 @@
         <v>186390</v>
       </c>
       <c r="F297">
-        <v>6.1591287086217071E-3</v>
-      </c>
-      <c r="G297" s="2" t="s">
+        <v>0.006159128708621707</v>
+      </c>
+      <c r="G297" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:7">
       <c r="A298">
         <v>2020</v>
       </c>
@@ -7370,13 +7294,13 @@
         <v>192603</v>
       </c>
       <c r="F298">
-        <v>1.7621740055970048E-2</v>
-      </c>
-      <c r="G298" s="2" t="s">
+        <v>0.01762174005597005</v>
+      </c>
+      <c r="G298" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:7">
       <c r="A299">
         <v>2020</v>
       </c>
@@ -7393,13 +7317,13 @@
         <v>186390</v>
       </c>
       <c r="F299">
-        <v>6.9102419657706962E-3</v>
-      </c>
-      <c r="G299" s="2" t="s">
+        <v>0.006910241965770696</v>
+      </c>
+      <c r="G299" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:7">
       <c r="A300">
         <v>2020</v>
       </c>
@@ -7416,13 +7340,13 @@
         <v>192603</v>
       </c>
       <c r="F300">
-        <v>6.9728924263900358E-3</v>
-      </c>
-      <c r="G300" s="2" t="s">
+        <v>0.006972892426390036</v>
+      </c>
+      <c r="G300" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:7">
       <c r="A301">
         <v>2021</v>
       </c>
@@ -7441,11 +7365,11 @@
       <c r="F301" t="s">
         <v>7</v>
       </c>
-      <c r="G301" s="2" t="s">
+      <c r="G301" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:7">
       <c r="A302">
         <v>2019</v>
       </c>
@@ -7464,11 +7388,11 @@
       <c r="F302">
         <v>0.8075834748160724</v>
       </c>
-      <c r="G302" s="2" t="s">
+      <c r="G302" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:7">
       <c r="A303">
         <v>2019</v>
       </c>
@@ -7485,13 +7409,13 @@
         <v>173964</v>
       </c>
       <c r="F303">
-        <v>0.82545239244901247</v>
-      </c>
-      <c r="G303" s="2" t="s">
+        <v>0.8254523924490125</v>
+      </c>
+      <c r="G303" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:7">
       <c r="A304">
         <v>2019</v>
       </c>
@@ -7508,13 +7432,13 @@
         <v>192603</v>
       </c>
       <c r="F304">
-        <v>0.84801898205116222</v>
-      </c>
-      <c r="G304" s="2" t="s">
+        <v>0.8480189820511622</v>
+      </c>
+      <c r="G304" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:7">
       <c r="A305">
         <v>2019</v>
       </c>
@@ -7531,13 +7455,13 @@
         <v>186390</v>
       </c>
       <c r="F305">
-        <v>0.71540318686624815</v>
-      </c>
-      <c r="G305" s="2" t="s">
+        <v>0.7154031868662482</v>
+      </c>
+      <c r="G305" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:7">
       <c r="A306">
         <v>2019</v>
       </c>
@@ -7554,13 +7478,13 @@
         <v>192603</v>
       </c>
       <c r="F306">
-        <v>0.51092662108066855</v>
-      </c>
-      <c r="G306" s="2" t="s">
+        <v>0.5109266210806686</v>
+      </c>
+      <c r="G306" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:7">
       <c r="A307">
         <v>2019</v>
       </c>
@@ -7579,11 +7503,11 @@
       <c r="F307">
         <v>0.5075916089918987</v>
       </c>
-      <c r="G307" s="2" t="s">
+      <c r="G307" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:7">
       <c r="A308">
         <v>2019</v>
       </c>
@@ -7600,13 +7524,13 @@
         <v>192603</v>
       </c>
       <c r="F308">
-        <v>0.38999392532826588</v>
-      </c>
-      <c r="G308" s="2" t="s">
+        <v>0.3899939253282659</v>
+      </c>
+      <c r="G308" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:7">
       <c r="A309">
         <v>2019</v>
       </c>
@@ -7625,11 +7549,11 @@
       <c r="F309">
         <v>0.1654543283334112</v>
       </c>
-      <c r="G309" s="2" t="s">
+      <c r="G309" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:7">
       <c r="A310">
         <v>2019</v>
       </c>
@@ -7646,13 +7570,13 @@
         <v>186390</v>
       </c>
       <c r="F310">
-        <v>9.7081388486506784E-2</v>
-      </c>
-      <c r="G310" s="2" t="s">
+        <v>0.09708138848650678</v>
+      </c>
+      <c r="G310" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:7">
       <c r="A311">
         <v>2019</v>
       </c>
@@ -7669,13 +7593,13 @@
         <v>192603</v>
       </c>
       <c r="F311">
-        <v>0.16650830983941059</v>
-      </c>
-      <c r="G311" s="2" t="s">
+        <v>0.1665083098394106</v>
+      </c>
+      <c r="G311" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:7">
       <c r="A312">
         <v>2019</v>
       </c>
@@ -7692,13 +7616,13 @@
         <v>186390</v>
       </c>
       <c r="F312">
-        <v>0.27740758624389722</v>
-      </c>
-      <c r="G312" s="2" t="s">
+        <v>0.2774075862438972</v>
+      </c>
+      <c r="G312" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:7">
       <c r="A313">
         <v>2019</v>
       </c>
@@ -7715,13 +7639,13 @@
         <v>192603</v>
       </c>
       <c r="F313">
-        <v>0.21294060840173831</v>
-      </c>
-      <c r="G313" s="2" t="s">
+        <v>0.2129406084017383</v>
+      </c>
+      <c r="G313" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:7">
       <c r="A314">
         <v>2020</v>
       </c>
@@ -7738,13 +7662,13 @@
         <v>192603</v>
       </c>
       <c r="F314">
-        <v>0.21621677751644569</v>
-      </c>
-      <c r="G314" s="2" t="s">
+        <v>0.2162167775164457</v>
+      </c>
+      <c r="G314" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:7">
       <c r="A315">
         <v>2020</v>
       </c>
@@ -7763,11 +7687,11 @@
       <c r="F315">
         <v>0.2202611876099613</v>
       </c>
-      <c r="G315" s="2" t="s">
+      <c r="G315" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:7">
       <c r="A316">
         <v>2020</v>
       </c>
@@ -7786,11 +7710,11 @@
       <c r="F316">
         <v>0.1084147183584887</v>
       </c>
-      <c r="G316" s="2" t="s">
+      <c r="G316" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:7">
       <c r="A317">
         <v>2020</v>
       </c>
@@ -7807,13 +7731,13 @@
         <v>186390</v>
       </c>
       <c r="F317">
-        <v>1.519394817318526E-2</v>
-      </c>
-      <c r="G317" s="2" t="s">
+        <v>0.01519394817318526</v>
+      </c>
+      <c r="G317" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:7">
       <c r="A318">
         <v>2020</v>
       </c>
@@ -7830,13 +7754,13 @@
         <v>192603</v>
       </c>
       <c r="F318">
-        <v>1.525417568781379E-2</v>
-      </c>
-      <c r="G318" s="2" t="s">
+        <v>0.01525417568781379</v>
+      </c>
+      <c r="G318" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:7">
       <c r="A319">
         <v>2020</v>
       </c>
@@ -7853,13 +7777,13 @@
         <v>186390</v>
       </c>
       <c r="F319">
-        <v>8.9275175706851218E-3</v>
-      </c>
-      <c r="G319" s="2" t="s">
+        <v>0.008927517570685122</v>
+      </c>
+      <c r="G319" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:7">
       <c r="A320">
         <v>2020</v>
       </c>
@@ -7876,13 +7800,13 @@
         <v>192603</v>
       </c>
       <c r="F320">
-        <v>9.6831305846741735E-3</v>
-      </c>
-      <c r="G320" s="2" t="s">
+        <v>0.009683130584674174</v>
+      </c>
+      <c r="G320" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:7">
       <c r="A321">
         <v>2020</v>
       </c>
@@ -7899,13 +7823,13 @@
         <v>192603</v>
       </c>
       <c r="F321">
-        <v>6.9728924263900358E-3</v>
-      </c>
-      <c r="G321" s="2" t="s">
+        <v>0.006972892426390036</v>
+      </c>
+      <c r="G321" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:7">
       <c r="A322">
         <v>2020</v>
       </c>
@@ -7922,13 +7846,13 @@
         <v>186390</v>
       </c>
       <c r="F322">
-        <v>6.1966843714791574E-3</v>
-      </c>
-      <c r="G322" s="2" t="s">
+        <v>0.006196684371479157</v>
+      </c>
+      <c r="G322" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:7">
       <c r="A323">
         <v>2020</v>
       </c>
@@ -7945,13 +7869,13 @@
         <v>192603</v>
       </c>
       <c r="F323">
-        <v>1.775154073404879E-2</v>
-      </c>
-      <c r="G323" s="2" t="s">
+        <v>0.01775154073404879</v>
+      </c>
+      <c r="G323" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:7">
       <c r="A324">
         <v>2020</v>
       </c>
@@ -7968,13 +7892,13 @@
         <v>186390</v>
       </c>
       <c r="F324">
-        <v>6.9638929127099104E-3</v>
-      </c>
-      <c r="G324" s="2" t="s">
+        <v>0.00696389291270991</v>
+      </c>
+      <c r="G324" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:7">
       <c r="A325">
         <v>2020</v>
       </c>
@@ -7991,13 +7915,13 @@
         <v>192603</v>
       </c>
       <c r="F325">
-        <v>7.0455808061141312E-3</v>
-      </c>
-      <c r="G325" s="2" t="s">
+        <v>0.007045580806114131</v>
+      </c>
+      <c r="G325" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:7">
       <c r="A326">
         <v>2021</v>
       </c>
@@ -8016,8 +7940,1158 @@
       <c r="F326" t="s">
         <v>7</v>
       </c>
-      <c r="G326" s="2" t="s">
+      <c r="G326" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
+      <c r="A327">
+        <v>2019</v>
+      </c>
+      <c r="B327">
+        <v>1</v>
+      </c>
+      <c r="C327">
+        <v>157568</v>
+      </c>
+      <c r="D327">
+        <v>2025</v>
+      </c>
+      <c r="E327">
+        <v>192603</v>
+      </c>
+      <c r="F327">
+        <v>0.8075834748160724</v>
+      </c>
+      <c r="G327" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
+      <c r="A328">
+        <v>2019</v>
+      </c>
+      <c r="B328">
+        <v>2</v>
+      </c>
+      <c r="C328">
+        <v>145468</v>
+      </c>
+      <c r="D328">
+        <v>1869</v>
+      </c>
+      <c r="E328">
+        <v>173964</v>
+      </c>
+      <c r="F328">
+        <v>0.8254523924490125</v>
+      </c>
+      <c r="G328" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
+      <c r="A329">
+        <v>2019</v>
+      </c>
+      <c r="B329">
+        <v>3</v>
+      </c>
+      <c r="C329">
+        <v>164547</v>
+      </c>
+      <c r="D329">
+        <v>1288</v>
+      </c>
+      <c r="E329">
+        <v>192603</v>
+      </c>
+      <c r="F329">
+        <v>0.8476451560982955</v>
+      </c>
+      <c r="G329" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
+      <c r="A330">
+        <v>2019</v>
+      </c>
+      <c r="B330">
+        <v>4</v>
+      </c>
+      <c r="C330">
+        <v>134284</v>
+      </c>
+      <c r="D330">
+        <v>0</v>
+      </c>
+      <c r="E330">
+        <v>186390</v>
+      </c>
+      <c r="F330">
+        <v>0.7204463758785342</v>
+      </c>
+      <c r="G330" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
+      <c r="A331">
+        <v>2019</v>
+      </c>
+      <c r="B331">
+        <v>5</v>
+      </c>
+      <c r="C331">
+        <v>99643</v>
+      </c>
+      <c r="D331">
+        <v>0</v>
+      </c>
+      <c r="E331">
+        <v>192603</v>
+      </c>
+      <c r="F331">
+        <v>0.5173491586320047</v>
+      </c>
+      <c r="G331" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
+      <c r="A332">
+        <v>2019</v>
+      </c>
+      <c r="B332">
+        <v>6</v>
+      </c>
+      <c r="C332">
+        <v>95805</v>
+      </c>
+      <c r="D332">
+        <v>0</v>
+      </c>
+      <c r="E332">
+        <v>186390</v>
+      </c>
+      <c r="F332">
+        <v>0.5140028971511347</v>
+      </c>
+      <c r="G332" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7">
+      <c r="A333">
+        <v>2019</v>
+      </c>
+      <c r="B333">
+        <v>7</v>
+      </c>
+      <c r="C333">
+        <v>76395</v>
+      </c>
+      <c r="D333">
+        <v>0</v>
+      </c>
+      <c r="E333">
+        <v>192603</v>
+      </c>
+      <c r="F333">
+        <v>0.3966449120730207</v>
+      </c>
+      <c r="G333" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
+      <c r="A334">
+        <v>2019</v>
+      </c>
+      <c r="B334">
+        <v>8</v>
+      </c>
+      <c r="C334">
+        <v>32493</v>
+      </c>
+      <c r="D334">
+        <v>0</v>
+      </c>
+      <c r="E334">
+        <v>192603</v>
+      </c>
+      <c r="F334">
+        <v>0.1687045373125029</v>
+      </c>
+      <c r="G334" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
+      <c r="A335">
+        <v>2019</v>
+      </c>
+      <c r="B335">
+        <v>9</v>
+      </c>
+      <c r="C335">
+        <v>18397</v>
+      </c>
+      <c r="D335">
+        <v>0</v>
+      </c>
+      <c r="E335">
+        <v>186390</v>
+      </c>
+      <c r="F335">
+        <v>0.09870164708407103</v>
+      </c>
+      <c r="G335" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
+      <c r="A336">
+        <v>2019</v>
+      </c>
+      <c r="B336">
+        <v>10</v>
+      </c>
+      <c r="C336">
+        <v>32667</v>
+      </c>
+      <c r="D336">
+        <v>0</v>
+      </c>
+      <c r="E336">
+        <v>192603</v>
+      </c>
+      <c r="F336">
+        <v>0.169607950031931</v>
+      </c>
+      <c r="G336" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
+      <c r="A337">
+        <v>2019</v>
+      </c>
+      <c r="B337">
+        <v>11</v>
+      </c>
+      <c r="C337">
+        <v>52473</v>
+      </c>
+      <c r="D337">
+        <v>0</v>
+      </c>
+      <c r="E337">
+        <v>186390</v>
+      </c>
+      <c r="F337">
+        <v>0.2815226138741349</v>
+      </c>
+      <c r="G337" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
+      <c r="A338">
+        <v>2019</v>
+      </c>
+      <c r="B338">
+        <v>12</v>
+      </c>
+      <c r="C338">
+        <v>41447</v>
+      </c>
+      <c r="D338">
+        <v>0</v>
+      </c>
+      <c r="E338">
+        <v>192603</v>
+      </c>
+      <c r="F338">
+        <v>0.2151939481731853</v>
+      </c>
+      <c r="G338" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
+      <c r="A339">
+        <v>2020</v>
+      </c>
+      <c r="B339">
+        <v>1</v>
+      </c>
+      <c r="C339">
+        <v>41886</v>
+      </c>
+      <c r="D339">
+        <v>0</v>
+      </c>
+      <c r="E339">
+        <v>192603</v>
+      </c>
+      <c r="F339">
+        <v>0.217473248080248</v>
+      </c>
+      <c r="G339" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
+      <c r="A340">
+        <v>2020</v>
+      </c>
+      <c r="B340">
+        <v>2</v>
+      </c>
+      <c r="C340">
+        <v>40010</v>
+      </c>
+      <c r="D340">
+        <v>0</v>
+      </c>
+      <c r="E340">
+        <v>180177</v>
+      </c>
+      <c r="F340">
+        <v>0.2220594193487515</v>
+      </c>
+      <c r="G340" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
+      <c r="A341">
+        <v>2020</v>
+      </c>
+      <c r="B341">
+        <v>3</v>
+      </c>
+      <c r="C341">
+        <v>21294</v>
+      </c>
+      <c r="D341">
+        <v>0</v>
+      </c>
+      <c r="E341">
+        <v>192603</v>
+      </c>
+      <c r="F341">
+        <v>0.1105590255603495</v>
+      </c>
+      <c r="G341" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7">
+      <c r="A342">
+        <v>2020</v>
+      </c>
+      <c r="B342">
+        <v>4</v>
+      </c>
+      <c r="C342">
+        <v>2841</v>
+      </c>
+      <c r="D342">
+        <v>0</v>
+      </c>
+      <c r="E342">
+        <v>186390</v>
+      </c>
+      <c r="F342">
+        <v>0.01524223402543055</v>
+      </c>
+      <c r="G342" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7">
+      <c r="A343">
+        <v>2020</v>
+      </c>
+      <c r="B343">
+        <v>5</v>
+      </c>
+      <c r="C343">
+        <v>2971</v>
+      </c>
+      <c r="D343">
+        <v>0</v>
+      </c>
+      <c r="E343">
+        <v>192603</v>
+      </c>
+      <c r="F343">
+        <v>0.01542551258287773</v>
+      </c>
+      <c r="G343" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7">
+      <c r="A344">
+        <v>2020</v>
+      </c>
+      <c r="B344">
+        <v>6</v>
+      </c>
+      <c r="C344">
+        <v>1694</v>
+      </c>
+      <c r="D344">
+        <v>0</v>
+      </c>
+      <c r="E344">
+        <v>186390</v>
+      </c>
+      <c r="F344">
+        <v>0.009088470411502764</v>
+      </c>
+      <c r="G344" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7">
+      <c r="A345">
+        <v>2020</v>
+      </c>
+      <c r="B345">
+        <v>7</v>
+      </c>
+      <c r="C345">
+        <v>1935</v>
+      </c>
+      <c r="D345">
+        <v>0</v>
+      </c>
+      <c r="E345">
+        <v>192603</v>
+      </c>
+      <c r="F345">
+        <v>0.01004657248329465</v>
+      </c>
+      <c r="G345" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
+      <c r="A346">
+        <v>2020</v>
+      </c>
+      <c r="B346">
+        <v>8</v>
+      </c>
+      <c r="C346">
+        <v>1343</v>
+      </c>
+      <c r="D346">
+        <v>0</v>
+      </c>
+      <c r="E346">
+        <v>192603</v>
+      </c>
+      <c r="F346">
+        <v>0.006972892426390036</v>
+      </c>
+      <c r="G346" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
+      <c r="A347">
+        <v>2020</v>
+      </c>
+      <c r="B347">
+        <v>9</v>
+      </c>
+      <c r="C347">
+        <v>1162</v>
+      </c>
+      <c r="D347">
+        <v>0</v>
+      </c>
+      <c r="E347">
+        <v>186390</v>
+      </c>
+      <c r="F347">
+        <v>0.006234240034336606</v>
+      </c>
+      <c r="G347" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
+      <c r="A348">
+        <v>2020</v>
+      </c>
+      <c r="B348">
+        <v>10</v>
+      </c>
+      <c r="C348">
+        <v>3419</v>
+      </c>
+      <c r="D348">
+        <v>0</v>
+      </c>
+      <c r="E348">
+        <v>192603</v>
+      </c>
+      <c r="F348">
+        <v>0.01775154073404879</v>
+      </c>
+      <c r="G348" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
+      <c r="A349">
+        <v>2020</v>
+      </c>
+      <c r="B349">
+        <v>11</v>
+      </c>
+      <c r="C349">
+        <v>1298</v>
+      </c>
+      <c r="D349">
+        <v>0</v>
+      </c>
+      <c r="E349">
+        <v>186390</v>
+      </c>
+      <c r="F349">
+        <v>0.00696389291270991</v>
+      </c>
+      <c r="G349" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
+      <c r="A350">
+        <v>2020</v>
+      </c>
+      <c r="B350">
+        <v>12</v>
+      </c>
+      <c r="C350">
+        <v>1357</v>
+      </c>
+      <c r="D350">
+        <v>0</v>
+      </c>
+      <c r="E350">
+        <v>192603</v>
+      </c>
+      <c r="F350">
+        <v>0.007045580806114131</v>
+      </c>
+      <c r="G350" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7">
+      <c r="A351">
+        <v>2021</v>
+      </c>
+      <c r="B351">
+        <v>1</v>
+      </c>
+      <c r="C351">
+        <v>4</v>
+      </c>
+      <c r="D351">
+        <v>0</v>
+      </c>
+      <c r="E351">
+        <v>0</v>
+      </c>
+      <c r="F351" t="s">
+        <v>7</v>
+      </c>
+      <c r="G351" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7">
+      <c r="A352">
+        <v>2019</v>
+      </c>
+      <c r="B352">
+        <v>1</v>
+      </c>
+      <c r="C352">
+        <v>157568</v>
+      </c>
+      <c r="D352">
+        <v>2025</v>
+      </c>
+      <c r="E352">
+        <v>192603</v>
+      </c>
+      <c r="F352">
+        <v>0.8075834748160724</v>
+      </c>
+      <c r="G352" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7">
+      <c r="A353">
+        <v>2019</v>
+      </c>
+      <c r="B353">
+        <v>2</v>
+      </c>
+      <c r="C353">
+        <v>145468</v>
+      </c>
+      <c r="D353">
+        <v>1869</v>
+      </c>
+      <c r="E353">
+        <v>173964</v>
+      </c>
+      <c r="F353">
+        <v>0.8254523924490125</v>
+      </c>
+      <c r="G353" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7">
+      <c r="A354">
+        <v>2019</v>
+      </c>
+      <c r="B354">
+        <v>3</v>
+      </c>
+      <c r="C354">
+        <v>164396</v>
+      </c>
+      <c r="D354">
+        <v>1354</v>
+      </c>
+      <c r="E354">
+        <v>192603</v>
+      </c>
+      <c r="F354">
+        <v>0.846518486212572</v>
+      </c>
+      <c r="G354" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7">
+      <c r="A355">
+        <v>2019</v>
+      </c>
+      <c r="B355">
+        <v>4</v>
+      </c>
+      <c r="C355">
+        <v>135521</v>
+      </c>
+      <c r="D355">
+        <v>0</v>
+      </c>
+      <c r="E355">
+        <v>186390</v>
+      </c>
+      <c r="F355">
+        <v>0.7270829980149149</v>
+      </c>
+      <c r="G355" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7">
+      <c r="A356">
+        <v>2019</v>
+      </c>
+      <c r="B356">
+        <v>5</v>
+      </c>
+      <c r="C356">
+        <v>100530</v>
+      </c>
+      <c r="D356">
+        <v>0</v>
+      </c>
+      <c r="E356">
+        <v>192603</v>
+      </c>
+      <c r="F356">
+        <v>0.5219544866902385</v>
+      </c>
+      <c r="G356" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7">
+      <c r="A357">
+        <v>2019</v>
+      </c>
+      <c r="B357">
+        <v>6</v>
+      </c>
+      <c r="C357">
+        <v>96624</v>
+      </c>
+      <c r="D357">
+        <v>0</v>
+      </c>
+      <c r="E357">
+        <v>186390</v>
+      </c>
+      <c r="F357">
+        <v>0.5183969097054563</v>
+      </c>
+      <c r="G357" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7">
+      <c r="A358">
+        <v>2019</v>
+      </c>
+      <c r="B358">
+        <v>7</v>
+      </c>
+      <c r="C358">
+        <v>77473</v>
+      </c>
+      <c r="D358">
+        <v>0</v>
+      </c>
+      <c r="E358">
+        <v>192603</v>
+      </c>
+      <c r="F358">
+        <v>0.4022419173117761</v>
+      </c>
+      <c r="G358" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7">
+      <c r="A359">
+        <v>2019</v>
+      </c>
+      <c r="B359">
+        <v>8</v>
+      </c>
+      <c r="C359">
+        <v>32924</v>
+      </c>
+      <c r="D359">
+        <v>0</v>
+      </c>
+      <c r="E359">
+        <v>192603</v>
+      </c>
+      <c r="F359">
+        <v>0.1709423010025804</v>
+      </c>
+      <c r="G359" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7">
+      <c r="A360">
+        <v>2019</v>
+      </c>
+      <c r="B360">
+        <v>9</v>
+      </c>
+      <c r="C360">
+        <v>18673</v>
+      </c>
+      <c r="D360">
+        <v>0</v>
+      </c>
+      <c r="E360">
+        <v>186390</v>
+      </c>
+      <c r="F360">
+        <v>0.1001824132195933</v>
+      </c>
+      <c r="G360" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7">
+      <c r="A361">
+        <v>2019</v>
+      </c>
+      <c r="B361">
+        <v>10</v>
+      </c>
+      <c r="C361">
+        <v>33061</v>
+      </c>
+      <c r="D361">
+        <v>0</v>
+      </c>
+      <c r="E361">
+        <v>192603</v>
+      </c>
+      <c r="F361">
+        <v>0.1716536087184519</v>
+      </c>
+      <c r="G361" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7">
+      <c r="A362">
+        <v>2019</v>
+      </c>
+      <c r="B362">
+        <v>11</v>
+      </c>
+      <c r="C362">
+        <v>53337</v>
+      </c>
+      <c r="D362">
+        <v>0</v>
+      </c>
+      <c r="E362">
+        <v>186390</v>
+      </c>
+      <c r="F362">
+        <v>0.2861580556896829</v>
+      </c>
+      <c r="G362" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7">
+      <c r="A363">
+        <v>2019</v>
+      </c>
+      <c r="B363">
+        <v>12</v>
+      </c>
+      <c r="C363">
+        <v>41806</v>
+      </c>
+      <c r="D363">
+        <v>0</v>
+      </c>
+      <c r="E363">
+        <v>192603</v>
+      </c>
+      <c r="F363">
+        <v>0.217057885910396</v>
+      </c>
+      <c r="G363" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7">
+      <c r="A364">
+        <v>2020</v>
+      </c>
+      <c r="B364">
+        <v>1</v>
+      </c>
+      <c r="C364">
+        <v>42262</v>
+      </c>
+      <c r="D364">
+        <v>0</v>
+      </c>
+      <c r="E364">
+        <v>192603</v>
+      </c>
+      <c r="F364">
+        <v>0.2194254502785523</v>
+      </c>
+      <c r="G364" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7">
+      <c r="A365">
+        <v>2020</v>
+      </c>
+      <c r="B365">
+        <v>2</v>
+      </c>
+      <c r="C365">
+        <v>40389</v>
+      </c>
+      <c r="D365">
+        <v>0</v>
+      </c>
+      <c r="E365">
+        <v>180177</v>
+      </c>
+      <c r="F365">
+        <v>0.2241629064752993</v>
+      </c>
+      <c r="G365" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7">
+      <c r="A366">
+        <v>2020</v>
+      </c>
+      <c r="B366">
+        <v>3</v>
+      </c>
+      <c r="C366">
+        <v>21524</v>
+      </c>
+      <c r="D366">
+        <v>0</v>
+      </c>
+      <c r="E366">
+        <v>192603</v>
+      </c>
+      <c r="F366">
+        <v>0.111753191798674</v>
+      </c>
+      <c r="G366" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7">
+      <c r="A367">
+        <v>2020</v>
+      </c>
+      <c r="B367">
+        <v>4</v>
+      </c>
+      <c r="C367">
+        <v>2864</v>
+      </c>
+      <c r="D367">
+        <v>0</v>
+      </c>
+      <c r="E367">
+        <v>186390</v>
+      </c>
+      <c r="F367">
+        <v>0.01536563120339074</v>
+      </c>
+      <c r="G367" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7">
+      <c r="A368">
+        <v>2020</v>
+      </c>
+      <c r="B368">
+        <v>5</v>
+      </c>
+      <c r="C368">
+        <v>2999</v>
+      </c>
+      <c r="D368">
+        <v>0</v>
+      </c>
+      <c r="E368">
+        <v>192603</v>
+      </c>
+      <c r="F368">
+        <v>0.01557088934232592</v>
+      </c>
+      <c r="G368" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7">
+      <c r="A369">
+        <v>2020</v>
+      </c>
+      <c r="B369">
+        <v>6</v>
+      </c>
+      <c r="C369">
+        <v>1694</v>
+      </c>
+      <c r="D369">
+        <v>0</v>
+      </c>
+      <c r="E369">
+        <v>186390</v>
+      </c>
+      <c r="F369">
+        <v>0.009088470411502764</v>
+      </c>
+      <c r="G369" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7">
+      <c r="A370">
+        <v>2020</v>
+      </c>
+      <c r="B370">
+        <v>7</v>
+      </c>
+      <c r="C370">
+        <v>1928</v>
+      </c>
+      <c r="D370">
+        <v>0</v>
+      </c>
+      <c r="E370">
+        <v>192603</v>
+      </c>
+      <c r="F370">
+        <v>0.0100102282934326</v>
+      </c>
+      <c r="G370" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7">
+      <c r="A371">
+        <v>2020</v>
+      </c>
+      <c r="B371">
+        <v>8</v>
+      </c>
+      <c r="C371">
+        <v>1343</v>
+      </c>
+      <c r="D371">
+        <v>0</v>
+      </c>
+      <c r="E371">
+        <v>192603</v>
+      </c>
+      <c r="F371">
+        <v>0.006972892426390036</v>
+      </c>
+      <c r="G371" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7">
+      <c r="A372">
+        <v>2020</v>
+      </c>
+      <c r="B372">
+        <v>9</v>
+      </c>
+      <c r="C372">
+        <v>1162</v>
+      </c>
+      <c r="D372">
+        <v>0</v>
+      </c>
+      <c r="E372">
+        <v>186390</v>
+      </c>
+      <c r="F372">
+        <v>0.006234240034336606</v>
+      </c>
+      <c r="G372" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7">
+      <c r="A373">
+        <v>2020</v>
+      </c>
+      <c r="B373">
+        <v>10</v>
+      </c>
+      <c r="C373">
+        <v>3419</v>
+      </c>
+      <c r="D373">
+        <v>0</v>
+      </c>
+      <c r="E373">
+        <v>192603</v>
+      </c>
+      <c r="F373">
+        <v>0.01775154073404879</v>
+      </c>
+      <c r="G373" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7">
+      <c r="A374">
+        <v>2020</v>
+      </c>
+      <c r="B374">
+        <v>11</v>
+      </c>
+      <c r="C374">
+        <v>1298</v>
+      </c>
+      <c r="D374">
+        <v>0</v>
+      </c>
+      <c r="E374">
+        <v>186390</v>
+      </c>
+      <c r="F374">
+        <v>0.00696389291270991</v>
+      </c>
+      <c r="G374" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7">
+      <c r="A375">
+        <v>2020</v>
+      </c>
+      <c r="B375">
+        <v>12</v>
+      </c>
+      <c r="C375">
+        <v>1357</v>
+      </c>
+      <c r="D375">
+        <v>0</v>
+      </c>
+      <c r="E375">
+        <v>192603</v>
+      </c>
+      <c r="F375">
+        <v>0.007045580806114131</v>
+      </c>
+      <c r="G375" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7">
+      <c r="A376">
+        <v>2021</v>
+      </c>
+      <c r="B376">
+        <v>1</v>
+      </c>
+      <c r="C376">
+        <v>4</v>
+      </c>
+      <c r="D376">
+        <v>0</v>
+      </c>
+      <c r="E376">
+        <v>0</v>
+      </c>
+      <c r="F376" t="s">
+        <v>7</v>
+      </c>
+      <c r="G376" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Occupancy/data.xlsx
+++ b/Occupancy/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="24">
   <si>
     <t>Año</t>
   </si>
@@ -31,58 +31,61 @@
     <t>Inv Real</t>
   </si>
   <si>
-    <t>Occupancy</t>
+    <t>target</t>
   </si>
   <si>
     <t>PhotoDate</t>
   </si>
   <si>
+    <t>weekday</t>
+  </si>
+  <si>
     <t>inf</t>
   </si>
   <si>
-    <t>01/03/2019</t>
+    <t>01-03-2019</t>
   </si>
   <si>
-    <t>04/03/2019</t>
+    <t>04-03-2019</t>
   </si>
   <si>
-    <t>05/03/2019</t>
+    <t>05-03-2019</t>
   </si>
   <si>
-    <t>06/03/2019</t>
+    <t>06-03-2019</t>
   </si>
   <si>
-    <t>07/03/2019</t>
+    <t>07-03-2019</t>
   </si>
   <si>
-    <t>08/03/2019</t>
+    <t>08-03-2019</t>
   </si>
   <si>
-    <t>11/03/2019</t>
+    <t>11-03-2019</t>
   </si>
   <si>
-    <t>12/03/2019</t>
+    <t>12-03-2019</t>
   </si>
   <si>
-    <t>13/03/2019</t>
+    <t>13-03-2019</t>
   </si>
   <si>
-    <t>14/03/2019</t>
+    <t>14-03-2019</t>
   </si>
   <si>
-    <t>15/03/2019</t>
+    <t>15-03-2019</t>
   </si>
   <si>
-    <t>19/03/2019</t>
+    <t>19-03-2019</t>
   </si>
   <si>
-    <t>20/03/2019</t>
+    <t>20-03-2019</t>
   </si>
   <si>
-    <t>21/03/2019</t>
+    <t>21-03-2019</t>
   </si>
   <si>
-    <t>22/03/2019</t>
+    <t>22-03-2019</t>
   </si>
 </sst>
 </file>
@@ -440,13 +443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G376"/>
+  <dimension ref="A1:H376"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,8 +471,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -489,10 +495,13 @@
         <v>0.8075834748160724</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -512,10 +521,13 @@
         <v>0.825446644133269</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>2019</v>
       </c>
@@ -535,10 +547,13 @@
         <v>0.8806820246828969</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>2019</v>
       </c>
@@ -558,10 +573,13 @@
         <v>0.6269703310263426</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -581,10 +599,13 @@
         <v>0.4396193205713307</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -604,10 +625,13 @@
         <v>0.4348462900370191</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -627,10 +651,13 @@
         <v>0.3202182728202572</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>2019</v>
       </c>
@@ -650,10 +677,13 @@
         <v>0.1319449852806031</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>2019</v>
       </c>
@@ -673,10 +703,13 @@
         <v>0.07827673158431246</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -696,10 +729,13 @@
         <v>0.1345150387065622</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>2019</v>
       </c>
@@ -719,10 +755,13 @@
         <v>0.2212350447985407</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>2019</v>
       </c>
@@ -742,10 +781,13 @@
         <v>0.1895557182390721</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -765,10 +807,13 @@
         <v>0.1864353099380591</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>2020</v>
       </c>
@@ -788,10 +833,13 @@
         <v>0.1781192938055357</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>2020</v>
       </c>
@@ -811,10 +859,13 @@
         <v>0.03697242514394895</v>
       </c>
       <c r="G16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>2020</v>
       </c>
@@ -834,10 +885,13 @@
         <v>0.01226997156499812</v>
       </c>
       <c r="G17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>2020</v>
       </c>
@@ -857,10 +911,13 @@
         <v>0.01263739401774635</v>
       </c>
       <c r="G18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>2020</v>
       </c>
@@ -880,10 +937,13 @@
         <v>0.00827834111272064</v>
       </c>
       <c r="G19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>2020</v>
       </c>
@@ -903,10 +963,13 @@
         <v>0.00857203678032014</v>
       </c>
       <c r="G20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>2020</v>
       </c>
@@ -926,10 +989,13 @@
         <v>0.006671754853247353</v>
       </c>
       <c r="G21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>2020</v>
       </c>
@@ -949,10 +1015,13 @@
         <v>0.005896239068619561</v>
       </c>
       <c r="G22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>2020</v>
       </c>
@@ -972,10 +1041,13 @@
         <v>0.01707657720803933</v>
       </c>
       <c r="G23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>2020</v>
       </c>
@@ -995,10 +1067,13 @@
         <v>0.006835130640055797</v>
       </c>
       <c r="G24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>2020</v>
       </c>
@@ -1018,10 +1093,13 @@
         <v>0.006863859856803892</v>
       </c>
       <c r="G25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>2021</v>
       </c>
@@ -1038,13 +1116,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>9</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>2019</v>
       </c>
@@ -1064,10 +1145,13 @@
         <v>0.8075834748160724</v>
       </c>
       <c r="G27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>2019</v>
       </c>
@@ -1087,10 +1171,13 @@
         <v>0.825446644133269</v>
       </c>
       <c r="G28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>2019</v>
       </c>
@@ -1110,10 +1197,13 @@
         <v>0.8698151119141446</v>
       </c>
       <c r="G29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>2019</v>
       </c>
@@ -1133,10 +1223,13 @@
         <v>0.6346048607757927</v>
       </c>
       <c r="G30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>2019</v>
       </c>
@@ -1156,10 +1249,13 @@
         <v>0.4460366660955437</v>
       </c>
       <c r="G31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>2019</v>
       </c>
@@ -1179,10 +1275,13 @@
         <v>0.4406244970223724</v>
       </c>
       <c r="G32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>2019</v>
       </c>
@@ -1202,10 +1301,13 @@
         <v>0.3276740237691002</v>
       </c>
       <c r="G33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>2019</v>
       </c>
@@ -1225,10 +1327,13 @@
         <v>0.1361297591418618</v>
       </c>
       <c r="G34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>2019</v>
       </c>
@@ -1248,10 +1353,13 @@
         <v>0.08015451472718493</v>
       </c>
       <c r="G35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>2019</v>
       </c>
@@ -1271,10 +1379,13 @@
         <v>0.1380767693130429</v>
       </c>
       <c r="G36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>2019</v>
       </c>
@@ -1294,10 +1405,13 @@
         <v>0.2297923708353452</v>
       </c>
       <c r="G37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>2019</v>
       </c>
@@ -1317,10 +1431,13 @@
         <v>0.1909575655623225</v>
       </c>
       <c r="G38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>2020</v>
       </c>
@@ -1340,10 +1457,13 @@
         <v>0.1920686593666765</v>
       </c>
       <c r="G39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>2020</v>
       </c>
@@ -1363,10 +1483,13 @@
         <v>0.1855786254627394</v>
       </c>
       <c r="G40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>2020</v>
       </c>
@@ -1386,10 +1509,13 @@
         <v>0.07869036307845673</v>
       </c>
       <c r="G41" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>2020</v>
       </c>
@@ -1409,10 +1535,13 @@
         <v>0.01341810182949729</v>
       </c>
       <c r="G42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>2020</v>
       </c>
@@ -1432,10 +1561,13 @@
         <v>0.01277757875007139</v>
       </c>
       <c r="G43" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>2020</v>
       </c>
@@ -1455,10 +1587,13 @@
         <v>0.00827834111272064</v>
       </c>
       <c r="G44" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>2020</v>
       </c>
@@ -1478,10 +1613,13 @@
         <v>0.008717413539768331</v>
       </c>
       <c r="G45" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>2020</v>
       </c>
@@ -1501,10 +1639,13 @@
         <v>0.006744443232971449</v>
       </c>
       <c r="G46" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>2020</v>
       </c>
@@ -1524,10 +1665,13 @@
         <v>0.00597135039433446</v>
       </c>
       <c r="G47" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>2020</v>
       </c>
@@ -1547,10 +1691,13 @@
         <v>0.01707657720803933</v>
       </c>
       <c r="G48" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>2020</v>
       </c>
@@ -1570,10 +1717,13 @@
         <v>0.006835130640055797</v>
       </c>
       <c r="G49" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>2020</v>
       </c>
@@ -1593,10 +1743,13 @@
         <v>0.006863859856803892</v>
       </c>
       <c r="G50" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>2021</v>
       </c>
@@ -1613,13 +1766,16 @@
         <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G51" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>2019</v>
       </c>
@@ -1639,10 +1795,13 @@
         <v>0.8075834748160724</v>
       </c>
       <c r="G52" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>11</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>2019</v>
       </c>
@@ -1662,10 +1821,13 @@
         <v>0.8254523924490125</v>
       </c>
       <c r="G53" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>11</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>2019</v>
       </c>
@@ -1685,10 +1847,13 @@
         <v>0.8721619081738083</v>
       </c>
       <c r="G54" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>11</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>2019</v>
       </c>
@@ -1708,10 +1873,13 @@
         <v>0.6410215140297226</v>
       </c>
       <c r="G55" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>11</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>2019</v>
       </c>
@@ -1731,10 +1899,13 @@
         <v>0.4509119795641812</v>
       </c>
       <c r="G56" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>11</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>2019</v>
       </c>
@@ -1754,10 +1925,13 @@
         <v>0.448092708836311</v>
       </c>
       <c r="G57" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>11</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>2019</v>
       </c>
@@ -1777,10 +1951,13 @@
         <v>0.3323676162884275</v>
       </c>
       <c r="G58" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>11</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>2019</v>
       </c>
@@ -1800,10 +1977,13 @@
         <v>0.1376665991703141</v>
       </c>
       <c r="G59" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>11</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>2019</v>
       </c>
@@ -1823,10 +2003,13 @@
         <v>0.08098610440474274</v>
       </c>
       <c r="G60" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>11</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>2019</v>
       </c>
@@ -1846,10 +2029,13 @@
         <v>0.1397382179924508</v>
       </c>
       <c r="G61" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>11</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>2019</v>
       </c>
@@ -1869,10 +2055,13 @@
         <v>0.2333011427651698</v>
       </c>
       <c r="G62" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>11</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>2019</v>
       </c>
@@ -1892,10 +2081,13 @@
         <v>0.192639782350223</v>
       </c>
       <c r="G63" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>11</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>2020</v>
       </c>
@@ -1915,10 +2107,13 @@
         <v>0.1941402781888133</v>
       </c>
       <c r="G64" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>11</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65">
         <v>2020</v>
       </c>
@@ -1938,10 +2133,13 @@
         <v>0.1885312775770492</v>
       </c>
       <c r="G65" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>11</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66">
         <v>2020</v>
       </c>
@@ -1961,10 +2159,13 @@
         <v>0.08056468486991376</v>
       </c>
       <c r="G66" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>11</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67">
         <v>2020</v>
       </c>
@@ -1984,10 +2185,13 @@
         <v>0.0134717527764365</v>
       </c>
       <c r="G67" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>11</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68">
         <v>2020</v>
       </c>
@@ -2007,10 +2211,13 @@
         <v>0.01408077755798196</v>
       </c>
       <c r="G68" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>11</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69">
         <v>2020</v>
       </c>
@@ -2030,10 +2237,13 @@
         <v>0.008417833574762595</v>
       </c>
       <c r="G69" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>11</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70">
         <v>2020</v>
       </c>
@@ -2053,10 +2263,13 @@
         <v>0.008790101919492428</v>
       </c>
       <c r="G70" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>11</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71">
         <v>2020</v>
       </c>
@@ -2076,10 +2289,13 @@
         <v>0.006744443232971449</v>
       </c>
       <c r="G71" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>11</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72">
         <v>2020</v>
       </c>
@@ -2099,10 +2315,13 @@
         <v>0.00597135039433446</v>
       </c>
       <c r="G72" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>11</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73">
         <v>2020</v>
       </c>
@@ -2122,10 +2341,13 @@
         <v>0.01722195396748753</v>
       </c>
       <c r="G73" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>11</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74">
         <v>2020</v>
       </c>
@@ -2145,10 +2367,13 @@
         <v>0.006835130640055797</v>
       </c>
       <c r="G74" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>11</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75">
         <v>2020</v>
       </c>
@@ -2168,10 +2393,13 @@
         <v>0.006900204046665939</v>
       </c>
       <c r="G75" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>11</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76">
         <v>2021</v>
       </c>
@@ -2188,13 +2416,16 @@
         <v>0</v>
       </c>
       <c r="F76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G76" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>11</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77">
         <v>2019</v>
       </c>
@@ -2214,10 +2445,13 @@
         <v>0.8075834748160724</v>
       </c>
       <c r="G77" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78">
         <v>2019</v>
       </c>
@@ -2237,10 +2471,13 @@
         <v>0.8254523924490125</v>
       </c>
       <c r="G78" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79">
         <v>2019</v>
       </c>
@@ -2260,10 +2497,13 @@
         <v>0.87343395481898</v>
       </c>
       <c r="G79" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80">
         <v>2019</v>
       </c>
@@ -2283,10 +2523,13 @@
         <v>0.6474864531358978</v>
       </c>
       <c r="G80" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81">
         <v>2019</v>
       </c>
@@ -2306,10 +2549,13 @@
         <v>0.4541725725975193</v>
       </c>
       <c r="G81" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82">
         <v>2019</v>
       </c>
@@ -2329,10 +2575,13 @@
         <v>0.4529373893449219</v>
       </c>
       <c r="G82" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83">
         <v>2019</v>
       </c>
@@ -2352,10 +2601,13 @@
         <v>0.336131835952711</v>
       </c>
       <c r="G83" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84">
         <v>2019</v>
       </c>
@@ -2375,10 +2627,13 @@
         <v>0.1396239933957415</v>
       </c>
       <c r="G84" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85">
         <v>2019</v>
       </c>
@@ -2398,10 +2653,13 @@
         <v>0.08186597993454585</v>
       </c>
       <c r="G85" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86">
         <v>2019</v>
       </c>
@@ -2421,10 +2679,13 @@
         <v>0.1413321703192577</v>
       </c>
       <c r="G86" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87">
         <v>2019</v>
       </c>
@@ -2444,10 +2705,13 @@
         <v>0.236493374108053</v>
       </c>
       <c r="G87" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88">
         <v>2019</v>
       </c>
@@ -2467,10 +2731,13 @@
         <v>0.1941921984600448</v>
       </c>
       <c r="G88" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89">
         <v>2020</v>
       </c>
@@ -2490,10 +2757,13 @@
         <v>0.1952825241559062</v>
       </c>
       <c r="G89" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90">
         <v>2020</v>
       </c>
@@ -2513,10 +2783,13 @@
         <v>0.1920555897811596</v>
       </c>
       <c r="G90" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91">
         <v>2020</v>
       </c>
@@ -2536,10 +2809,13 @@
         <v>0.08331645924518309</v>
       </c>
       <c r="G91" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92">
         <v>2020</v>
       </c>
@@ -2559,10 +2835,13 @@
         <v>0.01364880090133591</v>
       </c>
       <c r="G92" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93">
         <v>2020</v>
       </c>
@@ -2582,10 +2861,13 @@
         <v>0.01415865796482921</v>
       </c>
       <c r="G93" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94">
         <v>2020</v>
       </c>
@@ -2605,10 +2887,13 @@
         <v>0.008455389237620044</v>
       </c>
       <c r="G94" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95">
         <v>2020</v>
       </c>
@@ -2628,10 +2913,13 @@
         <v>0.008790101919492428</v>
       </c>
       <c r="G95" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96">
         <v>2020</v>
       </c>
@@ -2651,10 +2939,13 @@
         <v>0.006744443232971449</v>
       </c>
       <c r="G96" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97">
         <v>2020</v>
       </c>
@@ -2674,10 +2965,13 @@
         <v>0.00597135039433446</v>
       </c>
       <c r="G97" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98">
         <v>2020</v>
       </c>
@@ -2697,10 +2991,13 @@
         <v>0.01729464234721162</v>
       </c>
       <c r="G98" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99">
         <v>2020</v>
       </c>
@@ -2720,10 +3017,13 @@
         <v>0.006835130640055797</v>
       </c>
       <c r="G99" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100">
         <v>2020</v>
       </c>
@@ -2743,10 +3043,13 @@
         <v>0.006900204046665939</v>
       </c>
       <c r="G100" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101">
         <v>2021</v>
       </c>
@@ -2763,13 +3066,16 @@
         <v>0</v>
       </c>
       <c r="F101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G101" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="H101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102">
         <v>2019</v>
       </c>
@@ -2789,10 +3095,13 @@
         <v>0.8075834748160724</v>
       </c>
       <c r="G102" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>13</v>
+      </c>
+      <c r="H102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103">
         <v>2019</v>
       </c>
@@ -2812,10 +3121,13 @@
         <v>0.8254523924490125</v>
       </c>
       <c r="G103" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>13</v>
+      </c>
+      <c r="H103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104">
         <v>2019</v>
       </c>
@@ -2835,10 +3147,13 @@
         <v>0.8748981064677082</v>
       </c>
       <c r="G104" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
+        <v>13</v>
+      </c>
+      <c r="H104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105">
         <v>2019</v>
       </c>
@@ -2858,10 +3173,13 @@
         <v>0.6550995225065722</v>
       </c>
       <c r="G105" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
+        <v>13</v>
+      </c>
+      <c r="H105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106">
         <v>2019</v>
       </c>
@@ -2881,10 +3199,13 @@
         <v>0.458118513211113</v>
       </c>
       <c r="G106" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
+        <v>13</v>
+      </c>
+      <c r="H106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107">
         <v>2019</v>
       </c>
@@ -2904,10 +3225,13 @@
         <v>0.4590965180535436</v>
       </c>
       <c r="G107" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
+        <v>13</v>
+      </c>
+      <c r="H107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108">
         <v>2019</v>
       </c>
@@ -2927,10 +3251,13 @@
         <v>0.3418949860594072</v>
       </c>
       <c r="G108" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
+        <v>13</v>
+      </c>
+      <c r="H108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109">
         <v>2019</v>
       </c>
@@ -2950,10 +3277,13 @@
         <v>0.1422200069573163</v>
       </c>
       <c r="G109" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+        <v>13</v>
+      </c>
+      <c r="H109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110">
         <v>2019</v>
       </c>
@@ -2973,10 +3303,13 @@
         <v>0.08288534792639091</v>
       </c>
       <c r="G110" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+        <v>13</v>
+      </c>
+      <c r="H110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111">
         <v>2019</v>
       </c>
@@ -2996,10 +3329,13 @@
         <v>0.1443902742947929</v>
       </c>
       <c r="G111" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
+        <v>13</v>
+      </c>
+      <c r="H111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112">
         <v>2019</v>
       </c>
@@ -3019,10 +3355,13 @@
         <v>0.2396534148827727</v>
       </c>
       <c r="G112" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7">
+        <v>13</v>
+      </c>
+      <c r="H112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113">
         <v>2019</v>
       </c>
@@ -3042,10 +3381,13 @@
         <v>0.1963313136347824</v>
       </c>
       <c r="G113" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+        <v>13</v>
+      </c>
+      <c r="H113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114">
         <v>2020</v>
       </c>
@@ -3065,10 +3407,13 @@
         <v>0.1975099037917374</v>
       </c>
       <c r="G114" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+        <v>13</v>
+      </c>
+      <c r="H114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115">
         <v>2020</v>
       </c>
@@ -3088,10 +3433,13 @@
         <v>0.1948694894464887</v>
       </c>
       <c r="G115" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
+        <v>13</v>
+      </c>
+      <c r="H115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116">
         <v>2020</v>
       </c>
@@ -3111,10 +3459,13 @@
         <v>0.08579824821004865</v>
       </c>
       <c r="G116" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
+        <v>13</v>
+      </c>
+      <c r="H116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117">
         <v>2020</v>
       </c>
@@ -3134,10 +3485,13 @@
         <v>0.01389023016256237</v>
       </c>
       <c r="G117" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+        <v>13</v>
+      </c>
+      <c r="H117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118">
         <v>2020</v>
       </c>
@@ -3157,10 +3511,13 @@
         <v>0.01430922675140055</v>
       </c>
       <c r="G118" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
+        <v>13</v>
+      </c>
+      <c r="H118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119">
         <v>2020</v>
       </c>
@@ -3180,10 +3537,13 @@
         <v>0.008530500563334943</v>
       </c>
       <c r="G119" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+        <v>13</v>
+      </c>
+      <c r="H119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120">
         <v>2020</v>
       </c>
@@ -3203,10 +3563,13 @@
         <v>0.008899134489078571</v>
       </c>
       <c r="G120" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
+        <v>13</v>
+      </c>
+      <c r="H120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121">
         <v>2020</v>
       </c>
@@ -3226,10 +3589,13 @@
         <v>0.006744443232971449</v>
       </c>
       <c r="G121" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
+        <v>13</v>
+      </c>
+      <c r="H121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122">
         <v>2020</v>
       </c>
@@ -3249,10 +3615,13 @@
         <v>0.006046461720049359</v>
       </c>
       <c r="G122" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
+        <v>13</v>
+      </c>
+      <c r="H122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123">
         <v>2020</v>
       </c>
@@ -3272,10 +3641,13 @@
         <v>0.01744001910665981</v>
       </c>
       <c r="G123" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+        <v>13</v>
+      </c>
+      <c r="H123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124">
         <v>2020</v>
       </c>
@@ -3295,10 +3667,13 @@
         <v>0.006910241965770696</v>
       </c>
       <c r="G124" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
+        <v>13</v>
+      </c>
+      <c r="H124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125">
         <v>2020</v>
       </c>
@@ -3318,10 +3693,13 @@
         <v>0.006900204046665939</v>
       </c>
       <c r="G125" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
+        <v>13</v>
+      </c>
+      <c r="H125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126">
         <v>2021</v>
       </c>
@@ -3338,13 +3716,16 @@
         <v>0</v>
       </c>
       <c r="F126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G126" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
+        <v>13</v>
+      </c>
+      <c r="H126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127">
         <v>2019</v>
       </c>
@@ -3364,10 +3745,13 @@
         <v>0.8075834748160724</v>
       </c>
       <c r="G127" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H127">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128">
         <v>2019</v>
       </c>
@@ -3387,10 +3771,13 @@
         <v>0.8254523924490125</v>
       </c>
       <c r="G128" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129">
         <v>2019</v>
       </c>
@@ -3410,10 +3797,13 @@
         <v>0.8739791176669107</v>
       </c>
       <c r="G129" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130">
         <v>2019</v>
       </c>
@@ -3433,10 +3823,13 @@
         <v>0.6599602982992649</v>
       </c>
       <c r="G130" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131">
         <v>2019</v>
       </c>
@@ -3456,10 +3849,13 @@
         <v>0.4634455330394646</v>
       </c>
       <c r="G131" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132">
         <v>2019</v>
       </c>
@@ -3479,10 +3875,13 @@
         <v>0.4634315145662321</v>
       </c>
       <c r="G132" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H132">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133">
         <v>2019</v>
       </c>
@@ -3502,10 +3901,13 @@
         <v>0.3467391473653058</v>
       </c>
       <c r="G133" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H133">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134">
         <v>2019</v>
       </c>
@@ -3525,10 +3927,13 @@
         <v>0.1445771872712263</v>
       </c>
       <c r="G134" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135">
         <v>2019</v>
       </c>
@@ -3548,10 +3953,13 @@
         <v>0.08400665271742046</v>
       </c>
       <c r="G135" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H135">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136">
         <v>2019</v>
       </c>
@@ -3571,10 +3979,13 @@
         <v>0.1462438279777574</v>
       </c>
       <c r="G136" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H136">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137">
         <v>2019</v>
       </c>
@@ -3594,10 +4005,13 @@
         <v>0.2426739631954504</v>
       </c>
       <c r="G137" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H137">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138">
         <v>2019</v>
       </c>
@@ -3617,10 +4031,13 @@
         <v>0.1977591210936486</v>
       </c>
       <c r="G138" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139">
         <v>2020</v>
       </c>
@@ -3640,10 +4057,13 @@
         <v>0.1988546388166332</v>
       </c>
       <c r="G139" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H139">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140">
         <v>2020</v>
       </c>
@@ -3663,10 +4083,13 @@
         <v>0.1973670335281418</v>
       </c>
       <c r="G140" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H140">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141">
         <v>2020</v>
       </c>
@@ -3686,10 +4109,13 @@
         <v>0.08753757729630379</v>
       </c>
       <c r="G141" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142">
         <v>2020</v>
       </c>
@@ -3709,10 +4135,13 @@
         <v>0.01389023016256237</v>
       </c>
       <c r="G142" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H142">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143">
         <v>2020</v>
       </c>
@@ -3732,10 +4161,13 @@
         <v>0.01438710715824779</v>
       </c>
       <c r="G143" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H143">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144">
         <v>2020</v>
       </c>
@@ -3755,10 +4187,13 @@
         <v>0.008568056226192392</v>
       </c>
       <c r="G144" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H144">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145">
         <v>2020</v>
       </c>
@@ -3778,10 +4213,13 @@
         <v>0.008899134489078571</v>
       </c>
       <c r="G145" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146">
         <v>2020</v>
       </c>
@@ -3801,10 +4239,13 @@
         <v>0.006744443232971449</v>
       </c>
       <c r="G146" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H146">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147">
         <v>2020</v>
       </c>
@@ -3824,10 +4265,13 @@
         <v>0.006046461720049359</v>
       </c>
       <c r="G147" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H147">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148">
         <v>2020</v>
       </c>
@@ -3847,10 +4291,13 @@
         <v>0.01744001910665981</v>
       </c>
       <c r="G148" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H148">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149">
         <v>2020</v>
       </c>
@@ -3870,10 +4317,13 @@
         <v>0.006910241965770696</v>
       </c>
       <c r="G149" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H149">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150">
         <v>2020</v>
       </c>
@@ -3893,10 +4343,13 @@
         <v>0.006900204046665939</v>
       </c>
       <c r="G150" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H150">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151">
         <v>2021</v>
       </c>
@@ -3913,13 +4366,16 @@
         <v>0</v>
       </c>
       <c r="F151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G151" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="H151">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152">
         <v>2019</v>
       </c>
@@ -3939,10 +4395,13 @@
         <v>0.8075834748160724</v>
       </c>
       <c r="G152" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7">
+        <v>15</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153">
         <v>2019</v>
       </c>
@@ -3962,10 +4421,13 @@
         <v>0.8254523924490125</v>
       </c>
       <c r="G153" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7">
+        <v>15</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154">
         <v>2019</v>
       </c>
@@ -3985,10 +4447,13 @@
         <v>0.861679205412169</v>
       </c>
       <c r="G154" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7">
+        <v>15</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155">
         <v>2019</v>
       </c>
@@ -4008,10 +4473,13 @@
         <v>0.6699661999034283</v>
       </c>
       <c r="G155" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7">
+        <v>15</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156">
         <v>2019</v>
       </c>
@@ -4031,10 +4499,13 @@
         <v>0.4735907540380991</v>
       </c>
       <c r="G156" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7">
+        <v>15</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157">
         <v>2019</v>
       </c>
@@ -4054,10 +4525,13 @@
         <v>0.4692097215515854</v>
       </c>
       <c r="G157" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7">
+        <v>15</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158">
         <v>2019</v>
       </c>
@@ -4077,10 +4551,13 @@
         <v>0.3525853699059724</v>
       </c>
       <c r="G158" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
+        <v>15</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159">
         <v>2019</v>
       </c>
@@ -4100,10 +4577,13 @@
         <v>0.1479104686842884</v>
       </c>
       <c r="G159" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7">
+        <v>15</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160">
         <v>2019</v>
       </c>
@@ -4123,10 +4603,13 @@
         <v>0.08590053114437469</v>
       </c>
       <c r="G160" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7">
+        <v>15</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161">
         <v>2019</v>
       </c>
@@ -4146,10 +4629,13 @@
         <v>0.1499509353436862</v>
       </c>
       <c r="G161" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
+        <v>15</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162">
         <v>2019</v>
       </c>
@@ -4169,10 +4655,13 @@
         <v>0.2493266806159129</v>
       </c>
       <c r="G162" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7">
+        <v>15</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163">
         <v>2019</v>
       </c>
@@ -4192,10 +4681,13 @@
         <v>0.2001526455974206</v>
       </c>
       <c r="G163" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7">
+        <v>15</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164">
         <v>2020</v>
       </c>
@@ -4215,10 +4707,13 @@
         <v>0.2019958152261387</v>
       </c>
       <c r="G164" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7">
+        <v>15</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165">
         <v>2020</v>
       </c>
@@ -4238,10 +4733,13 @@
         <v>0.2013853044506236</v>
       </c>
       <c r="G165" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7">
+        <v>15</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166">
         <v>2020</v>
       </c>
@@ -4261,10 +4759,13 @@
         <v>0.09265172401260624</v>
       </c>
       <c r="G166" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7">
+        <v>15</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167">
         <v>2020</v>
       </c>
@@ -4284,10 +4785,13 @@
         <v>0.01395997639358335</v>
       </c>
       <c r="G167" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
+        <v>15</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168">
         <v>2020</v>
       </c>
@@ -4307,10 +4811,13 @@
         <v>0.01456363608043488</v>
       </c>
       <c r="G168" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7">
+        <v>15</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169">
         <v>2020</v>
       </c>
@@ -4330,10 +4837,13 @@
         <v>0.008610976983743763</v>
       </c>
       <c r="G169" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
+        <v>15</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170">
         <v>2020</v>
       </c>
@@ -4353,10 +4863,13 @@
         <v>0.00908085543838881</v>
       </c>
       <c r="G170" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7">
+        <v>15</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171">
         <v>2020</v>
       </c>
@@ -4376,10 +4889,13 @@
         <v>0.006744443232971449</v>
       </c>
       <c r="G171" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7">
+        <v>15</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172">
         <v>2020</v>
       </c>
@@ -4399,10 +4915,13 @@
         <v>0.006084017382906808</v>
       </c>
       <c r="G172" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
+        <v>15</v>
+      </c>
+      <c r="H172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173">
         <v>2020</v>
       </c>
@@ -4422,10 +4941,13 @@
         <v>0.01747636329652186</v>
       </c>
       <c r="G173" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7">
+        <v>15</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174">
         <v>2020</v>
       </c>
@@ -4445,10 +4967,13 @@
         <v>0.006910241965770696</v>
       </c>
       <c r="G174" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
+        <v>15</v>
+      </c>
+      <c r="H174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175">
         <v>2020</v>
       </c>
@@ -4468,10 +4993,13 @@
         <v>0.006900204046665939</v>
       </c>
       <c r="G175" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7">
+        <v>15</v>
+      </c>
+      <c r="H175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176">
         <v>2021</v>
       </c>
@@ -4488,13 +5016,16 @@
         <v>0</v>
       </c>
       <c r="F176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G176" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7">
+        <v>15</v>
+      </c>
+      <c r="H176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177">
         <v>2019</v>
       </c>
@@ -4514,10 +5045,13 @@
         <v>0.8075834748160724</v>
       </c>
       <c r="G177" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7">
+        <v>16</v>
+      </c>
+      <c r="H177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178">
         <v>2019</v>
       </c>
@@ -4537,10 +5071,13 @@
         <v>0.8254523924490125</v>
       </c>
       <c r="G178" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
+        <v>16</v>
+      </c>
+      <c r="H178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179">
         <v>2019</v>
       </c>
@@ -4560,10 +5097,13 @@
         <v>0.86108731432013</v>
       </c>
       <c r="G179" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7">
+        <v>16</v>
+      </c>
+      <c r="H179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180">
         <v>2019</v>
       </c>
@@ -4583,10 +5123,13 @@
         <v>0.6776651107892054</v>
       </c>
       <c r="G180" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7">
+        <v>16</v>
+      </c>
+      <c r="H180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181">
         <v>2019</v>
       </c>
@@ -4606,10 +5149,13 @@
         <v>0.4801586683488834</v>
       </c>
       <c r="G181" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7">
+        <v>16</v>
+      </c>
+      <c r="H181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182">
         <v>2019</v>
       </c>
@@ -4629,10 +5175,13 @@
         <v>0.4752883738397983</v>
       </c>
       <c r="G182" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7">
+        <v>16</v>
+      </c>
+      <c r="H182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183">
         <v>2019</v>
       </c>
@@ -4652,10 +5201,13 @@
         <v>0.3579435418970628</v>
       </c>
       <c r="G183" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7">
+        <v>16</v>
+      </c>
+      <c r="H183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184">
         <v>2019</v>
       </c>
@@ -4675,10 +5227,13 @@
         <v>0.1500651599403955</v>
       </c>
       <c r="G184" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7">
+        <v>16</v>
+      </c>
+      <c r="H184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185">
         <v>2019</v>
       </c>
@@ -4698,10 +5253,13 @@
         <v>0.08744031332153013</v>
       </c>
       <c r="G185" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7">
+        <v>16</v>
+      </c>
+      <c r="H185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186">
         <v>2019</v>
       </c>
@@ -4721,10 +5279,13 @@
         <v>0.1527702060715565</v>
       </c>
       <c r="G186" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7">
+        <v>16</v>
+      </c>
+      <c r="H186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187">
         <v>2019</v>
       </c>
@@ -4744,10 +5305,13 @@
         <v>0.2528408176404314</v>
       </c>
       <c r="G187" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7">
+        <v>16</v>
+      </c>
+      <c r="H187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188">
         <v>2019</v>
       </c>
@@ -4767,10 +5331,13 @@
         <v>0.2024527136129759</v>
       </c>
       <c r="G188" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7">
+        <v>16</v>
+      </c>
+      <c r="H188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189">
         <v>2020</v>
       </c>
@@ -4790,10 +5357,13 @@
         <v>0.2044879882452506</v>
       </c>
       <c r="G189" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7">
+        <v>16</v>
+      </c>
+      <c r="H189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190">
         <v>2020</v>
       </c>
@@ -4813,10 +5383,13 @@
         <v>0.2047320135200386</v>
       </c>
       <c r="G190" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7">
+        <v>16</v>
+      </c>
+      <c r="H190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191">
         <v>2020</v>
       </c>
@@ -4836,10 +5409,13 @@
         <v>0.09569944393389511</v>
       </c>
       <c r="G191" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7">
+        <v>16</v>
+      </c>
+      <c r="H191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192">
         <v>2020</v>
       </c>
@@ -4859,10 +5435,13 @@
         <v>0.01398143677235903</v>
       </c>
       <c r="G192" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7">
+        <v>16</v>
+      </c>
+      <c r="H192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193">
         <v>2020</v>
       </c>
@@ -4882,10 +5461,13 @@
         <v>0.01485438959933127</v>
       </c>
       <c r="G193" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7">
+        <v>16</v>
+      </c>
+      <c r="H193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194">
         <v>2020</v>
       </c>
@@ -4905,10 +5487,13 @@
         <v>0.008653897741295134</v>
       </c>
       <c r="G194" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7">
+        <v>16</v>
+      </c>
+      <c r="H194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195">
         <v>2020</v>
       </c>
@@ -4928,10 +5513,13 @@
         <v>0.009112007601127708</v>
       </c>
       <c r="G195" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7">
+        <v>16</v>
+      </c>
+      <c r="H195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196">
         <v>2020</v>
       </c>
@@ -4951,10 +5539,13 @@
         <v>0.006744443232971449</v>
       </c>
       <c r="G196" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7">
+        <v>16</v>
+      </c>
+      <c r="H196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197">
         <v>2020</v>
       </c>
@@ -4974,10 +5565,13 @@
         <v>0.006084017382906808</v>
       </c>
       <c r="G197" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7">
+        <v>16</v>
+      </c>
+      <c r="H197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
       <c r="A198">
         <v>2020</v>
       </c>
@@ -4997,10 +5591,13 @@
         <v>0.01754905167624596</v>
       </c>
       <c r="G198" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7">
+        <v>16</v>
+      </c>
+      <c r="H198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199">
         <v>2020</v>
       </c>
@@ -5020,10 +5617,13 @@
         <v>0.006910241965770696</v>
       </c>
       <c r="G199" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7">
+        <v>16</v>
+      </c>
+      <c r="H199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200">
         <v>2020</v>
       </c>
@@ -5043,10 +5643,13 @@
         <v>0.006900204046665939</v>
       </c>
       <c r="G200" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7">
+        <v>16</v>
+      </c>
+      <c r="H200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201">
         <v>2021</v>
       </c>
@@ -5063,13 +5666,16 @@
         <v>0</v>
       </c>
       <c r="F201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G201" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7">
+        <v>16</v>
+      </c>
+      <c r="H201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
       <c r="A202">
         <v>2019</v>
       </c>
@@ -5089,10 +5695,13 @@
         <v>0.8075834748160724</v>
       </c>
       <c r="G202" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7">
+        <v>17</v>
+      </c>
+      <c r="H202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203">
         <v>2019</v>
       </c>
@@ -5112,10 +5721,13 @@
         <v>0.8254523924490125</v>
       </c>
       <c r="G203" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7">
+        <v>17</v>
+      </c>
+      <c r="H203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
       <c r="A204">
         <v>2019</v>
       </c>
@@ -5135,10 +5747,13 @@
         <v>0.8616013250053218</v>
       </c>
       <c r="G204" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7">
+        <v>17</v>
+      </c>
+      <c r="H204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
       <c r="A205">
         <v>2019</v>
       </c>
@@ -5158,10 +5773,13 @@
         <v>0.6835452545737433</v>
       </c>
       <c r="G205" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7">
+        <v>17</v>
+      </c>
+      <c r="H205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
       <c r="A206">
         <v>2019</v>
       </c>
@@ -5181,10 +5799,13 @@
         <v>0.4858543221029787</v>
       </c>
       <c r="G206" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7">
+        <v>17</v>
+      </c>
+      <c r="H206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207">
         <v>2019</v>
       </c>
@@ -5204,10 +5825,13 @@
         <v>0.4810290251622941</v>
       </c>
       <c r="G207" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7">
+        <v>17</v>
+      </c>
+      <c r="H207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208">
         <v>2019</v>
       </c>
@@ -5227,10 +5851,13 @@
         <v>0.3635145870002025</v>
       </c>
       <c r="G208" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7">
+        <v>17</v>
+      </c>
+      <c r="H208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
       <c r="A209">
         <v>2019</v>
       </c>
@@ -5250,10 +5877,13 @@
         <v>0.152058898355685</v>
       </c>
       <c r="G209" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7">
+        <v>17</v>
+      </c>
+      <c r="H209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
       <c r="A210">
         <v>2019</v>
       </c>
@@ -5273,10 +5903,13 @@
         <v>0.08906593701378829</v>
       </c>
       <c r="G210" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7">
+        <v>17</v>
+      </c>
+      <c r="H210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
       <c r="A211">
         <v>2019</v>
       </c>
@@ -5296,10 +5929,13 @@
         <v>0.1549975857073877</v>
       </c>
       <c r="G211" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7">
+        <v>17</v>
+      </c>
+      <c r="H211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
       <c r="A212">
         <v>2019</v>
       </c>
@@ -5319,10 +5955,13 @@
         <v>0.2569665754600569</v>
       </c>
       <c r="G212" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7">
+        <v>17</v>
+      </c>
+      <c r="H212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213">
         <v>2019</v>
       </c>
@@ -5342,10 +5981,13 @@
         <v>0.2044776041910043</v>
       </c>
       <c r="G213" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7">
+        <v>17</v>
+      </c>
+      <c r="H213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214">
         <v>2020</v>
       </c>
@@ -5365,10 +6007,13 @@
         <v>0.2061805890873974</v>
       </c>
       <c r="G214" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7">
+        <v>17</v>
+      </c>
+      <c r="H214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
       <c r="A215">
         <v>2020</v>
       </c>
@@ -5388,10 +6033,13 @@
         <v>0.2068910016261787</v>
       </c>
       <c r="G215" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7">
+        <v>17</v>
+      </c>
+      <c r="H215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
       <c r="A216">
         <v>2020</v>
       </c>
@@ -5411,10 +6059,13 @@
         <v>0.09746992518288916</v>
       </c>
       <c r="G216" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7">
+        <v>17</v>
+      </c>
+      <c r="H216">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
       <c r="A217">
         <v>2020</v>
       </c>
@@ -5434,10 +6085,13 @@
         <v>0.01421213584419765</v>
       </c>
       <c r="G217" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7">
+        <v>17</v>
+      </c>
+      <c r="H217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
       <c r="A218">
         <v>2020</v>
       </c>
@@ -5457,10 +6111,13 @@
         <v>0.01492707797905536</v>
       </c>
       <c r="G218" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7">
+        <v>17</v>
+      </c>
+      <c r="H218">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
       <c r="A219">
         <v>2020</v>
       </c>
@@ -5480,10 +6137,13 @@
         <v>0.008653897741295134</v>
       </c>
       <c r="G219" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7">
+        <v>17</v>
+      </c>
+      <c r="H219">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
       <c r="A220">
         <v>2020</v>
       </c>
@@ -5503,10 +6163,13 @@
         <v>0.009148351790989755</v>
       </c>
       <c r="G220" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7">
+        <v>17</v>
+      </c>
+      <c r="H220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
       <c r="A221">
         <v>2020</v>
       </c>
@@ -5526,10 +6189,13 @@
         <v>0.006744443232971449</v>
       </c>
       <c r="G221" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7">
+        <v>17</v>
+      </c>
+      <c r="H221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
       <c r="A222">
         <v>2020</v>
       </c>
@@ -5549,10 +6215,13 @@
         <v>0.006084017382906808</v>
       </c>
       <c r="G222" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7">
+        <v>17</v>
+      </c>
+      <c r="H222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
       <c r="A223">
         <v>2020</v>
       </c>
@@ -5572,10 +6241,13 @@
         <v>0.01762174005597005</v>
       </c>
       <c r="G223" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7">
+        <v>17</v>
+      </c>
+      <c r="H223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
       <c r="A224">
         <v>2020</v>
       </c>
@@ -5595,10 +6267,13 @@
         <v>0.006910241965770696</v>
       </c>
       <c r="G224" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7">
+        <v>17</v>
+      </c>
+      <c r="H224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
       <c r="A225">
         <v>2020</v>
       </c>
@@ -5618,10 +6293,13 @@
         <v>0.006972892426390036</v>
       </c>
       <c r="G225" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7">
+        <v>17</v>
+      </c>
+      <c r="H225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
       <c r="A226">
         <v>2021</v>
       </c>
@@ -5638,13 +6316,16 @@
         <v>0</v>
       </c>
       <c r="F226" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G226" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7">
+        <v>17</v>
+      </c>
+      <c r="H226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
       <c r="A227">
         <v>2019</v>
       </c>
@@ -5664,10 +6345,13 @@
         <v>0.8075834748160724</v>
       </c>
       <c r="G227" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H227">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
       <c r="A228">
         <v>2019</v>
       </c>
@@ -5687,10 +6371,13 @@
         <v>0.8254523924490125</v>
       </c>
       <c r="G228" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H228">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
       <c r="A229">
         <v>2019</v>
       </c>
@@ -5710,10 +6397,13 @@
         <v>0.861019817967529</v>
       </c>
       <c r="G229" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H229">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
       <c r="A230">
         <v>2019</v>
       </c>
@@ -5733,10 +6423,13 @@
         <v>0.6872042491549976</v>
       </c>
       <c r="G230" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H230">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
       <c r="A231">
         <v>2019</v>
       </c>
@@ -5756,10 +6449,13 @@
         <v>0.4958333982336724</v>
       </c>
       <c r="G231" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H231">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
       <c r="A232">
         <v>2019</v>
       </c>
@@ -5779,10 +6475,13 @@
         <v>0.4853908471484522</v>
       </c>
       <c r="G232" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H232">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
       <c r="A233">
         <v>2019</v>
       </c>
@@ -5802,10 +6501,13 @@
         <v>0.3685716214181503</v>
       </c>
       <c r="G233" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H233">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
       <c r="A234">
         <v>2019</v>
       </c>
@@ -5825,10 +6527,13 @@
         <v>0.1543589663712403</v>
       </c>
       <c r="G234" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H234">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
       <c r="A235">
         <v>2019</v>
       </c>
@@ -5848,10 +6553,13 @@
         <v>0.09063254466441333</v>
       </c>
       <c r="G235" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H235">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
       <c r="A236">
         <v>2019</v>
       </c>
@@ -5871,10 +6579,13 @@
         <v>0.1571418929092486</v>
       </c>
       <c r="G236" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H236">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
       <c r="A237">
         <v>2019</v>
       </c>
@@ -5894,10 +6605,13 @@
         <v>0.2616288427490745</v>
       </c>
       <c r="G237" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H237">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
       <c r="A238">
         <v>2019</v>
       </c>
@@ -5917,10 +6631,13 @@
         <v>0.2052252560967379</v>
       </c>
       <c r="G238" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H238">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
       <c r="A239">
         <v>2020</v>
       </c>
@@ -5940,10 +6657,13 @@
         <v>0.2074734038410617</v>
       </c>
       <c r="G239" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H239">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
       <c r="A240">
         <v>2020</v>
       </c>
@@ -5963,10 +6683,13 @@
         <v>0.2107594199037613</v>
       </c>
       <c r="G240" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H240">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
       <c r="A241">
         <v>2020</v>
       </c>
@@ -5986,10 +6709,13 @@
         <v>0.09947923967954808</v>
       </c>
       <c r="G241" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H241">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8">
       <c r="A242">
         <v>2020</v>
       </c>
@@ -6009,10 +6735,13 @@
         <v>0.01466816889318097</v>
       </c>
       <c r="G242" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H242">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
       <c r="A243">
         <v>2020</v>
       </c>
@@ -6032,10 +6761,13 @@
         <v>0.01494265406042481</v>
       </c>
       <c r="G243" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H243">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
       <c r="A244">
         <v>2020</v>
       </c>
@@ -6055,10 +6787,13 @@
         <v>0.008739739256397875</v>
       </c>
       <c r="G244" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H244">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8">
       <c r="A245">
         <v>2020</v>
       </c>
@@ -6078,10 +6813,13 @@
         <v>0.009148351790989755</v>
       </c>
       <c r="G245" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H245">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
       <c r="A246">
         <v>2020</v>
       </c>
@@ -6101,10 +6839,13 @@
         <v>0.006744443232971449</v>
       </c>
       <c r="G246" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H246">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
       <c r="A247">
         <v>2020</v>
       </c>
@@ -6124,10 +6865,13 @@
         <v>0.006159128708621707</v>
       </c>
       <c r="G247" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H247">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8">
       <c r="A248">
         <v>2020</v>
       </c>
@@ -6147,10 +6891,13 @@
         <v>0.01762174005597005</v>
       </c>
       <c r="G248" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H248">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
       <c r="A249">
         <v>2020</v>
       </c>
@@ -6170,10 +6917,13 @@
         <v>0.006910241965770696</v>
       </c>
       <c r="G249" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H249">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
       <c r="A250">
         <v>2020</v>
       </c>
@@ -6193,10 +6943,13 @@
         <v>0.006972892426390036</v>
       </c>
       <c r="G250" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H250">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
       <c r="A251">
         <v>2021</v>
       </c>
@@ -6213,13 +6966,16 @@
         <v>0</v>
       </c>
       <c r="F251" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G251" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7">
+        <v>18</v>
+      </c>
+      <c r="H251">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8">
       <c r="A252">
         <v>2019</v>
       </c>
@@ -6239,10 +6995,13 @@
         <v>0.8075834748160724</v>
       </c>
       <c r="G252" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7">
+        <v>19</v>
+      </c>
+      <c r="H252">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
       <c r="A253">
         <v>2019</v>
       </c>
@@ -6262,10 +7021,13 @@
         <v>0.8254523924490125</v>
       </c>
       <c r="G253" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7">
+        <v>19</v>
+      </c>
+      <c r="H253">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
       <c r="A254">
         <v>2019</v>
       </c>
@@ -6285,10 +7047,13 @@
         <v>0.8593791373966138</v>
       </c>
       <c r="G254" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7">
+        <v>19</v>
+      </c>
+      <c r="H254">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
       <c r="A255">
         <v>2019</v>
       </c>
@@ -6308,10 +7073,13 @@
         <v>0.6925747089436128</v>
       </c>
       <c r="G255" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7">
+        <v>19</v>
+      </c>
+      <c r="H255">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
       <c r="A256">
         <v>2019</v>
       </c>
@@ -6331,10 +7099,13 @@
         <v>0.4992341759993354</v>
       </c>
       <c r="G256" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7">
+        <v>19</v>
+      </c>
+      <c r="H256">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
       <c r="A257">
         <v>2019</v>
       </c>
@@ -6354,10 +7125,13 @@
         <v>0.4918343258758517</v>
       </c>
       <c r="G257" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7">
+        <v>19</v>
+      </c>
+      <c r="H257">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8">
       <c r="A258">
         <v>2019</v>
       </c>
@@ -6377,10 +7151,13 @@
         <v>0.3737169202971916</v>
       </c>
       <c r="G258" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7">
+        <v>19</v>
+      </c>
+      <c r="H258">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
       <c r="A259">
         <v>2019</v>
       </c>
@@ -6400,10 +7177,13 @@
         <v>0.1568822915530911</v>
       </c>
       <c r="G259" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7">
+        <v>19</v>
+      </c>
+      <c r="H259">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
       <c r="A260">
         <v>2019</v>
       </c>
@@ -6423,10 +7203,13 @@
         <v>0.09247277214442835</v>
       </c>
       <c r="G260" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7">
+        <v>19</v>
+      </c>
+      <c r="H260">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8">
       <c r="A261">
         <v>2019</v>
       </c>
@@ -6446,10 +7229,13 @@
         <v>0.1591615914601538</v>
       </c>
       <c r="G261" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7">
+        <v>19</v>
+      </c>
+      <c r="H261">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
       <c r="A262">
         <v>2019</v>
       </c>
@@ -6469,10 +7255,13 @@
         <v>0.2654058694135952</v>
       </c>
       <c r="G262" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7">
+        <v>19</v>
+      </c>
+      <c r="H262">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
       <c r="A263">
         <v>2019</v>
       </c>
@@ -6492,10 +7281,13 @@
         <v>0.2070061213999782</v>
       </c>
       <c r="G263" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7">
+        <v>19</v>
+      </c>
+      <c r="H263">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8">
       <c r="A264">
         <v>2020</v>
       </c>
@@ -6515,10 +7307,13 @@
         <v>0.2089583235982825</v>
       </c>
       <c r="G264" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7">
+        <v>19</v>
+      </c>
+      <c r="H264">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
       <c r="A265">
         <v>2020</v>
       </c>
@@ -6538,10 +7333,13 @@
         <v>0.2128240563445945</v>
       </c>
       <c r="G265" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7">
+        <v>19</v>
+      </c>
+      <c r="H265">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
       <c r="A266">
         <v>2020</v>
       </c>
@@ -6561,10 +7359,13 @@
         <v>0.1010005036266309</v>
       </c>
       <c r="G266" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7">
+        <v>19</v>
+      </c>
+      <c r="H266">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8">
       <c r="A267">
         <v>2020</v>
       </c>
@@ -6584,10 +7385,13 @@
         <v>0.01482912173399861</v>
       </c>
       <c r="G267" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7">
+        <v>19</v>
+      </c>
+      <c r="H267">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
       <c r="A268">
         <v>2020</v>
       </c>
@@ -6607,10 +7411,13 @@
         <v>0.01503611054864151</v>
       </c>
       <c r="G268" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7">
+        <v>19</v>
+      </c>
+      <c r="H268">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
       <c r="A269">
         <v>2020</v>
       </c>
@@ -6630,10 +7437,13 @@
         <v>0.008739739256397875</v>
       </c>
       <c r="G269" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7">
+        <v>19</v>
+      </c>
+      <c r="H269">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8">
       <c r="A270">
         <v>2020</v>
       </c>
@@ -6653,10 +7463,13 @@
         <v>0.009184695980851804</v>
       </c>
       <c r="G270" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7">
+        <v>19</v>
+      </c>
+      <c r="H270">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
       <c r="A271">
         <v>2020</v>
       </c>
@@ -6676,10 +7489,13 @@
         <v>0.006889819992419641</v>
       </c>
       <c r="G271" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7">
+        <v>19</v>
+      </c>
+      <c r="H271">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
       <c r="A272">
         <v>2020</v>
       </c>
@@ -6699,10 +7515,13 @@
         <v>0.006159128708621707</v>
       </c>
       <c r="G272" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7">
+        <v>19</v>
+      </c>
+      <c r="H272">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8">
       <c r="A273">
         <v>2020</v>
       </c>
@@ -6722,10 +7541,13 @@
         <v>0.01762174005597005</v>
       </c>
       <c r="G273" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7">
+        <v>19</v>
+      </c>
+      <c r="H273">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
       <c r="A274">
         <v>2020</v>
       </c>
@@ -6745,10 +7567,13 @@
         <v>0.006910241965770696</v>
       </c>
       <c r="G274" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7">
+        <v>19</v>
+      </c>
+      <c r="H274">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
       <c r="A275">
         <v>2020</v>
       </c>
@@ -6768,10 +7593,13 @@
         <v>0.006972892426390036</v>
       </c>
       <c r="G275" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7">
+        <v>19</v>
+      </c>
+      <c r="H275">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8">
       <c r="A276">
         <v>2021</v>
       </c>
@@ -6788,13 +7616,16 @@
         <v>0</v>
       </c>
       <c r="F276" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G276" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7">
+        <v>19</v>
+      </c>
+      <c r="H276">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
       <c r="A277">
         <v>2019</v>
       </c>
@@ -6814,10 +7645,13 @@
         <v>0.8075834748160724</v>
       </c>
       <c r="G277" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7">
+        <v>20</v>
+      </c>
+      <c r="H277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
       <c r="A278">
         <v>2019</v>
       </c>
@@ -6837,10 +7671,13 @@
         <v>0.8254523924490125</v>
       </c>
       <c r="G278" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7">
+        <v>20</v>
+      </c>
+      <c r="H278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8">
       <c r="A279">
         <v>2019</v>
       </c>
@@ -6860,10 +7697,13 @@
         <v>0.847349210552276</v>
       </c>
       <c r="G279" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7">
+        <v>20</v>
+      </c>
+      <c r="H279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
       <c r="A280">
         <v>2019</v>
       </c>
@@ -6883,10 +7723,13 @@
         <v>0.7048446805086109</v>
       </c>
       <c r="G280" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7">
+        <v>20</v>
+      </c>
+      <c r="H280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
       <c r="A281">
         <v>2019</v>
       </c>
@@ -6906,10 +7749,13 @@
         <v>0.5023909284902104</v>
       </c>
       <c r="G281" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7">
+        <v>20</v>
+      </c>
+      <c r="H281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
       <c r="A282">
         <v>2019</v>
       </c>
@@ -6929,10 +7775,13 @@
         <v>0.4996780943183647</v>
       </c>
       <c r="G282" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7">
+        <v>20</v>
+      </c>
+      <c r="H282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
       <c r="A283">
         <v>2019</v>
       </c>
@@ -6952,10 +7801,13 @@
         <v>0.3827302793829795</v>
       </c>
       <c r="G283" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7">
+        <v>20</v>
+      </c>
+      <c r="H283">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
       <c r="A284">
         <v>2019</v>
       </c>
@@ -6975,10 +7827,13 @@
         <v>0.162012014350763</v>
       </c>
       <c r="G284" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7">
+        <v>20</v>
+      </c>
+      <c r="H284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8">
       <c r="A285">
         <v>2019</v>
       </c>
@@ -6998,10 +7853,13 @@
         <v>0.09499436665057139</v>
       </c>
       <c r="G285" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7">
+        <v>20</v>
+      </c>
+      <c r="H285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
       <c r="A286">
         <v>2019</v>
       </c>
@@ -7021,10 +7879,13 @@
         <v>0.1636734630301709</v>
       </c>
       <c r="G286" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7">
+        <v>20</v>
+      </c>
+      <c r="H286">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
       <c r="A287">
         <v>2019</v>
       </c>
@@ -7044,10 +7905,13 @@
         <v>0.2724716991254896</v>
       </c>
       <c r="G287" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7">
+        <v>20</v>
+      </c>
+      <c r="H287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8">
       <c r="A288">
         <v>2019</v>
       </c>
@@ -7067,10 +7931,13 @@
         <v>0.2099603848330504</v>
       </c>
       <c r="G288" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7">
+        <v>20</v>
+      </c>
+      <c r="H288">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
       <c r="A289">
         <v>2020</v>
       </c>
@@ -7090,10 +7957,13 @@
         <v>0.2131846336765263</v>
       </c>
       <c r="G289" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7">
+        <v>20</v>
+      </c>
+      <c r="H289">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
       <c r="A290">
         <v>2020</v>
       </c>
@@ -7113,10 +7983,13 @@
         <v>0.2166869245242178</v>
       </c>
       <c r="G290" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7">
+        <v>20</v>
+      </c>
+      <c r="H290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8">
       <c r="A291">
         <v>2020</v>
       </c>
@@ -7136,10 +8009,13 @@
         <v>0.1056577519560962</v>
       </c>
       <c r="G291" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7">
+        <v>20</v>
+      </c>
+      <c r="H291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
       <c r="A292">
         <v>2020</v>
       </c>
@@ -7159,10 +8035,13 @@
         <v>0.01489350287032566</v>
       </c>
       <c r="G292" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7">
+        <v>20</v>
+      </c>
+      <c r="H292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
       <c r="A293">
         <v>2020</v>
       </c>
@@ -7182,10 +8061,13 @@
         <v>0.01503611054864151</v>
       </c>
       <c r="G293" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7">
+        <v>20</v>
+      </c>
+      <c r="H293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8">
       <c r="A294">
         <v>2020</v>
       </c>
@@ -7205,10 +8087,13 @@
         <v>0.008777294919255324</v>
       </c>
       <c r="G294" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7">
+        <v>20</v>
+      </c>
+      <c r="H294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
       <c r="A295">
         <v>2020</v>
       </c>
@@ -7228,10 +8113,13 @@
         <v>0.009548137879472283</v>
       </c>
       <c r="G295" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7">
+        <v>20</v>
+      </c>
+      <c r="H295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
       <c r="A296">
         <v>2020</v>
       </c>
@@ -7251,10 +8139,13 @@
         <v>0.006889819992419641</v>
       </c>
       <c r="G296" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7">
+        <v>20</v>
+      </c>
+      <c r="H296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8">
       <c r="A297">
         <v>2020</v>
       </c>
@@ -7274,10 +8165,13 @@
         <v>0.006159128708621707</v>
       </c>
       <c r="G297" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7">
+        <v>20</v>
+      </c>
+      <c r="H297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
       <c r="A298">
         <v>2020</v>
       </c>
@@ -7297,10 +8191,13 @@
         <v>0.01762174005597005</v>
       </c>
       <c r="G298" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7">
+        <v>20</v>
+      </c>
+      <c r="H298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
       <c r="A299">
         <v>2020</v>
       </c>
@@ -7320,10 +8217,13 @@
         <v>0.006910241965770696</v>
       </c>
       <c r="G299" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7">
+        <v>20</v>
+      </c>
+      <c r="H299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
       <c r="A300">
         <v>2020</v>
       </c>
@@ -7343,10 +8243,13 @@
         <v>0.006972892426390036</v>
       </c>
       <c r="G300" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7">
+        <v>20</v>
+      </c>
+      <c r="H300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
       <c r="A301">
         <v>2021</v>
       </c>
@@ -7363,13 +8266,16 @@
         <v>0</v>
       </c>
       <c r="F301" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G301" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7">
+        <v>20</v>
+      </c>
+      <c r="H301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8">
       <c r="A302">
         <v>2019</v>
       </c>
@@ -7389,10 +8295,13 @@
         <v>0.8075834748160724</v>
       </c>
       <c r="G302" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H302">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8">
       <c r="A303">
         <v>2019</v>
       </c>
@@ -7412,10 +8321,13 @@
         <v>0.8254523924490125</v>
       </c>
       <c r="G303" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H303">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8">
       <c r="A304">
         <v>2019</v>
       </c>
@@ -7435,10 +8347,13 @@
         <v>0.8480189820511622</v>
       </c>
       <c r="G304" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H304">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
       <c r="A305">
         <v>2019</v>
       </c>
@@ -7458,10 +8373,13 @@
         <v>0.7154031868662482</v>
       </c>
       <c r="G305" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H305">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8">
       <c r="A306">
         <v>2019</v>
       </c>
@@ -7481,10 +8399,13 @@
         <v>0.5109266210806686</v>
       </c>
       <c r="G306" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H306">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8">
       <c r="A307">
         <v>2019</v>
       </c>
@@ -7504,10 +8425,13 @@
         <v>0.5075916089918987</v>
       </c>
       <c r="G307" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H307">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8">
       <c r="A308">
         <v>2019</v>
       </c>
@@ -7527,10 +8451,13 @@
         <v>0.3899939253282659</v>
       </c>
       <c r="G308" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H308">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
       <c r="A309">
         <v>2019</v>
       </c>
@@ -7550,10 +8477,13 @@
         <v>0.1654543283334112</v>
       </c>
       <c r="G309" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H309">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8">
       <c r="A310">
         <v>2019</v>
       </c>
@@ -7573,10 +8503,13 @@
         <v>0.09708138848650678</v>
       </c>
       <c r="G310" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H310">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8">
       <c r="A311">
         <v>2019</v>
       </c>
@@ -7596,10 +8529,13 @@
         <v>0.1665083098394106</v>
       </c>
       <c r="G311" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H311">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
       <c r="A312">
         <v>2019</v>
       </c>
@@ -7619,10 +8555,13 @@
         <v>0.2774075862438972</v>
       </c>
       <c r="G312" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H312">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8">
       <c r="A313">
         <v>2019</v>
       </c>
@@ -7642,10 +8581,13 @@
         <v>0.2129406084017383</v>
       </c>
       <c r="G313" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H313">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8">
       <c r="A314">
         <v>2020</v>
       </c>
@@ -7665,10 +8607,13 @@
         <v>0.2162167775164457</v>
       </c>
       <c r="G314" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="315" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H314">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8">
       <c r="A315">
         <v>2020</v>
       </c>
@@ -7688,10 +8633,13 @@
         <v>0.2202611876099613</v>
       </c>
       <c r="G315" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H315">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8">
       <c r="A316">
         <v>2020</v>
       </c>
@@ -7711,10 +8659,13 @@
         <v>0.1084147183584887</v>
       </c>
       <c r="G316" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H316">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8">
       <c r="A317">
         <v>2020</v>
       </c>
@@ -7734,10 +8685,13 @@
         <v>0.01519394817318526</v>
       </c>
       <c r="G317" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="318" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H317">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8">
       <c r="A318">
         <v>2020</v>
       </c>
@@ -7757,10 +8711,13 @@
         <v>0.01525417568781379</v>
       </c>
       <c r="G318" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H318">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8">
       <c r="A319">
         <v>2020</v>
       </c>
@@ -7780,10 +8737,13 @@
         <v>0.008927517570685122</v>
       </c>
       <c r="G319" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H319">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8">
       <c r="A320">
         <v>2020</v>
       </c>
@@ -7803,10 +8763,13 @@
         <v>0.009683130584674174</v>
       </c>
       <c r="G320" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H320">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8">
       <c r="A321">
         <v>2020</v>
       </c>
@@ -7826,10 +8789,13 @@
         <v>0.006972892426390036</v>
       </c>
       <c r="G321" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H321">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8">
       <c r="A322">
         <v>2020</v>
       </c>
@@ -7849,10 +8815,13 @@
         <v>0.006196684371479157</v>
       </c>
       <c r="G322" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H322">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8">
       <c r="A323">
         <v>2020</v>
       </c>
@@ -7872,10 +8841,13 @@
         <v>0.01775154073404879</v>
       </c>
       <c r="G323" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H323">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8">
       <c r="A324">
         <v>2020</v>
       </c>
@@ -7895,10 +8867,13 @@
         <v>0.00696389291270991</v>
       </c>
       <c r="G324" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H324">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8">
       <c r="A325">
         <v>2020</v>
       </c>
@@ -7918,10 +8893,13 @@
         <v>0.007045580806114131</v>
       </c>
       <c r="G325" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H325">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8">
       <c r="A326">
         <v>2021</v>
       </c>
@@ -7938,13 +8916,16 @@
         <v>0</v>
       </c>
       <c r="F326" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G326" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7">
+        <v>21</v>
+      </c>
+      <c r="H326">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8">
       <c r="A327">
         <v>2019</v>
       </c>
@@ -7964,10 +8945,13 @@
         <v>0.8075834748160724</v>
       </c>
       <c r="G327" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H327">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8">
       <c r="A328">
         <v>2019</v>
       </c>
@@ -7987,10 +8971,13 @@
         <v>0.8254523924490125</v>
       </c>
       <c r="G328" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H328">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8">
       <c r="A329">
         <v>2019</v>
       </c>
@@ -8010,10 +8997,13 @@
         <v>0.8476451560982955</v>
       </c>
       <c r="G329" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H329">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8">
       <c r="A330">
         <v>2019</v>
       </c>
@@ -8033,10 +9023,13 @@
         <v>0.7204463758785342</v>
       </c>
       <c r="G330" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="331" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H330">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8">
       <c r="A331">
         <v>2019</v>
       </c>
@@ -8056,10 +9049,13 @@
         <v>0.5173491586320047</v>
       </c>
       <c r="G331" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="332" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H331">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8">
       <c r="A332">
         <v>2019</v>
       </c>
@@ -8079,10 +9075,13 @@
         <v>0.5140028971511347</v>
       </c>
       <c r="G332" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="333" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H332">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8">
       <c r="A333">
         <v>2019</v>
       </c>
@@ -8102,10 +9101,13 @@
         <v>0.3966449120730207</v>
       </c>
       <c r="G333" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="334" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H333">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8">
       <c r="A334">
         <v>2019</v>
       </c>
@@ -8125,10 +9127,13 @@
         <v>0.1687045373125029</v>
       </c>
       <c r="G334" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="335" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H334">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8">
       <c r="A335">
         <v>2019</v>
       </c>
@@ -8148,10 +9153,13 @@
         <v>0.09870164708407103</v>
       </c>
       <c r="G335" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="336" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H335">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8">
       <c r="A336">
         <v>2019</v>
       </c>
@@ -8171,10 +9179,13 @@
         <v>0.169607950031931</v>
       </c>
       <c r="G336" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="337" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H336">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8">
       <c r="A337">
         <v>2019</v>
       </c>
@@ -8194,10 +9205,13 @@
         <v>0.2815226138741349</v>
       </c>
       <c r="G337" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="338" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H337">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8">
       <c r="A338">
         <v>2019</v>
       </c>
@@ -8217,10 +9231,13 @@
         <v>0.2151939481731853</v>
       </c>
       <c r="G338" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="339" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H338">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8">
       <c r="A339">
         <v>2020</v>
       </c>
@@ -8240,10 +9257,13 @@
         <v>0.217473248080248</v>
       </c>
       <c r="G339" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="340" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H339">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8">
       <c r="A340">
         <v>2020</v>
       </c>
@@ -8263,10 +9283,13 @@
         <v>0.2220594193487515</v>
       </c>
       <c r="G340" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="341" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H340">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8">
       <c r="A341">
         <v>2020</v>
       </c>
@@ -8286,10 +9309,13 @@
         <v>0.1105590255603495</v>
       </c>
       <c r="G341" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="342" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H341">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8">
       <c r="A342">
         <v>2020</v>
       </c>
@@ -8309,10 +9335,13 @@
         <v>0.01524223402543055</v>
       </c>
       <c r="G342" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="343" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H342">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8">
       <c r="A343">
         <v>2020</v>
       </c>
@@ -8332,10 +9361,13 @@
         <v>0.01542551258287773</v>
       </c>
       <c r="G343" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="344" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H343">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8">
       <c r="A344">
         <v>2020</v>
       </c>
@@ -8355,10 +9387,13 @@
         <v>0.009088470411502764</v>
       </c>
       <c r="G344" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="345" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H344">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8">
       <c r="A345">
         <v>2020</v>
       </c>
@@ -8378,10 +9413,13 @@
         <v>0.01004657248329465</v>
       </c>
       <c r="G345" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="346" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H345">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8">
       <c r="A346">
         <v>2020</v>
       </c>
@@ -8401,10 +9439,13 @@
         <v>0.006972892426390036</v>
       </c>
       <c r="G346" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="347" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H346">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8">
       <c r="A347">
         <v>2020</v>
       </c>
@@ -8424,10 +9465,13 @@
         <v>0.006234240034336606</v>
       </c>
       <c r="G347" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="348" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H347">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8">
       <c r="A348">
         <v>2020</v>
       </c>
@@ -8447,10 +9491,13 @@
         <v>0.01775154073404879</v>
       </c>
       <c r="G348" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="349" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H348">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8">
       <c r="A349">
         <v>2020</v>
       </c>
@@ -8470,10 +9517,13 @@
         <v>0.00696389291270991</v>
       </c>
       <c r="G349" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="350" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H349">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8">
       <c r="A350">
         <v>2020</v>
       </c>
@@ -8493,10 +9543,13 @@
         <v>0.007045580806114131</v>
       </c>
       <c r="G350" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="351" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H350">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8">
       <c r="A351">
         <v>2021</v>
       </c>
@@ -8513,13 +9566,16 @@
         <v>0</v>
       </c>
       <c r="F351" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G351" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="352" spans="1:7">
+        <v>22</v>
+      </c>
+      <c r="H351">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8">
       <c r="A352">
         <v>2019</v>
       </c>
@@ -8539,10 +9595,13 @@
         <v>0.8075834748160724</v>
       </c>
       <c r="G352" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="353" spans="1:7">
+        <v>23</v>
+      </c>
+      <c r="H352">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8">
       <c r="A353">
         <v>2019</v>
       </c>
@@ -8562,10 +9621,13 @@
         <v>0.8254523924490125</v>
       </c>
       <c r="G353" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="354" spans="1:7">
+        <v>23</v>
+      </c>
+      <c r="H353">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8">
       <c r="A354">
         <v>2019</v>
       </c>
@@ -8585,10 +9647,13 @@
         <v>0.846518486212572</v>
       </c>
       <c r="G354" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="355" spans="1:7">
+        <v>23</v>
+      </c>
+      <c r="H354">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8">
       <c r="A355">
         <v>2019</v>
       </c>
@@ -8608,10 +9673,13 @@
         <v>0.7270829980149149</v>
       </c>
       <c r="G355" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="356" spans="1:7">
+        <v>23</v>
+      </c>
+      <c r="H355">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8">
       <c r="A356">
         <v>2019</v>
       </c>
@@ -8631,10 +9699,13 @@
         <v>0.5219544866902385</v>
       </c>
       <c r="G356" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="357" spans="1:7">
+        <v>23</v>
+      </c>
+      <c r="H356">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8">
       <c r="A357">
         <v>2019</v>
       </c>
@@ -8654,10 +9725,13 @@
         <v>0.5183969097054563</v>
       </c>
       <c r="G357" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="358" spans="1:7">
+        <v>23</v>
+      </c>
+      <c r="H357">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8">
       <c r="A358">
         <v>2019</v>
       </c>
@@ -8677,10 +9751,13 @@
         <v>0.4022419173117761</v>
       </c>
       <c r="G358" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="359" spans="1:7">
+        <v>23</v>
+      </c>
+      <c r="H358">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8">
       <c r="A359">
         <v>2019</v>
       </c>
@@ -8700,10 +9777,13 @@
         <v>0.1709423010025804</v>
       </c>
       <c r="G359" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="360" spans="1:7">
+        <v>23</v>
+      </c>
+      <c r="H359">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8">
       <c r="A360">
         <v>2019</v>
       </c>
@@ -8723,10 +9803,13 @@
         <v>0.1001824132195933</v>
       </c>
       <c r="G360" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="361" spans="1:7">
+        <v>23</v>
+      </c>
+      <c r="H360">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8">
       <c r="A361">
         <v>2019</v>
       </c>
@@ -8746,10 +9829,13 @@
         <v>0.1716536087184519</v>
       </c>
       <c r="G361" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="362" spans="1:7">
+        <v>23</v>
+      </c>
+      <c r="H361">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8">
       <c r="A362">
         <v>2019</v>
       </c>
@@ -8769,10 +9855,13 @@
         <v>0.2861580556896829</v>
       </c>
       <c r="G362" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="363" spans="1:7">
+        <v>23</v>
+      </c>
+      <c r="H362">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8">
       <c r="A363">
         <v>2019</v>
       </c>
@@ -8792,10 +9881,13 @@
         <v>0.217057885910396</v>
       </c>
       <c r="G363" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="364" spans="1:7">
+        <v>23</v>
+      </c>
+      <c r="H363">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8">
       <c r="A364">
         <v>2020</v>
       </c>
@@ -8815,10 +9907,13 @@
         <v>0.2194254502785523</v>
       </c>
       <c r="G364" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="365" spans="1:7">
+        <v>23</v>
+      </c>
+      <c r="H364">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8">
       <c r="A365">
         <v>2020</v>
       </c>
@@ -8838,10 +9933,13 @@
         <v>0.2241629064752993</v>
       </c>
       <c r="G365" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="366" spans="1:7">
+        <v>23</v>
+      </c>
+      <c r="H365">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8">
       <c r="A366">
         <v>2020</v>
       </c>
@@ -8861,10 +9959,13 @@
         <v>0.111753191798674</v>
       </c>
       <c r="G366" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="367" spans="1:7">
+        <v>23</v>
+      </c>
+      <c r="H366">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8">
       <c r="A367">
         <v>2020</v>
       </c>
@@ -8884,10 +9985,13 @@
         <v>0.01536563120339074</v>
       </c>
       <c r="G367" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="368" spans="1:7">
+        <v>23</v>
+      </c>
+      <c r="H367">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8">
       <c r="A368">
         <v>2020</v>
       </c>
@@ -8907,10 +10011,13 @@
         <v>0.01557088934232592</v>
       </c>
       <c r="G368" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="369" spans="1:7">
+        <v>23</v>
+      </c>
+      <c r="H368">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8">
       <c r="A369">
         <v>2020</v>
       </c>
@@ -8930,10 +10037,13 @@
         <v>0.009088470411502764</v>
       </c>
       <c r="G369" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="370" spans="1:7">
+        <v>23</v>
+      </c>
+      <c r="H369">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8">
       <c r="A370">
         <v>2020</v>
       </c>
@@ -8953,10 +10063,13 @@
         <v>0.0100102282934326</v>
       </c>
       <c r="G370" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="371" spans="1:7">
+        <v>23</v>
+      </c>
+      <c r="H370">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8">
       <c r="A371">
         <v>2020</v>
       </c>
@@ -8976,10 +10089,13 @@
         <v>0.006972892426390036</v>
       </c>
       <c r="G371" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="372" spans="1:7">
+        <v>23</v>
+      </c>
+      <c r="H371">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8">
       <c r="A372">
         <v>2020</v>
       </c>
@@ -8999,10 +10115,13 @@
         <v>0.006234240034336606</v>
       </c>
       <c r="G372" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="373" spans="1:7">
+        <v>23</v>
+      </c>
+      <c r="H372">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8">
       <c r="A373">
         <v>2020</v>
       </c>
@@ -9022,10 +10141,13 @@
         <v>0.01775154073404879</v>
       </c>
       <c r="G373" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="374" spans="1:7">
+        <v>23</v>
+      </c>
+      <c r="H373">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8">
       <c r="A374">
         <v>2020</v>
       </c>
@@ -9045,10 +10167,13 @@
         <v>0.00696389291270991</v>
       </c>
       <c r="G374" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="375" spans="1:7">
+        <v>23</v>
+      </c>
+      <c r="H374">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8">
       <c r="A375">
         <v>2020</v>
       </c>
@@ -9068,10 +10193,13 @@
         <v>0.007045580806114131</v>
       </c>
       <c r="G375" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="376" spans="1:7">
+        <v>23</v>
+      </c>
+      <c r="H375">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8">
       <c r="A376">
         <v>2021</v>
       </c>
@@ -9088,10 +10216,13 @@
         <v>0</v>
       </c>
       <c r="F376" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G376" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="H376">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
